--- a/Covid_19_Dataset_and_References/References/59.xlsx
+++ b/Covid_19_Dataset_and_References/References/59.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="129">
   <si>
     <t>Doi</t>
   </si>
@@ -467,6 +467,66 @@
   </si>
   <si>
     <t>[Kui%Liu%NULL%0,  Yuan-Yuan%Fang%NULL%0,  Yan%Deng%NULL%0,  Wei%Liu%NULL%0,  Mei-Fang%Wang%NULL%0,  Jing-Ping%Ma%NULL%0,  Wei%Xiao%NULL%0,  Ying-Nan%Wang%NULL%0,  Min-Hua%Zhong%NULL%0,  Cheng-Hong%Li%NULL%0,  Guang-Cai%Li%NULL%0,  Hui-Guo%Liu%NULL%0,  Xiu-Yuan%Hao%NULL%0,  Xiu-Yuan%Hao%NULL%0,  Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%0,   Austin R%Morrison%NULL%0,   Amit%Vahia%NULL%0,   Zachary R%Smith%NULL%0,   Zohra%Chaudhry%NULL%0,   Pallavi%Bhargava%NULL%0,   Joseph%Miller%NULL%0,   Rachel M%Kenney%NULL%0,   George%Alangaden%NULL%0,   Mayur S%Ramesh%mramesh1@hfhs.org%0,   Varidhi%Nauriyal%NULL%0,   Jayanth%Lakshmikanth%NULL%0,   Asif%Abdul Hamed%NULL%0,   Owais%Nadeem%NULL%0,   Kristin%Griebe%NULL%0,   Joseph M%Johnson%NULL%0,   Patrick%Bradley%NULL%0,   Junior%Uduman%NULL%0,   Sara%Hegab%NULL%0,   Jennifer%Swiderek%NULL%0,   Amanda%Godfrey%NULL%0,   Jeffrey%Jennings%NULL%0,   Jayna%Gardner-Gray%NULL%0,   Adam%Ackerman%NULL%0,   Jonathan%Lezotte%NULL%0,   Joseph%Ruhala%NULL%0,   Linoj%Samuel%NULL%0,   Robert J%Tibbetts%NULL%0,   Indira%Brar%NULL%0,   John%McKinnon%NULL%0,   Geehan%Suleyman%NULL%0,   Nicholas%Yared%NULL%0,   Erica%Herc%NULL%0,   Jonathan%Williams%NULL%0,   Odaliz Abreu%Lanfranco%NULL%0,   Anne%Chen%NULL%0,   Marcus%Zervos%NULL%0,   Eric%Scher%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%2,   Qing%Mei%NULL%2,   Tianjun%Yang%NULL%2,   Lei%Li%NULL%2,   Yinzhong%Wang%NULL%2,   Fei%Tong%NULL%2,   Shike%Geng%NULL%2,   Aijun%Pan%NULL%2]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%0,   Qing%Mei%NULL%0,   Tianjun%Yang%NULL%0,   Lei%Li%NULL%0,   Yinzhong%Wang%NULL%0,   Fei%Tong%NULL%0,   Shike%Geng%NULL%0,   Aijun%Pan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%2,   Shui-Bao%Xu%NULL%2,   Yi-Xiao%Lin%NULL%2,   Di%Tian%NULL%2,   Zhao-Qin%Zhu%NULL%2,   Fa-Hui%Dai%NULL%2,   Fan%Wu%NULL%2,   Zhi-Gang%Song%NULL%2,   Wei%Huang%NULL%2,   Jun%Chen%NULL%0,   Bi-Jie%Hu%NULL%2,   Sheng%Wang%NULL%2,   En-Qiang%Mao%NULL%2,   Lei%Zhu%NULL%0,   Wen-Hong%Zhang%NULL%2,   Hong-Zhou%Lu%NULL%2,   Peng%Lyu%NULL%0,   Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%0,   Taige%Chen%NULL%0,   Yang%Wang%NULL%0,   Jun%Wang%NULL%0,   Fangrong%Yan%f.r.yan@163.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%0,   Weiwei%Jiang%NULL%0,   Qi%He%NULL%0,   Cheng%Wang%NULL%0,   Baoju%Wang%NULL%0,   Pan%Zhou%NULL%0,   Nianguo%Dong%dongnianguo63@gmail.com%0,   Qiaoxia%Tong%2013xh0859@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[ J.%Wu%null%1,    J.% Huang%null%1,    G.% Zhu%null%1,    Y.% Liu%null%2,    H.% Xiao%null%1,    Q.% Zhou%null%0,    X.% Si%null%1,    H.% Yi%null%1,    C.% Wang%null%1,    D.% Yang%null%0,    S.% Chen%null%1,    X.% Liu%null%1,    Z.% Liu%null%1,    Q.% Wang%null%1,    Q.% Lv%null%1,    Y.% Huang%null%1,    Y.% Yu%null%1,    X.% Guan%null%1,    Y.% Li%null%1,    K.% Nirantharakumar%null%1,    K.% Cheng%null%1,    S.% Peng%null%1,    H. % Xiao%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,   Yuan%Yu%NULL%0,   Jiqian%Xu%NULL%0,   Huaqing%Shu%NULL%0,   Jia'an%Xia%NULL%0,   Hong%Liu%NULL%0,   Yongran%Wu%NULL%0,   Lu%Zhang%NULL%0,   Zhui%Yu%NULL%0,   Minghao%Fang%NULL%0,   Ting%Yu%NULL%0,   Yaxin%Wang%NULL%0,   Shangwen%Pan%NULL%0,   Xiaojing%Zou%NULL%0,   Shiying%Yuan%NULL%0,   You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%0,   Shirong%Li%NULL%0,   Lingling%Pan%NULL%0,   Boris%Tefsen%NULL%0,   Yeshan%Li%NULL%0,   Neil%French%NULL%0,   Liyun%Chen%NULL%0,   Gang%Yang%NULL%0,   Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%2,   Yisi%Liu%NULL%2,   Dongdong%Tian%NULL%2,   Cheng%Wang%NULL%0,   Sa%Wang%NULL%2,   Jing%Cheng%NULL%2,   Ming%Hu%huming74@163.com%0,   Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,   Yue%Gao%gaoyue@bmi.ac.cn%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%0,   Yisi%Liu%NULL%0,   Dongdong%Tian%NULL%0,   Cheng%Wang%NULL%0,   Sa%Wang%NULL%0,   Jing%Cheng%NULL%0,   Ming%Hu%huming74@163.com%0,   Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,   Yue%Gao%gaoyue@bmi.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Rong-chang%Chen%NULL%1,   Xiao-ping%Tang%NULL%1,   Shou-yong%Tan%NULL%1,   Bi-ling%Liang%NULL%1,   Zhuo-yue%Wan%NULL%1,   Ji-qian%Fang%NULL%1,   Nanshan%Zhong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Justin%Coyle%NULL%1,   Efehi%Igbinomwanhia%NULL%1,   Alejandro%Sanchez-Nadales%alejandro.sanchez2@advocatehealth.com%1,   Sorin%Danciu%NULL%1,   Chae%Chu%NULL%1,   Nishit%Shah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Han%NULL%1,   Mao%Jiang%NULL%1,   Da%Xia%NULL%1,   Lichao%He%NULL%1,   Xin%Lv%NULL%1,   Xiaohua%Liao%NULL%1,   Jie%Meng%mengjie@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,   Yuan-Yuan%Fang%NULL%0,   Yan%Deng%NULL%0,   Wei%Liu%NULL%0,   Mei-Fang%Wang%NULL%0,   Jing-Ping%Ma%NULL%0,   Wei%Xiao%NULL%0,   Ying-Nan%Wang%NULL%0,   Min-Hua%Zhong%NULL%0,   Cheng-Hong%Li%NULL%0,   Guang-Cai%Li%NULL%0,   Hui-Guo%Liu%NULL%0,   Xiu-Yuan%Hao%NULL%0,   Xiu-Yuan%Hao%NULL%0,   Pei-Fang%Wei%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -792,6 +852,9 @@
       <c r="H1" t="s">
         <v>30</v>
       </c>
+      <c r="I1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -807,7 +870,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -817,6 +880,9 @@
       </c>
       <c r="H2" t="s">
         <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="3">
@@ -833,7 +899,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -843,6 +909,9 @@
       </c>
       <c r="H3" t="s">
         <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="4">
@@ -859,7 +928,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -869,6 +938,9 @@
       </c>
       <c r="H4" t="s">
         <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="5">
@@ -885,7 +957,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -895,6 +967,9 @@
       </c>
       <c r="H5" t="s">
         <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="6">
@@ -911,7 +986,7 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -921,6 +996,9 @@
       </c>
       <c r="H6" t="s">
         <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="7">
@@ -937,7 +1015,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -947,6 +1025,9 @@
       </c>
       <c r="H7" t="s">
         <v>55</v>
+      </c>
+      <c r="I7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="8">
@@ -963,16 +1044,19 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
         <v>60</v>
+      </c>
+      <c r="I8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9">
@@ -1000,6 +1084,9 @@
       <c r="H9" t="s">
         <v>47</v>
       </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
@@ -1015,7 +1102,7 @@
         <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F10" t="s">
         <v>64</v>
@@ -1025,6 +1112,9 @@
       </c>
       <c r="H10" t="s">
         <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="11">
@@ -1041,7 +1131,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -1051,6 +1141,9 @@
       </c>
       <c r="H11" t="s">
         <v>69</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="12">
@@ -1067,7 +1160,7 @@
         <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="F12" t="s">
         <v>72</v>
@@ -1077,6 +1170,9 @@
       </c>
       <c r="H12" t="s">
         <v>73</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1189,7 @@
         <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="F13" t="s">
         <v>72</v>
@@ -1103,6 +1199,9 @@
       </c>
       <c r="H13" t="s">
         <v>73</v>
+      </c>
+      <c r="I13" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="14">
@@ -1119,7 +1218,7 @@
         <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>
@@ -1129,6 +1228,9 @@
       </c>
       <c r="H14" t="s">
         <v>79</v>
+      </c>
+      <c r="I14" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="15">
@@ -1145,7 +1247,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="F15" t="s">
         <v>83</v>
@@ -1155,6 +1257,9 @@
       </c>
       <c r="H15" t="s">
         <v>84</v>
+      </c>
+      <c r="I15" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="16">
@@ -1171,7 +1276,7 @@
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="F16" t="s">
         <v>88</v>
@@ -1181,6 +1286,9 @@
       </c>
       <c r="H16" t="s">
         <v>89</v>
+      </c>
+      <c r="I16" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="17">
@@ -1197,7 +1305,7 @@
         <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="F17" t="s">
         <v>93</v>
@@ -1207,6 +1315,9 @@
       </c>
       <c r="H17" t="s">
         <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="18">
@@ -1233,6 +1344,9 @@
       </c>
       <c r="H18" t="s">
         <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/59.xlsx
+++ b/Covid_19_Dataset_and_References/References/59.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="189">
   <si>
     <t>Doi</t>
   </si>
@@ -527,6 +527,186 @@
   </si>
   <si>
     <t>[Kui%Liu%NULL%0,   Yuan-Yuan%Fang%NULL%0,   Yan%Deng%NULL%0,   Wei%Liu%NULL%0,   Mei-Fang%Wang%NULL%0,   Jing-Ping%Ma%NULL%0,   Wei%Xiao%NULL%0,   Ying-Nan%Wang%NULL%0,   Min-Hua%Zhong%NULL%0,   Cheng-Hong%Li%NULL%0,   Guang-Cai%Li%NULL%0,   Hui-Guo%Liu%NULL%0,   Xiu-Yuan%Hao%NULL%0,   Xiu-Yuan%Hao%NULL%0,   Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%0,    Austin R%Morrison%NULL%0,    Amit%Vahia%NULL%0,    Zachary R%Smith%NULL%0,    Zohra%Chaudhry%NULL%0,    Pallavi%Bhargava%NULL%0,    Joseph%Miller%NULL%0,    Rachel M%Kenney%NULL%0,    George%Alangaden%NULL%0,    Mayur S%Ramesh%mramesh1@hfhs.org%0,    Varidhi%Nauriyal%NULL%0,    Jayanth%Lakshmikanth%NULL%0,    Asif%Abdul Hamed%NULL%0,    Owais%Nadeem%NULL%0,    Kristin%Griebe%NULL%0,    Joseph M%Johnson%NULL%0,    Patrick%Bradley%NULL%0,    Junior%Uduman%NULL%0,    Sara%Hegab%NULL%0,    Jennifer%Swiderek%NULL%0,    Amanda%Godfrey%NULL%0,    Jeffrey%Jennings%NULL%0,    Jayna%Gardner-Gray%NULL%0,    Adam%Ackerman%NULL%0,    Jonathan%Lezotte%NULL%0,    Joseph%Ruhala%NULL%0,    Linoj%Samuel%NULL%0,    Robert J%Tibbetts%NULL%0,    Indira%Brar%NULL%0,    John%McKinnon%NULL%0,    Geehan%Suleyman%NULL%0,    Nicholas%Yared%NULL%0,    Erica%Herc%NULL%0,    Jonathan%Williams%NULL%0,    Odaliz Abreu%Lanfranco%NULL%0,    Anne%Chen%NULL%0,    Marcus%Zervos%NULL%0,    Eric%Scher%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%2,    Qing%Mei%NULL%2,    Tianjun%Yang%NULL%2,    Lei%Li%NULL%0,    Yinzhong%Wang%NULL%2,    Fei%Tong%NULL%2,    Shike%Geng%NULL%2,    Aijun%Pan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%0,    Qing%Mei%NULL%0,    Tianjun%Yang%NULL%0,    Lei%Li%NULL%0,    Yinzhong%Wang%NULL%0,    Fei%Tong%NULL%0,    Shike%Geng%NULL%0,    Aijun%Pan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%2,    Shui-Bao%Xu%NULL%2,    Yi-Xiao%Lin%NULL%2,    Di%Tian%NULL%2,    Zhao-Qin%Zhu%NULL%2,    Fa-Hui%Dai%NULL%2,    Fan%Wu%NULL%2,    Zhi-Gang%Song%NULL%2,    Wei%Huang%NULL%2,    Jun%Chen%NULL%0,    Bi-Jie%Hu%NULL%2,    Sheng%Wang%NULL%2,    En-Qiang%Mao%NULL%2,    Lei%Zhu%NULL%0,    Wen-Hong%Zhang%NULL%2,    Hong-Zhou%Lu%NULL%2,    Peng%Lyu%NULL%0,    Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%0,    Taige%Chen%NULL%0,    Yang%Wang%NULL%0,    Jun%Wang%NULL%0,    Fangrong%Yan%f.r.yan@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%0,    Weiwei%Jiang%NULL%0,    Qi%He%NULL%0,    Cheng%Wang%NULL%0,    Baoju%Wang%NULL%0,    Pan%Zhou%NULL%0,    Nianguo%Dong%dongnianguo63@gmail.com%0,    Qiaoxia%Tong%2013xh0859@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[ J.%Wu%null%1,     J.% Huang%null%1,     G.% Zhu%null%1,     Y.% Liu%null%2,     H.% Xiao%null%1,     Q.% Zhou%null%0,     X.% Si%null%1,     H.% Yi%null%1,     C.% Wang%null%1,     D.% Yang%null%0,     S.% Chen%null%1,     X.% Liu%null%1,     Z.% Liu%null%1,     Q.% Wang%null%1,     Q.% Lv%null%1,     Y.% Huang%null%1,     Y.% Yu%null%1,     X.% Guan%null%1,     Y.% Li%null%1,     K.% Nirantharakumar%null%1,     K.% Cheng%null%1,     S.% Peng%null%1,     H. % Xiao%null%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,    Yuan%Yu%NULL%0,    Jiqian%Xu%NULL%0,    Huaqing%Shu%NULL%0,    Jia'an%Xia%NULL%0,    Hong%Liu%NULL%0,    Yongran%Wu%NULL%0,    Lu%Zhang%NULL%0,    Zhui%Yu%NULL%0,    Minghao%Fang%NULL%0,    Ting%Yu%NULL%0,    Yaxin%Wang%NULL%0,    Shangwen%Pan%NULL%0,    Xiaojing%Zou%NULL%0,    Shiying%Yuan%NULL%0,    You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%0,    Shirong%Li%NULL%0,    Lingling%Pan%NULL%0,    Boris%Tefsen%NULL%0,    Yeshan%Li%NULL%0,    Neil%French%NULL%0,    Liyun%Chen%NULL%0,    Gang%Yang%NULL%0,    Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%2,    Yisi%Liu%NULL%2,    Dongdong%Tian%NULL%2,    Cheng%Wang%NULL%0,    Sa%Wang%NULL%2,    Jing%Cheng%NULL%2,    Ming%Hu%huming74@163.com%0,    Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,    Yue%Gao%gaoyue@bmi.ac.cn%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%0,    Yisi%Liu%NULL%0,    Dongdong%Tian%NULL%0,    Cheng%Wang%NULL%0,    Sa%Wang%NULL%0,    Jing%Cheng%NULL%0,    Ming%Hu%huming74@163.com%0,    Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,    Yue%Gao%gaoyue@bmi.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Rong-chang%Chen%NULL%1,    Xiao-ping%Tang%NULL%1,    Shou-yong%Tan%NULL%1,    Bi-ling%Liang%NULL%1,    Zhuo-yue%Wan%NULL%1,    Ji-qian%Fang%NULL%1,    Nanshan%Zhong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Justin%Coyle%NULL%1,    Efehi%Igbinomwanhia%NULL%1,    Alejandro%Sanchez-Nadales%alejandro.sanchez2@advocatehealth.com%1,    Sorin%Danciu%NULL%1,    Chae%Chu%NULL%1,    Nishit%Shah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Han%NULL%1,    Mao%Jiang%NULL%1,    Da%Xia%NULL%1,    Lichao%He%NULL%1,    Xin%Lv%NULL%1,    Xiaohua%Liao%NULL%1,    Jie%Meng%mengjie@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,    Yuan-Yuan%Fang%NULL%0,    Yan%Deng%NULL%0,    Wei%Liu%NULL%0,    Mei-Fang%Wang%NULL%0,    Jing-Ping%Ma%NULL%0,    Wei%Xiao%NULL%0,    Ying-Nan%Wang%NULL%0,    Min-Hua%Zhong%NULL%0,    Cheng-Hong%Li%NULL%0,    Guang-Cai%Li%NULL%0,    Hui-Guo%Liu%NULL%0,    Xiu-Yuan%Hao%NULL%0,    Xiu-Yuan%Hao%NULL%0,    Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%0,     Austin R%Morrison%NULL%1,     Amit%Vahia%NULL%0,     Zachary R%Smith%NULL%1,     Zohra%Chaudhry%NULL%0,     Pallavi%Bhargava%NULL%1,     Joseph%Miller%NULL%0,     Rachel M%Kenney%NULL%1,     George%Alangaden%NULL%0,     Mayur S%Ramesh%mramesh1@hfhs.org%1,     Varidhi%Nauriyal%NULL%1,     Jayanth%Lakshmikanth%NULL%1,     Asif%Abdul Hamed%NULL%1,     Owais%Nadeem%NULL%1,     Kristin%Griebe%NULL%1,     Joseph M%Johnson%NULL%1,     Patrick%Bradley%NULL%1,     Junior%Uduman%NULL%1,     Sara%Hegab%NULL%1,     Jennifer%Swiderek%NULL%1,     Amanda%Godfrey%NULL%1,     Jeffrey%Jennings%NULL%1,     Jayna%Gardner-Gray%NULL%1,     Adam%Ackerman%NULL%1,     Jonathan%Lezotte%NULL%1,     Joseph%Ruhala%NULL%1,     Linoj%Samuel%NULL%1,     Robert J%Tibbetts%NULL%1,     Indira%Brar%NULL%0,     John%McKinnon%NULL%1,     Geehan%Suleyman%NULL%1,     Nicholas%Yared%NULL%1,     Erica%Herc%NULL%1,     Jonathan%Williams%NULL%1,     Odaliz Abreu%Lanfranco%NULL%1,     Anne%Chen%NULL%1,     Marcus%Zervos%NULL%1,     Eric%Scher%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%2,     Qing%Mei%NULL%2,     Tianjun%Yang%NULL%2,     Lei%Li%NULL%0,     Yinzhong%Wang%NULL%2,     Fei%Tong%NULL%2,     Shike%Geng%NULL%2,     Aijun%Pan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%0,     Qing%Mei%NULL%0,     Tianjun%Yang%NULL%0,     Lei%Li%NULL%0,     Yinzhong%Wang%NULL%0,     Fei%Tong%NULL%0,     Shike%Geng%NULL%0,     Aijun%Pan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%2,     Shui-Bao%Xu%NULL%2,     Yi-Xiao%Lin%NULL%2,     Di%Tian%NULL%2,     Zhao-Qin%Zhu%NULL%2,     Fa-Hui%Dai%NULL%2,     Fan%Wu%NULL%2,     Zhi-Gang%Song%NULL%2,     Wei%Huang%NULL%2,     Jun%Chen%NULL%0,     Bi-Jie%Hu%NULL%2,     Sheng%Wang%NULL%2,     En-Qiang%Mao%NULL%2,     Lei%Zhu%NULL%2,     Wen-Hong%Zhang%NULL%2,     Hong-Zhou%Lu%NULL%2,     Peng%Lyu%NULL%4,     Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%0,     Taige%Chen%NULL%1,     Yang%Wang%NULL%1,     Jun%Wang%NULL%2,     Fangrong%Yan%f.r.yan@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%0,     Weiwei%Jiang%NULL%1,     Qi%He%NULL%1,     Cheng%Wang%NULL%3,     Baoju%Wang%NULL%1,     Pan%Zhou%NULL%1,     Nianguo%Dong%dongnianguo63@gmail.com%1,     Qiaoxia%Tong%2013xh0859@hust.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ J.%Wu%null%1,      J.% Huang%null%1,      G.% Zhu%null%1,      Y.% Liu%null%2,      H.% Xiao%null%1,      Q.% Zhou%null%0,      X.% Si%null%1,      H.% Yi%null%1,      C.% Wang%null%1,      D.% Yang%null%0,      S.% Chen%null%1,      X.% Liu%null%1,      Z.% Liu%null%1,      Q.% Wang%null%1,      Q.% Lv%null%1,      Y.% Huang%null%1,      Y.% Yu%null%1,      X.% Guan%null%1,      Y.% Li%null%1,      K.% Nirantharakumar%null%1,      K.% Cheng%null%1,      S.% Peng%null%1,      H. % Xiao%null%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,     Yuan%Yu%NULL%0,     Jiqian%Xu%NULL%0,     Huaqing%Shu%NULL%0,     Jia'an%Xia%NULL%0,     Hong%Liu%NULL%0,     Yongran%Wu%NULL%0,     Lu%Zhang%NULL%0,     Zhui%Yu%NULL%0,     Minghao%Fang%NULL%0,     Ting%Yu%NULL%0,     Yaxin%Wang%NULL%0,     Shangwen%Pan%NULL%0,     Xiaojing%Zou%NULL%0,     Shiying%Yuan%NULL%0,     You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%0,     Shirong%Li%NULL%1,     Lingling%Pan%NULL%1,     Boris%Tefsen%NULL%1,     Yeshan%Li%NULL%1,     Neil%French%NULL%1,     Liyun%Chen%NULL%1,     Gang%Yang%NULL%1,     Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%2,     Yisi%Liu%NULL%2,     Dongdong%Tian%NULL%2,     Cheng%Wang%NULL%0,     Sa%Wang%NULL%2,     Jing%Cheng%NULL%2,     Ming%Hu%huming74@163.com%0,     Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,     Yue%Gao%gaoyue@bmi.ac.cn%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%0,     Yisi%Liu%NULL%0,     Dongdong%Tian%NULL%0,     Cheng%Wang%NULL%0,     Sa%Wang%NULL%0,     Jing%Cheng%NULL%0,     Ming%Hu%huming74@163.com%0,     Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,     Yue%Gao%gaoyue@bmi.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Rong-chang%Chen%NULL%1,     Xiao-ping%Tang%NULL%1,     Shou-yong%Tan%NULL%1,     Bi-ling%Liang%NULL%1,     Zhuo-yue%Wan%NULL%1,     Ji-qian%Fang%NULL%1,     Nanshan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Coyle%NULL%1,     Efehi%Igbinomwanhia%NULL%1,     Alejandro%Sanchez-Nadales%alejandro.sanchez2@advocatehealth.com%1,     Sorin%Danciu%NULL%1,     Chae%Chu%NULL%1,     Nishit%Shah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Han%NULL%1,     Mao%Jiang%NULL%1,     Da%Xia%NULL%1,     Lichao%He%NULL%1,     Xin%Lv%NULL%1,     Xiaohua%Liao%NULL%1,     Jie%Meng%mengjie@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,     Yuan-Yuan%Fang%NULL%0,     Yan%Deng%NULL%0,     Wei%Liu%NULL%0,     Mei-Fang%Wang%NULL%0,     Jing-Ping%Ma%NULL%0,     Wei%Xiao%NULL%0,     Ying-Nan%Wang%NULL%0,     Min-Hua%Zhong%NULL%0,     Cheng-Hong%Li%NULL%0,     Guang-Cai%Li%NULL%0,     Hui-Guo%Liu%NULL%0,     Xiu-Yuan%Hao%NULL%0,     Xiu-Yuan%Hao%NULL%0,     Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%0,      Austin R%Morrison%NULL%1,      Amit%Vahia%NULL%0,      Zachary R%Smith%NULL%1,      Zohra%Chaudhry%NULL%0,      Pallavi%Bhargava%NULL%1,      Joseph%Miller%NULL%0,      Rachel M%Kenney%NULL%1,      George%Alangaden%NULL%0,      Mayur S%Ramesh%mramesh1@hfhs.org%1,      Varidhi%Nauriyal%NULL%1,      Jayanth%Lakshmikanth%NULL%1,      Asif%Abdul Hamed%NULL%1,      Owais%Nadeem%NULL%1,      Kristin%Griebe%NULL%1,      Joseph M%Johnson%NULL%1,      Patrick%Bradley%NULL%1,      Junior%Uduman%NULL%1,      Sara%Hegab%NULL%1,      Jennifer%Swiderek%NULL%1,      Amanda%Godfrey%NULL%1,      Jeffrey%Jennings%NULL%1,      Jayna%Gardner-Gray%NULL%1,      Adam%Ackerman%NULL%1,      Jonathan%Lezotte%NULL%1,      Joseph%Ruhala%NULL%1,      Linoj%Samuel%NULL%1,      Robert J%Tibbetts%NULL%1,      Indira%Brar%NULL%0,      John%McKinnon%NULL%1,      Geehan%Suleyman%NULL%1,      Nicholas%Yared%NULL%1,      Erica%Herc%NULL%1,      Jonathan%Williams%NULL%1,      Odaliz Abreu%Lanfranco%NULL%1,      Anne%Chen%NULL%1,      Marcus%Zervos%NULL%1,      Eric%Scher%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%2,      Qing%Mei%NULL%2,      Tianjun%Yang%NULL%2,      Lei%Li%NULL%0,      Yinzhong%Wang%NULL%2,      Fei%Tong%NULL%2,      Shike%Geng%NULL%2,      Aijun%Pan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%0,      Qing%Mei%NULL%0,      Tianjun%Yang%NULL%0,      Lei%Li%NULL%0,      Yinzhong%Wang%NULL%0,      Fei%Tong%NULL%0,      Shike%Geng%NULL%0,      Aijun%Pan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%2,      Shui-Bao%Xu%NULL%2,      Yi-Xiao%Lin%NULL%2,      Di%Tian%NULL%2,      Zhao-Qin%Zhu%NULL%2,      Fa-Hui%Dai%NULL%2,      Fan%Wu%NULL%2,      Zhi-Gang%Song%NULL%2,      Wei%Huang%NULL%2,      Jun%Chen%NULL%0,      Bi-Jie%Hu%NULL%2,      Sheng%Wang%NULL%2,      En-Qiang%Mao%NULL%2,      Lei%Zhu%NULL%2,      Wen-Hong%Zhang%NULL%2,      Hong-Zhou%Lu%NULL%2,      Peng%Lyu%NULL%4,      Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%0,      Taige%Chen%NULL%1,      Yang%Wang%NULL%1,      Jun%Wang%NULL%2,      Fangrong%Yan%f.r.yan@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%0,      Weiwei%Jiang%NULL%1,      Qi%He%NULL%1,      Cheng%Wang%NULL%3,      Baoju%Wang%NULL%1,      Pan%Zhou%NULL%1,      Nianguo%Dong%dongnianguo63@gmail.com%1,      Qiaoxia%Tong%2013xh0859@hust.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ J.%Wu%null%1,       J.% Huang%null%1,       G.% Zhu%null%1,       Y.% Liu%null%2,       H.% Xiao%null%1,       Q.% Zhou%null%0,       X.% Si%null%1,       H.% Yi%null%1,       C.% Wang%null%1,       D.% Yang%null%0,       S.% Chen%null%1,       X.% Liu%null%1,       Z.% Liu%null%1,       Q.% Wang%null%1,       Q.% Lv%null%1,       Y.% Huang%null%1,       Y.% Yu%null%1,       X.% Guan%null%1,       Y.% Li%null%1,       K.% Nirantharakumar%null%1,       K.% Cheng%null%1,       S.% Peng%null%1,       H. % Xiao%null%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,      Yuan%Yu%NULL%0,      Jiqian%Xu%NULL%0,      Huaqing%Shu%NULL%0,      Jia'an%Xia%NULL%0,      Hong%Liu%NULL%0,      Yongran%Wu%NULL%0,      Lu%Zhang%NULL%0,      Zhui%Yu%NULL%0,      Minghao%Fang%NULL%0,      Ting%Yu%NULL%0,      Yaxin%Wang%NULL%0,      Shangwen%Pan%NULL%0,      Xiaojing%Zou%NULL%0,      Shiying%Yuan%NULL%0,      You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%0,      Shirong%Li%NULL%1,      Lingling%Pan%NULL%1,      Boris%Tefsen%NULL%1,      Yeshan%Li%NULL%1,      Neil%French%NULL%1,      Liyun%Chen%NULL%1,      Gang%Yang%NULL%1,      Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%2,      Yisi%Liu%NULL%2,      Dongdong%Tian%NULL%2,      Cheng%Wang%NULL%0,      Sa%Wang%NULL%2,      Jing%Cheng%NULL%2,      Ming%Hu%huming74@163.com%0,      Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,      Yue%Gao%gaoyue@bmi.ac.cn%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%0,      Yisi%Liu%NULL%0,      Dongdong%Tian%NULL%0,      Cheng%Wang%NULL%0,      Sa%Wang%NULL%0,      Jing%Cheng%NULL%0,      Ming%Hu%huming74@163.com%0,      Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,      Yue%Gao%gaoyue@bmi.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Rong-chang%Chen%NULL%1,      Xiao-ping%Tang%NULL%1,      Shou-yong%Tan%NULL%1,      Bi-ling%Liang%NULL%1,      Zhuo-yue%Wan%NULL%1,      Ji-qian%Fang%NULL%1,      Nanshan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Coyle%NULL%1,      Efehi%Igbinomwanhia%NULL%1,      Alejandro%Sanchez-Nadales%alejandro.sanchez2@advocatehealth.com%1,      Sorin%Danciu%NULL%1,      Chae%Chu%NULL%1,      Nishit%Shah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Han%NULL%1,      Mao%Jiang%NULL%1,      Da%Xia%NULL%1,      Lichao%He%NULL%1,      Xin%Lv%NULL%1,      Xiaohua%Liao%NULL%1,      Jie%Meng%mengjie@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,      Yuan-Yuan%Fang%NULL%0,      Yan%Deng%NULL%0,      Wei%Liu%NULL%0,      Mei-Fang%Wang%NULL%0,      Jing-Ping%Ma%NULL%0,      Wei%Xiao%NULL%0,      Ying-Nan%Wang%NULL%0,      Min-Hua%Zhong%NULL%0,      Cheng-Hong%Li%NULL%0,      Guang-Cai%Li%NULL%0,      Hui-Guo%Liu%NULL%0,      Xiu-Yuan%Hao%NULL%0,      Xiu-Yuan%Hao%NULL%0,      Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%0,       Austin R%Morrison%NULL%1,       Amit%Vahia%NULL%0,       Zachary R%Smith%NULL%1,       Zohra%Chaudhry%NULL%0,       Pallavi%Bhargava%NULL%1,       Joseph%Miller%NULL%0,       Rachel M%Kenney%NULL%1,       George%Alangaden%NULL%0,       Mayur S%Ramesh%mramesh1@hfhs.org%1,       Varidhi%Nauriyal%NULL%1,       Jayanth%Lakshmikanth%NULL%1,       Asif%Abdul Hamed%NULL%1,       Owais%Nadeem%NULL%1,       Kristin%Griebe%NULL%1,       Joseph M%Johnson%NULL%1,       Patrick%Bradley%NULL%1,       Junior%Uduman%NULL%1,       Sara%Hegab%NULL%1,       Jennifer%Swiderek%NULL%1,       Amanda%Godfrey%NULL%1,       Jeffrey%Jennings%NULL%1,       Jayna%Gardner-Gray%NULL%1,       Adam%Ackerman%NULL%1,       Jonathan%Lezotte%NULL%1,       Joseph%Ruhala%NULL%1,       Linoj%Samuel%NULL%1,       Robert J%Tibbetts%NULL%1,       Indira%Brar%NULL%0,       John%McKinnon%NULL%1,       Geehan%Suleyman%NULL%1,       Nicholas%Yared%NULL%1,       Erica%Herc%NULL%1,       Jonathan%Williams%NULL%1,       Odaliz Abreu%Lanfranco%NULL%1,       Anne%Chen%NULL%1,       Marcus%Zervos%NULL%1,       Eric%Scher%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%2,       Qing%Mei%NULL%2,       Tianjun%Yang%NULL%2,       Lei%Li%NULL%0,       Yinzhong%Wang%NULL%2,       Fei%Tong%NULL%2,       Shike%Geng%NULL%2,       Aijun%Pan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%0,       Qing%Mei%NULL%0,       Tianjun%Yang%NULL%0,       Lei%Li%NULL%0,       Yinzhong%Wang%NULL%0,       Fei%Tong%NULL%0,       Shike%Geng%NULL%0,       Aijun%Pan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%2,       Shui-Bao%Xu%NULL%2,       Yi-Xiao%Lin%NULL%2,       Di%Tian%NULL%2,       Zhao-Qin%Zhu%NULL%2,       Fa-Hui%Dai%NULL%2,       Fan%Wu%NULL%2,       Zhi-Gang%Song%NULL%2,       Wei%Huang%NULL%2,       Jun%Chen%NULL%0,       Bi-Jie%Hu%NULL%2,       Sheng%Wang%NULL%2,       En-Qiang%Mao%NULL%2,       Lei%Zhu%NULL%2,       Wen-Hong%Zhang%NULL%2,       Hong-Zhou%Lu%NULL%2,       Peng%Lyu%NULL%4,       Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%0,       Taige%Chen%NULL%1,       Yang%Wang%NULL%1,       Jun%Wang%NULL%2,       Fangrong%Yan%f.r.yan@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%0,       Weiwei%Jiang%NULL%1,       Qi%He%NULL%1,       Cheng%Wang%NULL%3,       Baoju%Wang%NULL%1,       Pan%Zhou%NULL%1,       Nianguo%Dong%dongnianguo63@gmail.com%1,       Qiaoxia%Tong%2013xh0859@hust.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ J.%Wu%null%1,        J.% Huang%null%1,        G.% Zhu%null%1,        Y.% Liu%null%2,        H.% Xiao%null%1,        Q.% Zhou%null%0,        X.% Si%null%1,        H.% Yi%null%1,        C.% Wang%null%1,        D.% Yang%null%0,        S.% Chen%null%1,        X.% Liu%null%1,        Z.% Liu%null%1,        Q.% Wang%null%1,        Q.% Lv%null%1,        Y.% Huang%null%1,        Y.% Yu%null%1,        X.% Guan%null%1,        Y.% Li%null%1,        K.% Nirantharakumar%null%1,        K.% Cheng%null%1,        S.% Peng%null%1,        H. % Xiao%null%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,       Yuan%Yu%NULL%0,       Jiqian%Xu%NULL%0,       Huaqing%Shu%NULL%0,       Jia'an%Xia%NULL%0,       Hong%Liu%NULL%0,       Yongran%Wu%NULL%0,       Lu%Zhang%NULL%0,       Zhui%Yu%NULL%0,       Minghao%Fang%NULL%0,       Ting%Yu%NULL%0,       Yaxin%Wang%NULL%0,       Shangwen%Pan%NULL%0,       Xiaojing%Zou%NULL%0,       Shiying%Yuan%NULL%0,       You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%0,       Shirong%Li%NULL%1,       Lingling%Pan%NULL%1,       Boris%Tefsen%NULL%1,       Yeshan%Li%NULL%1,       Neil%French%NULL%1,       Liyun%Chen%NULL%1,       Gang%Yang%NULL%1,       Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%2,       Yisi%Liu%NULL%2,       Dongdong%Tian%NULL%2,       Cheng%Wang%NULL%0,       Sa%Wang%NULL%2,       Jing%Cheng%NULL%2,       Ming%Hu%huming74@163.com%0,       Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,       Yue%Gao%gaoyue@bmi.ac.cn%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%0,       Yisi%Liu%NULL%0,       Dongdong%Tian%NULL%0,       Cheng%Wang%NULL%0,       Sa%Wang%NULL%0,       Jing%Cheng%NULL%0,       Ming%Hu%huming74@163.com%0,       Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,       Yue%Gao%gaoyue@bmi.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Rong-chang%Chen%NULL%1,       Xiao-ping%Tang%NULL%1,       Shou-yong%Tan%NULL%1,       Bi-ling%Liang%NULL%1,       Zhuo-yue%Wan%NULL%1,       Ji-qian%Fang%NULL%1,       Nanshan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Coyle%NULL%1,       Efehi%Igbinomwanhia%NULL%1,       Alejandro%Sanchez-Nadales%alejandro.sanchez2@advocatehealth.com%1,       Sorin%Danciu%NULL%1,       Chae%Chu%NULL%1,       Nishit%Shah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Han%NULL%1,       Mao%Jiang%NULL%1,       Da%Xia%NULL%1,       Lichao%He%NULL%1,       Xin%Lv%NULL%1,       Xiaohua%Liao%NULL%1,       Jie%Meng%mengjie@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,       Yuan-Yuan%Fang%NULL%0,       Yan%Deng%NULL%0,       Wei%Liu%NULL%0,       Mei-Fang%Wang%NULL%0,       Jing-Ping%Ma%NULL%0,       Wei%Xiao%NULL%0,       Ying-Nan%Wang%NULL%0,       Min-Hua%Zhong%NULL%0,       Cheng-Hong%Li%NULL%0,       Guang-Cai%Li%NULL%0,       Hui-Guo%Liu%NULL%0,       Xiu-Yuan%Hao%NULL%0,       Xiu-Yuan%Hao%NULL%0,       Pei-Fang%Wei%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -870,7 +1050,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -899,7 +1079,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -928,7 +1108,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -957,7 +1137,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -986,7 +1166,7 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1015,7 +1195,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1044,7 +1224,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -1102,7 +1282,7 @@
         <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="F10" t="s">
         <v>64</v>
@@ -1131,7 +1311,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -1160,7 +1340,7 @@
         <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="F12" t="s">
         <v>72</v>
@@ -1189,7 +1369,7 @@
         <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="F13" t="s">
         <v>72</v>
@@ -1218,7 +1398,7 @@
         <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>
@@ -1247,7 +1427,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="F15" t="s">
         <v>83</v>
@@ -1276,7 +1456,7 @@
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="F16" t="s">
         <v>88</v>
@@ -1305,7 +1485,7 @@
         <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="F17" t="s">
         <v>93</v>

--- a/Covid_19_Dataset_and_References/References/59.xlsx
+++ b/Covid_19_Dataset_and_References/References/59.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="219">
   <si>
     <t>Doi</t>
   </si>
@@ -707,6 +707,96 @@
   </si>
   <si>
     <t>[Kui%Liu%NULL%0,       Yuan-Yuan%Fang%NULL%0,       Yan%Deng%NULL%0,       Wei%Liu%NULL%0,       Mei-Fang%Wang%NULL%0,       Jing-Ping%Ma%NULL%0,       Wei%Xiao%NULL%0,       Ying-Nan%Wang%NULL%0,       Min-Hua%Zhong%NULL%0,       Cheng-Hong%Li%NULL%0,       Guang-Cai%Li%NULL%0,       Hui-Guo%Liu%NULL%0,       Xiu-Yuan%Hao%NULL%0,       Xiu-Yuan%Hao%NULL%0,       Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%0,        Austin R%Morrison%NULL%1,        Amit%Vahia%NULL%0,        Zachary R%Smith%NULL%1,        Zohra%Chaudhry%NULL%0,        Pallavi%Bhargava%NULL%1,        Joseph%Miller%NULL%0,        Rachel M%Kenney%NULL%1,        George%Alangaden%NULL%0,        Mayur S%Ramesh%mramesh1@hfhs.org%1,        Varidhi%Nauriyal%NULL%1,        Jayanth%Lakshmikanth%NULL%1,        Asif%Abdul Hamed%NULL%1,        Owais%Nadeem%NULL%1,        Kristin%Griebe%NULL%1,        Joseph M%Johnson%NULL%1,        Patrick%Bradley%NULL%1,        Junior%Uduman%NULL%1,        Sara%Hegab%NULL%1,        Jennifer%Swiderek%NULL%1,        Amanda%Godfrey%NULL%1,        Jeffrey%Jennings%NULL%1,        Jayna%Gardner-Gray%NULL%1,        Adam%Ackerman%NULL%1,        Jonathan%Lezotte%NULL%1,        Joseph%Ruhala%NULL%1,        Linoj%Samuel%NULL%1,        Robert J%Tibbetts%NULL%1,        Indira%Brar%NULL%0,        John%McKinnon%NULL%1,        Geehan%Suleyman%NULL%1,        Nicholas%Yared%NULL%1,        Erica%Herc%NULL%1,        Jonathan%Williams%NULL%1,        Odaliz Abreu%Lanfranco%NULL%1,        Anne%Chen%NULL%0,        Marcus%Zervos%NULL%1,        Eric%Scher%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%2,        Qing%Mei%NULL%2,        Tianjun%Yang%NULL%2,        Lei%Li%NULL%0,        Yinzhong%Wang%NULL%2,        Fei%Tong%NULL%2,        Shike%Geng%NULL%2,        Aijun%Pan%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%0,        Qing%Mei%NULL%0,        Tianjun%Yang%NULL%0,        Lei%Li%NULL%0,        Yinzhong%Wang%NULL%0,        Fei%Tong%NULL%0,        Shike%Geng%NULL%0,        Aijun%Pan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%2,        Shui-Bao%Xu%NULL%2,        Yi-Xiao%Lin%NULL%2,        Di%Tian%NULL%2,        Zhao-Qin%Zhu%NULL%2,        Fa-Hui%Dai%NULL%2,        Fan%Wu%NULL%2,        Zhi-Gang%Song%NULL%2,        Wei%Huang%NULL%2,        Jun%Chen%NULL%0,        Bi-Jie%Hu%NULL%2,        Sheng%Wang%NULL%2,        En-Qiang%Mao%NULL%2,        Lei%Zhu%NULL%2,        Wen-Hong%Zhang%NULL%2,        Hong-Zhou%Lu%NULL%2,        Peng%Lyu%NULL%4,        Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%0,        Taige%Chen%NULL%1,        Yang%Wang%NULL%1,        Jun%Wang%NULL%2,        Fangrong%Yan%f.r.yan@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%0,        Weiwei%Jiang%NULL%1,        Qi%He%NULL%1,        Cheng%Wang%NULL%3,        Baoju%Wang%NULL%1,        Pan%Zhou%NULL%1,        Nianguo%Dong%dongnianguo63@gmail.com%1,        Qiaoxia%Tong%2013xh0859@hust.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ J.%Wu%null%1,         J.% Huang%null%1,         G.% Zhu%null%1,         Y.% Liu%null%2,         H.% Xiao%null%1,         Q.% Zhou%null%1,         X.% Si%null%1,         H.% Yi%null%1,         C.% Wang%null%0,         D.% Yang%null%1,         S.% Chen%null%1,         X.% Liu%null%1,         Z.% Liu%null%1,         Q.% Wang%null%1,         Q.% Lv%null%1,         Y.% Huang%null%1,         Y.% Yu%null%1,         X.% Guan%null%1,         Y.% Li%null%3,         K.% Nirantharakumar%null%1,         K.% Cheng%null%1,         S.% Peng%null%1,         H. % Xiao%null%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,        Yuan%Yu%NULL%0,        Jiqian%Xu%NULL%0,        Huaqing%Shu%NULL%0,        Jia'an%Xia%NULL%0,        Hong%Liu%NULL%0,        Yongran%Wu%NULL%0,        Lu%Zhang%NULL%0,        Zhui%Yu%NULL%0,        Minghao%Fang%NULL%0,        Ting%Yu%NULL%0,        Yaxin%Wang%NULL%0,        Shangwen%Pan%NULL%0,        Xiaojing%Zou%NULL%0,        Shiying%Yuan%NULL%0,        You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%0,        Shirong%Li%NULL%1,        Lingling%Pan%NULL%1,        Boris%Tefsen%NULL%1,        Yeshan%Li%NULL%1,        Neil%French%NULL%1,        Liyun%Chen%NULL%1,        Gang%Yang%NULL%1,        Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%2,        Yisi%Liu%NULL%2,        Dongdong%Tian%NULL%2,        Cheng%Wang%NULL%0,        Sa%Wang%NULL%2,        Jing%Cheng%NULL%2,        Ming%Hu%huming74@163.com%0,        Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,        Yue%Gao%gaoyue@bmi.ac.cn%3]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%0,        Yisi%Liu%NULL%0,        Dongdong%Tian%NULL%0,        Cheng%Wang%NULL%0,        Sa%Wang%NULL%0,        Jing%Cheng%NULL%0,        Ming%Hu%huming74@163.com%0,        Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,        Yue%Gao%gaoyue@bmi.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Rong-chang%Chen%NULL%1,        Xiao-ping%Tang%NULL%1,        Shou-yong%Tan%NULL%1,        Bi-ling%Liang%NULL%1,        Zhuo-yue%Wan%NULL%1,        Ji-qian%Fang%NULL%1,        Nanshan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Coyle%NULL%1,        Efehi%Igbinomwanhia%NULL%1,        Alejandro%Sanchez-Nadales%alejandro.sanchez2@advocatehealth.com%1,        Sorin%Danciu%NULL%1,        Chae%Chu%NULL%1,        Nishit%Shah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Han%NULL%1,        Mao%Jiang%NULL%1,        Da%Xia%NULL%1,        Lichao%He%NULL%1,        Xin%Lv%NULL%1,        Xiaohua%Liao%NULL%1,        Jie%Meng%mengjie@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,        Yuan-Yuan%Fang%NULL%2,        Yan%Deng%NULL%2,        Wei%Liu%NULL%2,        Mei-Fang%Wang%NULL%1,        Jing-Ping%Ma%NULL%1,        Wei%Xiao%NULL%2,        Ying-Nan%Wang%NULL%1,        Min-Hua%Zhong%NULL%1,        Cheng-Hong%Li%NULL%1,        Guang-Cai%Li%NULL%1,        Hui-Guo%Liu%NULL%3,        Xiu-Yuan%Hao%NULL%4,        Xiu-Yuan%Hao%NULL%0,        Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%0,         Austin R%Morrison%NULL%1,         Amit%Vahia%NULL%0,         Zachary R%Smith%NULL%1,         Zohra%Chaudhry%NULL%0,         Pallavi%Bhargava%NULL%1,         Joseph%Miller%NULL%0,         Rachel M%Kenney%NULL%1,         George%Alangaden%NULL%0,         Mayur S%Ramesh%mramesh1@hfhs.org%1,         Varidhi%Nauriyal%NULL%1,         Jayanth%Lakshmikanth%NULL%1,         Asif%Abdul Hamed%NULL%1,         Owais%Nadeem%NULL%1,         Kristin%Griebe%NULL%1,         Joseph M%Johnson%NULL%1,         Patrick%Bradley%NULL%1,         Junior%Uduman%NULL%1,         Sara%Hegab%NULL%1,         Jennifer%Swiderek%NULL%1,         Amanda%Godfrey%NULL%1,         Jeffrey%Jennings%NULL%1,         Jayna%Gardner-Gray%NULL%1,         Adam%Ackerman%NULL%1,         Jonathan%Lezotte%NULL%1,         Joseph%Ruhala%NULL%1,         Linoj%Samuel%NULL%1,         Robert J%Tibbetts%NULL%1,         Indira%Brar%NULL%0,         John%McKinnon%NULL%1,         Geehan%Suleyman%NULL%1,         Nicholas%Yared%NULL%1,         Erica%Herc%NULL%1,         Jonathan%Williams%NULL%1,         Odaliz Abreu%Lanfranco%NULL%1,         Anne%Chen%NULL%0,         Marcus%Zervos%NULL%1,         Eric%Scher%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%2,         Qing%Mei%NULL%2,         Tianjun%Yang%NULL%2,         Lei%Li%NULL%0,         Yinzhong%Wang%NULL%2,         Fei%Tong%NULL%2,         Shike%Geng%NULL%2,         Aijun%Pan%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%0,         Qing%Mei%NULL%0,         Tianjun%Yang%NULL%0,         Lei%Li%NULL%0,         Yinzhong%Wang%NULL%0,         Fei%Tong%NULL%0,         Shike%Geng%NULL%0,         Aijun%Pan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%2,         Shui-Bao%Xu%NULL%2,         Yi-Xiao%Lin%NULL%2,         Di%Tian%NULL%2,         Zhao-Qin%Zhu%NULL%2,         Fa-Hui%Dai%NULL%2,         Fan%Wu%NULL%2,         Zhi-Gang%Song%NULL%2,         Wei%Huang%NULL%2,         Jun%Chen%NULL%0,         Bi-Jie%Hu%NULL%2,         Sheng%Wang%NULL%2,         En-Qiang%Mao%NULL%2,         Lei%Zhu%NULL%2,         Wen-Hong%Zhang%NULL%2,         Hong-Zhou%Lu%NULL%2,         Peng%Lyu%NULL%4,         Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%0,         Taige%Chen%NULL%1,         Yang%Wang%NULL%1,         Jun%Wang%NULL%2,         Fangrong%Yan%f.r.yan@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%0,         Weiwei%Jiang%NULL%1,         Qi%He%NULL%1,         Cheng%Wang%NULL%3,         Baoju%Wang%NULL%1,         Pan%Zhou%NULL%1,         Nianguo%Dong%dongnianguo63@gmail.com%1,         Qiaoxia%Tong%2013xh0859@hust.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ J.%Wu%null%1,          J.% Huang%null%1,          G.% Zhu%null%1,          Y.% Liu%null%2,          H.% Xiao%null%1,          Q.% Zhou%null%1,          X.% Si%null%1,          H.% Yi%null%1,          C.% Wang%null%0,          D.% Yang%null%1,          S.% Chen%null%1,          X.% Liu%null%1,          Z.% Liu%null%1,          Q.% Wang%null%1,          Q.% Lv%null%1,          Y.% Huang%null%1,          Y.% Yu%null%1,          X.% Guan%null%1,          Y.% Li%null%3,          K.% Nirantharakumar%null%1,          K.% Cheng%null%1,          S.% Peng%null%1,          H. % Xiao%null%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,         Yuan%Yu%NULL%0,         Jiqian%Xu%NULL%0,         Huaqing%Shu%NULL%0,         Jia'an%Xia%NULL%0,         Hong%Liu%NULL%0,         Yongran%Wu%NULL%0,         Lu%Zhang%NULL%0,         Zhui%Yu%NULL%0,         Minghao%Fang%NULL%0,         Ting%Yu%NULL%0,         Yaxin%Wang%NULL%0,         Shangwen%Pan%NULL%0,         Xiaojing%Zou%NULL%0,         Shiying%Yuan%NULL%0,         You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%0,         Shirong%Li%NULL%1,         Lingling%Pan%NULL%1,         Boris%Tefsen%NULL%1,         Yeshan%Li%NULL%1,         Neil%French%NULL%1,         Liyun%Chen%NULL%1,         Gang%Yang%NULL%1,         Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%2,         Yisi%Liu%NULL%2,         Dongdong%Tian%NULL%2,         Cheng%Wang%NULL%0,         Sa%Wang%NULL%2,         Jing%Cheng%NULL%2,         Ming%Hu%huming74@163.com%0,         Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,         Yue%Gao%gaoyue@bmi.ac.cn%3]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%0,         Yisi%Liu%NULL%0,         Dongdong%Tian%NULL%0,         Cheng%Wang%NULL%0,         Sa%Wang%NULL%0,         Jing%Cheng%NULL%0,         Ming%Hu%huming74@163.com%0,         Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,         Yue%Gao%gaoyue@bmi.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Rong-chang%Chen%NULL%1,         Xiao-ping%Tang%NULL%1,         Shou-yong%Tan%NULL%1,         Bi-ling%Liang%NULL%1,         Zhuo-yue%Wan%NULL%1,         Ji-qian%Fang%NULL%1,         Nanshan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Coyle%NULL%1,         Efehi%Igbinomwanhia%NULL%1,         Alejandro%Sanchez-Nadales%alejandro.sanchez2@advocatehealth.com%1,         Sorin%Danciu%NULL%1,         Chae%Chu%NULL%1,         Nishit%Shah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Han%NULL%1,         Mao%Jiang%NULL%1,         Da%Xia%NULL%1,         Lichao%He%NULL%1,         Xin%Lv%NULL%1,         Xiaohua%Liao%NULL%1,         Jie%Meng%mengjie@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,         Yuan-Yuan%Fang%NULL%2,         Yan%Deng%NULL%2,         Wei%Liu%NULL%2,         Mei-Fang%Wang%NULL%1,         Jing-Ping%Ma%NULL%1,         Wei%Xiao%NULL%2,         Ying-Nan%Wang%NULL%1,         Min-Hua%Zhong%NULL%1,         Cheng-Hong%Li%NULL%1,         Guang-Cai%Li%NULL%1,         Hui-Guo%Liu%NULL%3,         Xiu-Yuan%Hao%NULL%4,         Xiu-Yuan%Hao%NULL%0,         Pei-Fang%Wei%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1140,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -1079,7 +1169,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1108,7 +1198,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1137,7 +1227,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1166,7 +1256,7 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1195,7 +1285,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1224,7 +1314,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -1282,7 +1372,7 @@
         <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="F10" t="s">
         <v>64</v>
@@ -1311,7 +1401,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -1340,7 +1430,7 @@
         <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="F12" t="s">
         <v>72</v>
@@ -1369,7 +1459,7 @@
         <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="F13" t="s">
         <v>72</v>
@@ -1398,7 +1488,7 @@
         <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>
@@ -1427,7 +1517,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="F15" t="s">
         <v>83</v>
@@ -1456,7 +1546,7 @@
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="F16" t="s">
         <v>88</v>
@@ -1485,7 +1575,7 @@
         <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="F17" t="s">
         <v>93</v>

--- a/Covid_19_Dataset_and_References/References/59.xlsx
+++ b/Covid_19_Dataset_and_References/References/59.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="249">
   <si>
     <t>Doi</t>
   </si>
@@ -797,6 +797,96 @@
   </si>
   <si>
     <t>[Kui%Liu%NULL%0,         Yuan-Yuan%Fang%NULL%2,         Yan%Deng%NULL%2,         Wei%Liu%NULL%2,         Mei-Fang%Wang%NULL%1,         Jing-Ping%Ma%NULL%1,         Wei%Xiao%NULL%2,         Ying-Nan%Wang%NULL%1,         Min-Hua%Zhong%NULL%1,         Cheng-Hong%Li%NULL%1,         Guang-Cai%Li%NULL%1,         Hui-Guo%Liu%NULL%3,         Xiu-Yuan%Hao%NULL%4,         Xiu-Yuan%Hao%NULL%0,         Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%0,          Austin R%Morrison%NULL%1,          Amit%Vahia%NULL%0,          Zachary R%Smith%NULL%1,          Zohra%Chaudhry%NULL%0,          Pallavi%Bhargava%NULL%1,          Joseph%Miller%NULL%0,          Rachel M%Kenney%NULL%1,          George%Alangaden%NULL%0,          Mayur S%Ramesh%mramesh1@hfhs.org%1,          Varidhi%Nauriyal%NULL%1,          Jayanth%Lakshmikanth%NULL%1,          Asif%Abdul Hamed%NULL%1,          Owais%Nadeem%NULL%1,          Kristin%Griebe%NULL%1,          Joseph M%Johnson%NULL%1,          Patrick%Bradley%NULL%1,          Junior%Uduman%NULL%1,          Sara%Hegab%NULL%1,          Jennifer%Swiderek%NULL%1,          Amanda%Godfrey%NULL%1,          Jeffrey%Jennings%NULL%1,          Jayna%Gardner-Gray%NULL%1,          Adam%Ackerman%NULL%1,          Jonathan%Lezotte%NULL%1,          Joseph%Ruhala%NULL%1,          Linoj%Samuel%NULL%1,          Robert J%Tibbetts%NULL%1,          Indira%Brar%NULL%0,          John%McKinnon%NULL%1,          Geehan%Suleyman%NULL%1,          Nicholas%Yared%NULL%1,          Erica%Herc%NULL%1,          Jonathan%Williams%NULL%1,          Odaliz Abreu%Lanfranco%NULL%1,          Anne%Chen%NULL%0,          Marcus%Zervos%NULL%1,          Eric%Scher%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%2,          Qing%Mei%NULL%2,          Tianjun%Yang%NULL%2,          Lei%Li%NULL%0,          Yinzhong%Wang%NULL%2,          Fei%Tong%NULL%2,          Shike%Geng%NULL%2,          Aijun%Pan%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%0,          Qing%Mei%NULL%0,          Tianjun%Yang%NULL%0,          Lei%Li%NULL%0,          Yinzhong%Wang%NULL%0,          Fei%Tong%NULL%0,          Shike%Geng%NULL%0,          Aijun%Pan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%2,          Shui-Bao%Xu%NULL%2,          Yi-Xiao%Lin%NULL%2,          Di%Tian%NULL%2,          Zhao-Qin%Zhu%NULL%2,          Fa-Hui%Dai%NULL%2,          Fan%Wu%NULL%2,          Zhi-Gang%Song%NULL%2,          Wei%Huang%NULL%2,          Jun%Chen%NULL%0,          Bi-Jie%Hu%NULL%2,          Sheng%Wang%NULL%2,          En-Qiang%Mao%NULL%2,          Lei%Zhu%NULL%2,          Wen-Hong%Zhang%NULL%2,          Hong-Zhou%Lu%NULL%2,          Peng%Lyu%NULL%4,          Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%0,          Taige%Chen%NULL%1,          Yang%Wang%NULL%1,          Jun%Wang%NULL%2,          Fangrong%Yan%f.r.yan@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%0,          Weiwei%Jiang%NULL%1,          Qi%He%NULL%1,          Cheng%Wang%NULL%3,          Baoju%Wang%NULL%1,          Pan%Zhou%NULL%1,          Nianguo%Dong%dongnianguo63@gmail.com%1,          Qiaoxia%Tong%2013xh0859@hust.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ J.%Wu%null%1,           J.% Huang%null%1,           G.% Zhu%null%1,           Y.% Liu%null%2,           H.% Xiao%null%1,           Q.% Zhou%null%1,           X.% Si%null%1,           H.% Yi%null%1,           C.% Wang%null%0,           D.% Yang%null%1,           S.% Chen%null%1,           X.% Liu%null%1,           Z.% Liu%null%1,           Q.% Wang%null%1,           Q.% Lv%null%1,           Y.% Huang%null%1,           Y.% Yu%null%1,           X.% Guan%null%1,           Y.% Li%null%3,           K.% Nirantharakumar%null%1,           K.% Cheng%null%1,           S.% Peng%null%1,           H. % Xiao%null%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,          Yuan%Yu%NULL%0,          Jiqian%Xu%NULL%0,          Huaqing%Shu%NULL%0,          Jia'an%Xia%NULL%0,          Hong%Liu%NULL%0,          Yongran%Wu%NULL%0,          Lu%Zhang%NULL%0,          Zhui%Yu%NULL%0,          Minghao%Fang%NULL%0,          Ting%Yu%NULL%0,          Yaxin%Wang%NULL%0,          Shangwen%Pan%NULL%0,          Xiaojing%Zou%NULL%0,          Shiying%Yuan%NULL%0,          You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%0,          Shirong%Li%NULL%1,          Lingling%Pan%NULL%1,          Boris%Tefsen%NULL%1,          Yeshan%Li%NULL%1,          Neil%French%NULL%1,          Liyun%Chen%NULL%1,          Gang%Yang%NULL%1,          Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%2,          Yisi%Liu%NULL%2,          Dongdong%Tian%NULL%2,          Cheng%Wang%NULL%0,          Sa%Wang%NULL%2,          Jing%Cheng%NULL%2,          Ming%Hu%huming74@163.com%0,          Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,          Yue%Gao%gaoyue@bmi.ac.cn%3]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%0,          Yisi%Liu%NULL%0,          Dongdong%Tian%NULL%0,          Cheng%Wang%NULL%0,          Sa%Wang%NULL%0,          Jing%Cheng%NULL%0,          Ming%Hu%huming74@163.com%0,          Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,          Yue%Gao%gaoyue@bmi.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Rong-chang%Chen%NULL%1,          Xiao-ping%Tang%NULL%1,          Shou-yong%Tan%NULL%1,          Bi-ling%Liang%NULL%1,          Zhuo-yue%Wan%NULL%1,          Ji-qian%Fang%NULL%1,          Nanshan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Coyle%NULL%1,          Efehi%Igbinomwanhia%NULL%1,          Alejandro%Sanchez-Nadales%alejandro.sanchez2@advocatehealth.com%1,          Sorin%Danciu%NULL%1,          Chae%Chu%NULL%1,          Nishit%Shah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Han%NULL%1,          Mao%Jiang%NULL%1,          Da%Xia%NULL%1,          Lichao%He%NULL%1,          Xin%Lv%NULL%1,          Xiaohua%Liao%NULL%1,          Jie%Meng%mengjie@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,          Yuan-Yuan%Fang%NULL%2,          Yan%Deng%NULL%2,          Wei%Liu%NULL%2,          Mei-Fang%Wang%NULL%1,          Jing-Ping%Ma%NULL%1,          Wei%Xiao%NULL%2,          Ying-Nan%Wang%NULL%1,          Min-Hua%Zhong%NULL%1,          Cheng-Hong%Li%NULL%1,          Guang-Cai%Li%NULL%1,          Hui-Guo%Liu%NULL%3,          Xiu-Yuan%Hao%NULL%4,          Xiu-Yuan%Hao%NULL%0,          Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%0,           Austin R%Morrison%NULL%1,           Amit%Vahia%NULL%0,           Zachary R%Smith%NULL%1,           Zohra%Chaudhry%NULL%0,           Pallavi%Bhargava%NULL%1,           Joseph%Miller%NULL%0,           Rachel M%Kenney%NULL%1,           George%Alangaden%NULL%0,           Mayur S%Ramesh%mramesh1@hfhs.org%1,           Varidhi%Nauriyal%NULL%1,           Jayanth%Lakshmikanth%NULL%1,           Asif%Abdul Hamed%NULL%1,           Owais%Nadeem%NULL%1,           Kristin%Griebe%NULL%1,           Joseph M%Johnson%NULL%1,           Patrick%Bradley%NULL%1,           Junior%Uduman%NULL%1,           Sara%Hegab%NULL%1,           Jennifer%Swiderek%NULL%1,           Amanda%Godfrey%NULL%1,           Jeffrey%Jennings%NULL%1,           Jayna%Gardner-Gray%NULL%1,           Adam%Ackerman%NULL%1,           Jonathan%Lezotte%NULL%1,           Joseph%Ruhala%NULL%1,           Linoj%Samuel%NULL%1,           Robert J%Tibbetts%NULL%1,           Indira%Brar%NULL%0,           John%McKinnon%NULL%1,           Geehan%Suleyman%NULL%1,           Nicholas%Yared%NULL%1,           Erica%Herc%NULL%1,           Jonathan%Williams%NULL%1,           Odaliz Abreu%Lanfranco%NULL%1,           Anne%Chen%NULL%0,           Marcus%Zervos%NULL%1,           Eric%Scher%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%2,           Qing%Mei%NULL%2,           Tianjun%Yang%NULL%2,           Lei%Li%NULL%0,           Yinzhong%Wang%NULL%2,           Fei%Tong%NULL%2,           Shike%Geng%NULL%2,           Aijun%Pan%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%0,           Qing%Mei%NULL%0,           Tianjun%Yang%NULL%0,           Lei%Li%NULL%0,           Yinzhong%Wang%NULL%0,           Fei%Tong%NULL%0,           Shike%Geng%NULL%0,           Aijun%Pan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%2,           Shui-Bao%Xu%NULL%2,           Yi-Xiao%Lin%NULL%2,           Di%Tian%NULL%2,           Zhao-Qin%Zhu%NULL%2,           Fa-Hui%Dai%NULL%2,           Fan%Wu%NULL%2,           Zhi-Gang%Song%NULL%2,           Wei%Huang%NULL%2,           Jun%Chen%NULL%0,           Bi-Jie%Hu%NULL%2,           Sheng%Wang%NULL%2,           En-Qiang%Mao%NULL%2,           Lei%Zhu%NULL%2,           Wen-Hong%Zhang%NULL%2,           Hong-Zhou%Lu%NULL%2,           Peng%Lyu%NULL%4,           Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%0,           Taige%Chen%NULL%1,           Yang%Wang%NULL%1,           Jun%Wang%NULL%2,           Fangrong%Yan%f.r.yan@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%0,           Weiwei%Jiang%NULL%1,           Qi%He%NULL%1,           Cheng%Wang%NULL%3,           Baoju%Wang%NULL%1,           Pan%Zhou%NULL%1,           Nianguo%Dong%dongnianguo63@gmail.com%1,           Qiaoxia%Tong%2013xh0859@hust.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ J.%Wu%null%1,            J.% Huang%null%1,            G.% Zhu%null%1,            Y.% Liu%null%2,            H.% Xiao%null%1,            Q.% Zhou%null%1,            X.% Si%null%1,            H.% Yi%null%1,            C.% Wang%null%0,            D.% Yang%null%1,            S.% Chen%null%1,            X.% Liu%null%1,            Z.% Liu%null%1,            Q.% Wang%null%1,            Q.% Lv%null%1,            Y.% Huang%null%1,            Y.% Yu%null%1,            X.% Guan%null%1,            Y.% Li%null%3,            K.% Nirantharakumar%null%1,            K.% Cheng%null%1,            S.% Peng%null%1,            H. % Xiao%null%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,           Yuan%Yu%NULL%0,           Jiqian%Xu%NULL%0,           Huaqing%Shu%NULL%0,           Jia'an%Xia%NULL%0,           Hong%Liu%NULL%0,           Yongran%Wu%NULL%0,           Lu%Zhang%NULL%0,           Zhui%Yu%NULL%0,           Minghao%Fang%NULL%0,           Ting%Yu%NULL%0,           Yaxin%Wang%NULL%0,           Shangwen%Pan%NULL%0,           Xiaojing%Zou%NULL%0,           Shiying%Yuan%NULL%0,           You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%0,           Shirong%Li%NULL%1,           Lingling%Pan%NULL%1,           Boris%Tefsen%NULL%1,           Yeshan%Li%NULL%1,           Neil%French%NULL%1,           Liyun%Chen%NULL%1,           Gang%Yang%NULL%1,           Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%2,           Yisi%Liu%NULL%2,           Dongdong%Tian%NULL%2,           Cheng%Wang%NULL%0,           Sa%Wang%NULL%2,           Jing%Cheng%NULL%2,           Ming%Hu%huming74@163.com%0,           Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,           Yue%Gao%gaoyue@bmi.ac.cn%3]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%0,           Yisi%Liu%NULL%0,           Dongdong%Tian%NULL%0,           Cheng%Wang%NULL%0,           Sa%Wang%NULL%0,           Jing%Cheng%NULL%0,           Ming%Hu%huming74@163.com%0,           Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,           Yue%Gao%gaoyue@bmi.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Rong-chang%Chen%NULL%1,           Xiao-ping%Tang%NULL%1,           Shou-yong%Tan%NULL%1,           Bi-ling%Liang%NULL%1,           Zhuo-yue%Wan%NULL%1,           Ji-qian%Fang%NULL%1,           Nanshan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Coyle%NULL%1,           Efehi%Igbinomwanhia%NULL%1,           Alejandro%Sanchez-Nadales%alejandro.sanchez2@advocatehealth.com%1,           Sorin%Danciu%NULL%1,           Chae%Chu%NULL%1,           Nishit%Shah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Han%NULL%1,           Mao%Jiang%NULL%1,           Da%Xia%NULL%1,           Lichao%He%NULL%1,           Xin%Lv%NULL%1,           Xiaohua%Liao%NULL%1,           Jie%Meng%mengjie@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,           Yuan-Yuan%Fang%NULL%0,           Yan%Deng%NULL%0,           Wei%Liu%NULL%0,           Mei-Fang%Wang%NULL%1,           Jing-Ping%Ma%NULL%1,           Wei%Xiao%NULL%2,           Ying-Nan%Wang%NULL%1,           Min-Hua%Zhong%NULL%1,           Cheng-Hong%Li%NULL%1,           Guang-Cai%Li%NULL%1,           Hui-Guo%Liu%NULL%0,           Xiu-Yuan%Hao%NULL%4,           Xiu-Yuan%Hao%NULL%0,           Pei-Fang%Wei%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1230,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -1169,7 +1259,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1198,7 +1288,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1227,7 +1317,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1256,7 +1346,7 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1285,7 +1375,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1314,7 +1404,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -1372,7 +1462,7 @@
         <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="F10" t="s">
         <v>64</v>
@@ -1401,7 +1491,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -1430,7 +1520,7 @@
         <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="F12" t="s">
         <v>72</v>
@@ -1459,7 +1549,7 @@
         <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="F13" t="s">
         <v>72</v>
@@ -1488,7 +1578,7 @@
         <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>
@@ -1517,7 +1607,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="F15" t="s">
         <v>83</v>
@@ -1546,7 +1636,7 @@
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="F16" t="s">
         <v>88</v>
@@ -1575,7 +1665,7 @@
         <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="F17" t="s">
         <v>93</v>

--- a/Covid_19_Dataset_and_References/References/59.xlsx
+++ b/Covid_19_Dataset_and_References/References/59.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="279">
   <si>
     <t>Doi</t>
   </si>
@@ -887,6 +887,96 @@
   </si>
   <si>
     <t>[Kui%Liu%NULL%0,           Yuan-Yuan%Fang%NULL%0,           Yan%Deng%NULL%0,           Wei%Liu%NULL%0,           Mei-Fang%Wang%NULL%1,           Jing-Ping%Ma%NULL%1,           Wei%Xiao%NULL%2,           Ying-Nan%Wang%NULL%1,           Min-Hua%Zhong%NULL%1,           Cheng-Hong%Li%NULL%1,           Guang-Cai%Li%NULL%1,           Hui-Guo%Liu%NULL%0,           Xiu-Yuan%Hao%NULL%4,           Xiu-Yuan%Hao%NULL%0,           Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%0,            Austin R%Morrison%NULL%1,            Amit%Vahia%NULL%0,            Zachary R%Smith%NULL%1,            Zohra%Chaudhry%NULL%0,            Pallavi%Bhargava%NULL%1,            Joseph%Miller%NULL%0,            Rachel M%Kenney%NULL%1,            George%Alangaden%NULL%0,            Mayur S%Ramesh%mramesh1@hfhs.org%1,            Varidhi%Nauriyal%NULL%1,            Jayanth%Lakshmikanth%NULL%1,            Asif%Abdul Hamed%NULL%1,            Owais%Nadeem%NULL%1,            Kristin%Griebe%NULL%1,            Joseph M%Johnson%NULL%1,            Patrick%Bradley%NULL%1,            Junior%Uduman%NULL%1,            Sara%Hegab%NULL%1,            Jennifer%Swiderek%NULL%1,            Amanda%Godfrey%NULL%1,            Jeffrey%Jennings%NULL%1,            Jayna%Gardner-Gray%NULL%1,            Adam%Ackerman%NULL%1,            Jonathan%Lezotte%NULL%1,            Joseph%Ruhala%NULL%1,            Linoj%Samuel%NULL%1,            Robert J%Tibbetts%NULL%1,            Indira%Brar%NULL%0,            John%McKinnon%NULL%1,            Geehan%Suleyman%NULL%1,            Nicholas%Yared%NULL%1,            Erica%Herc%NULL%1,            Jonathan%Williams%NULL%1,            Odaliz Abreu%Lanfranco%NULL%1,            Anne%Chen%NULL%0,            Marcus%Zervos%NULL%1,            Eric%Scher%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%2,            Qing%Mei%NULL%2,            Tianjun%Yang%NULL%2,            Lei%Li%NULL%0,            Yinzhong%Wang%NULL%2,            Fei%Tong%NULL%2,            Shike%Geng%NULL%2,            Aijun%Pan%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%0,            Qing%Mei%NULL%0,            Tianjun%Yang%NULL%0,            Lei%Li%NULL%0,            Yinzhong%Wang%NULL%0,            Fei%Tong%NULL%0,            Shike%Geng%NULL%0,            Aijun%Pan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%2,            Shui-Bao%Xu%NULL%2,            Yi-Xiao%Lin%NULL%2,            Di%Tian%NULL%2,            Zhao-Qin%Zhu%NULL%2,            Fa-Hui%Dai%NULL%2,            Fan%Wu%NULL%2,            Zhi-Gang%Song%NULL%2,            Wei%Huang%NULL%2,            Jun%Chen%NULL%0,            Bi-Jie%Hu%NULL%2,            Sheng%Wang%NULL%2,            En-Qiang%Mao%NULL%2,            Lei%Zhu%NULL%2,            Wen-Hong%Zhang%NULL%2,            Hong-Zhou%Lu%NULL%2,            Peng%Lyu%NULL%4,            Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%0,            Taige%Chen%NULL%1,            Yang%Wang%NULL%1,            Jun%Wang%NULL%2,            Fangrong%Yan%f.r.yan@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%0,            Weiwei%Jiang%NULL%1,            Qi%He%NULL%1,            Cheng%Wang%NULL%3,            Baoju%Wang%NULL%1,            Pan%Zhou%NULL%1,            Nianguo%Dong%dongnianguo63@gmail.com%1,            Qiaoxia%Tong%2013xh0859@hust.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ J.%Wu%null%1,             J.% Huang%null%1,             G.% Zhu%null%1,             Y.% Liu%null%2,             H.% Xiao%null%1,             Q.% Zhou%null%1,             X.% Si%null%1,             H.% Yi%null%1,             C.% Wang%null%0,             D.% Yang%null%1,             S.% Chen%null%1,             X.% Liu%null%1,             Z.% Liu%null%1,             Q.% Wang%null%1,             Q.% Lv%null%1,             Y.% Huang%null%1,             Y.% Yu%null%1,             X.% Guan%null%1,             Y.% Li%null%3,             K.% Nirantharakumar%null%1,             K.% Cheng%null%1,             S.% Peng%null%1,             H. % Xiao%null%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,            Yuan%Yu%NULL%0,            Jiqian%Xu%NULL%0,            Huaqing%Shu%NULL%0,            Jia'an%Xia%NULL%0,            Hong%Liu%NULL%0,            Yongran%Wu%NULL%0,            Lu%Zhang%NULL%0,            Zhui%Yu%NULL%0,            Minghao%Fang%NULL%0,            Ting%Yu%NULL%0,            Yaxin%Wang%NULL%0,            Shangwen%Pan%NULL%0,            Xiaojing%Zou%NULL%0,            Shiying%Yuan%NULL%0,            You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%0,            Shirong%Li%NULL%1,            Lingling%Pan%NULL%1,            Boris%Tefsen%NULL%1,            Yeshan%Li%NULL%1,            Neil%French%NULL%1,            Liyun%Chen%NULL%1,            Gang%Yang%NULL%1,            Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%2,            Yisi%Liu%NULL%2,            Dongdong%Tian%NULL%2,            Cheng%Wang%NULL%0,            Sa%Wang%NULL%2,            Jing%Cheng%NULL%2,            Ming%Hu%huming74@163.com%0,            Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,            Yue%Gao%gaoyue@bmi.ac.cn%3]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%0,            Yisi%Liu%NULL%0,            Dongdong%Tian%NULL%0,            Cheng%Wang%NULL%0,            Sa%Wang%NULL%0,            Jing%Cheng%NULL%0,            Ming%Hu%huming74@163.com%0,            Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,            Yue%Gao%gaoyue@bmi.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Rong-chang%Chen%NULL%1,            Xiao-ping%Tang%NULL%1,            Shou-yong%Tan%NULL%1,            Bi-ling%Liang%NULL%1,            Zhuo-yue%Wan%NULL%1,            Ji-qian%Fang%NULL%1,            Nanshan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Coyle%NULL%1,            Efehi%Igbinomwanhia%NULL%1,            Alejandro%Sanchez-Nadales%alejandro.sanchez2@advocatehealth.com%1,            Sorin%Danciu%NULL%1,            Chae%Chu%NULL%1,            Nishit%Shah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Han%NULL%1,            Mao%Jiang%NULL%1,            Da%Xia%NULL%1,            Lichao%He%NULL%1,            Xin%Lv%NULL%1,            Xiaohua%Liao%NULL%1,            Jie%Meng%mengjie@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,            Yuan-Yuan%Fang%NULL%2,            Yan%Deng%NULL%2,            Wei%Liu%NULL%2,            Mei-Fang%Wang%NULL%1,            Jing-Ping%Ma%NULL%1,            Wei%Xiao%NULL%2,            Ying-Nan%Wang%NULL%1,            Min-Hua%Zhong%NULL%1,            Cheng-Hong%Li%NULL%1,            Guang-Cai%Li%NULL%1,            Hui-Guo%Liu%NULL%3,            Xiu-Yuan%Hao%NULL%4,            Xiu-Yuan%Hao%NULL%0,            Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%0,             Austin R%Morrison%NULL%1,             Amit%Vahia%NULL%0,             Zachary R%Smith%NULL%1,             Zohra%Chaudhry%NULL%0,             Pallavi%Bhargava%NULL%1,             Joseph%Miller%NULL%0,             Rachel M%Kenney%NULL%1,             George%Alangaden%NULL%0,             Mayur S%Ramesh%mramesh1@hfhs.org%1,             Varidhi%Nauriyal%NULL%1,             Jayanth%Lakshmikanth%NULL%1,             Asif%Abdul Hamed%NULL%1,             Owais%Nadeem%NULL%1,             Kristin%Griebe%NULL%1,             Joseph M%Johnson%NULL%1,             Patrick%Bradley%NULL%1,             Junior%Uduman%NULL%1,             Sara%Hegab%NULL%1,             Jennifer%Swiderek%NULL%1,             Amanda%Godfrey%NULL%1,             Jeffrey%Jennings%NULL%1,             Jayna%Gardner-Gray%NULL%1,             Adam%Ackerman%NULL%1,             Jonathan%Lezotte%NULL%1,             Joseph%Ruhala%NULL%1,             Linoj%Samuel%NULL%1,             Robert J%Tibbetts%NULL%1,             Indira%Brar%NULL%0,             John%McKinnon%NULL%1,             Geehan%Suleyman%NULL%1,             Nicholas%Yared%NULL%1,             Erica%Herc%NULL%1,             Jonathan%Williams%NULL%1,             Odaliz Abreu%Lanfranco%NULL%1,             Anne%Chen%NULL%0,             Marcus%Zervos%NULL%1,             Eric%Scher%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%2,             Qing%Mei%NULL%2,             Tianjun%Yang%NULL%2,             Lei%Li%NULL%0,             Yinzhong%Wang%NULL%2,             Fei%Tong%NULL%2,             Shike%Geng%NULL%2,             Aijun%Pan%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%0,             Qing%Mei%NULL%0,             Tianjun%Yang%NULL%0,             Lei%Li%NULL%0,             Yinzhong%Wang%NULL%0,             Fei%Tong%NULL%0,             Shike%Geng%NULL%0,             Aijun%Pan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%2,             Shui-Bao%Xu%NULL%2,             Yi-Xiao%Lin%NULL%2,             Di%Tian%NULL%2,             Zhao-Qin%Zhu%NULL%2,             Fa-Hui%Dai%NULL%2,             Fan%Wu%NULL%2,             Zhi-Gang%Song%NULL%2,             Wei%Huang%NULL%2,             Jun%Chen%NULL%0,             Bi-Jie%Hu%NULL%2,             Sheng%Wang%NULL%2,             En-Qiang%Mao%NULL%2,             Lei%Zhu%NULL%2,             Wen-Hong%Zhang%NULL%2,             Hong-Zhou%Lu%NULL%2,             Peng%Lyu%NULL%4,             Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%0,             Taige%Chen%NULL%1,             Yang%Wang%NULL%1,             Jun%Wang%NULL%2,             Fangrong%Yan%f.r.yan@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%0,             Weiwei%Jiang%NULL%1,             Qi%He%NULL%1,             Cheng%Wang%NULL%3,             Baoju%Wang%NULL%1,             Pan%Zhou%NULL%1,             Nianguo%Dong%dongnianguo63@gmail.com%1,             Qiaoxia%Tong%2013xh0859@hust.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ J.%Wu%null%1,              J.% Huang%null%1,              G.% Zhu%null%1,              Y.% Liu%null%2,              H.% Xiao%null%1,              Q.% Zhou%null%1,              X.% Si%null%1,              H.% Yi%null%1,              C.% Wang%null%0,              D.% Yang%null%1,              S.% Chen%null%1,              X.% Liu%null%1,              Z.% Liu%null%1,              Q.% Wang%null%1,              Q.% Lv%null%1,              Y.% Huang%null%1,              Y.% Yu%null%1,              X.% Guan%null%1,              Y.% Li%null%3,              K.% Nirantharakumar%null%1,              K.% Cheng%null%1,              S.% Peng%null%1,              H. % Xiao%null%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,             Yuan%Yu%NULL%0,             Jiqian%Xu%NULL%0,             Huaqing%Shu%NULL%0,             Jia'an%Xia%NULL%0,             Hong%Liu%NULL%0,             Yongran%Wu%NULL%0,             Lu%Zhang%NULL%0,             Zhui%Yu%NULL%0,             Minghao%Fang%NULL%0,             Ting%Yu%NULL%0,             Yaxin%Wang%NULL%0,             Shangwen%Pan%NULL%0,             Xiaojing%Zou%NULL%0,             Shiying%Yuan%NULL%0,             You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%0,             Shirong%Li%NULL%1,             Lingling%Pan%NULL%1,             Boris%Tefsen%NULL%1,             Yeshan%Li%NULL%1,             Neil%French%NULL%1,             Liyun%Chen%NULL%1,             Gang%Yang%NULL%1,             Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%2,             Yisi%Liu%NULL%2,             Dongdong%Tian%NULL%2,             Cheng%Wang%NULL%0,             Sa%Wang%NULL%2,             Jing%Cheng%NULL%2,             Ming%Hu%huming74@163.com%0,             Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,             Yue%Gao%gaoyue@bmi.ac.cn%3]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%0,             Yisi%Liu%NULL%0,             Dongdong%Tian%NULL%0,             Cheng%Wang%NULL%0,             Sa%Wang%NULL%0,             Jing%Cheng%NULL%0,             Ming%Hu%huming74@163.com%0,             Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,             Yue%Gao%gaoyue@bmi.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Rong-chang%Chen%NULL%1,             Xiao-ping%Tang%NULL%1,             Shou-yong%Tan%NULL%1,             Bi-ling%Liang%NULL%1,             Zhuo-yue%Wan%NULL%1,             Ji-qian%Fang%NULL%1,             Nanshan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Coyle%NULL%1,             Efehi%Igbinomwanhia%NULL%1,             Alejandro%Sanchez-Nadales%alejandro.sanchez2@advocatehealth.com%1,             Sorin%Danciu%NULL%1,             Chae%Chu%NULL%1,             Nishit%Shah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Han%NULL%1,             Mao%Jiang%NULL%1,             Da%Xia%NULL%1,             Lichao%He%NULL%1,             Xin%Lv%NULL%1,             Xiaohua%Liao%NULL%1,             Jie%Meng%mengjie@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,             Yuan-Yuan%Fang%NULL%2,             Yan%Deng%NULL%2,             Wei%Liu%NULL%2,             Mei-Fang%Wang%NULL%1,             Jing-Ping%Ma%NULL%1,             Wei%Xiao%NULL%2,             Ying-Nan%Wang%NULL%1,             Min-Hua%Zhong%NULL%1,             Cheng-Hong%Li%NULL%1,             Guang-Cai%Li%NULL%1,             Hui-Guo%Liu%NULL%3,             Xiu-Yuan%Hao%NULL%4,             Xiu-Yuan%Hao%NULL%0,             Pei-Fang%Wei%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1320,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -1259,7 +1349,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1288,7 +1378,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1317,7 +1407,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1346,7 +1436,7 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1375,7 +1465,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1404,7 +1494,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -1462,7 +1552,7 @@
         <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="F10" t="s">
         <v>64</v>
@@ -1491,7 +1581,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -1520,7 +1610,7 @@
         <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="F12" t="s">
         <v>72</v>
@@ -1549,7 +1639,7 @@
         <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="F13" t="s">
         <v>72</v>
@@ -1578,7 +1668,7 @@
         <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>
@@ -1607,7 +1697,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="F15" t="s">
         <v>83</v>
@@ -1636,7 +1726,7 @@
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="F16" t="s">
         <v>88</v>
@@ -1665,7 +1755,7 @@
         <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="F17" t="s">
         <v>93</v>

--- a/Covid_19_Dataset_and_References/References/59.xlsx
+++ b/Covid_19_Dataset_and_References/References/59.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="295">
   <si>
     <t>Doi</t>
   </si>
@@ -977,6 +977,54 @@
   </si>
   <si>
     <t>[Kui%Liu%NULL%0,             Yuan-Yuan%Fang%NULL%2,             Yan%Deng%NULL%2,             Wei%Liu%NULL%2,             Mei-Fang%Wang%NULL%1,             Jing-Ping%Ma%NULL%1,             Wei%Xiao%NULL%2,             Ying-Nan%Wang%NULL%1,             Min-Hua%Zhong%NULL%1,             Cheng-Hong%Li%NULL%1,             Guang-Cai%Li%NULL%1,             Hui-Guo%Liu%NULL%3,             Xiu-Yuan%Hao%NULL%4,             Xiu-Yuan%Hao%NULL%0,             Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%0,              Austin R%Morrison%NULL%1,              Amit%Vahia%NULL%0,              Zachary R%Smith%NULL%1,              Zohra%Chaudhry%NULL%0,              Pallavi%Bhargava%NULL%1,              Joseph%Miller%NULL%0,              Rachel M%Kenney%NULL%1,              George%Alangaden%NULL%0,              Mayur S%Ramesh%mramesh1@hfhs.org%1,              Varidhi%Nauriyal%NULL%1,              Jayanth%Lakshmikanth%NULL%1,              Asif%Abdul Hamed%NULL%1,              Owais%Nadeem%NULL%1,              Kristin%Griebe%NULL%1,              Joseph M%Johnson%NULL%1,              Patrick%Bradley%NULL%1,              Junior%Uduman%NULL%1,              Sara%Hegab%NULL%1,              Jennifer%Swiderek%NULL%1,              Amanda%Godfrey%NULL%1,              Jeffrey%Jennings%NULL%1,              Jayna%Gardner-Gray%NULL%1,              Adam%Ackerman%NULL%1,              Jonathan%Lezotte%NULL%1,              Joseph%Ruhala%NULL%1,              Linoj%Samuel%NULL%1,              Robert J%Tibbetts%NULL%1,              Indira%Brar%NULL%0,              John%McKinnon%NULL%1,              Geehan%Suleyman%NULL%1,              Nicholas%Yared%NULL%1,              Erica%Herc%NULL%1,              Jonathan%Williams%NULL%1,              Odaliz Abreu%Lanfranco%NULL%1,              Anne%Chen%NULL%0,              Marcus%Zervos%NULL%1,              Eric%Scher%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%2,              Qing%Mei%NULL%2,              Tianjun%Yang%NULL%2,              Lei%Li%NULL%0,              Yinzhong%Wang%NULL%2,              Fei%Tong%NULL%2,              Shike%Geng%NULL%2,              Aijun%Pan%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%0,              Qing%Mei%NULL%0,              Tianjun%Yang%NULL%0,              Lei%Li%NULL%0,              Yinzhong%Wang%NULL%0,              Fei%Tong%NULL%0,              Shike%Geng%NULL%0,              Aijun%Pan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%2,              Shui-Bao%Xu%NULL%2,              Yi-Xiao%Lin%NULL%2,              Di%Tian%NULL%2,              Zhao-Qin%Zhu%NULL%2,              Fa-Hui%Dai%NULL%2,              Fan%Wu%NULL%2,              Zhi-Gang%Song%NULL%2,              Wei%Huang%NULL%2,              Jun%Chen%NULL%0,              Bi-Jie%Hu%NULL%2,              Sheng%Wang%NULL%2,              En-Qiang%Mao%NULL%2,              Lei%Zhu%NULL%2,              Wen-Hong%Zhang%NULL%2,              Hong-Zhou%Lu%NULL%2,              Peng%Lyu%NULL%4,              Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%0,              Taige%Chen%NULL%1,              Yang%Wang%NULL%1,              Jun%Wang%NULL%2,              Fangrong%Yan%f.r.yan@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%0,              Weiwei%Jiang%NULL%1,              Qi%He%NULL%1,              Cheng%Wang%NULL%3,              Baoju%Wang%NULL%1,              Pan%Zhou%NULL%1,              Nianguo%Dong%dongnianguo63@gmail.com%1,              Qiaoxia%Tong%2013xh0859@hust.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ J.%Wu%null%1,               J.% Huang%null%1,               G.% Zhu%null%1,               Y.% Liu%null%2,               H.% Xiao%null%1,               Q.% Zhou%null%1,               X.% Si%null%1,               H.% Yi%null%1,               C.% Wang%null%0,               D.% Yang%null%1,               S.% Chen%null%1,               X.% Liu%null%1,               Z.% Liu%null%1,               Q.% Wang%null%1,               Q.% Lv%null%1,               Y.% Huang%null%1,               Y.% Yu%null%1,               X.% Guan%null%1,               Y.% Li%null%3,               K.% Nirantharakumar%null%1,               K.% Cheng%null%1,               S.% Peng%null%1,               H. % Xiao%null%1]</t>
+  </si>
+  <si>
+    <t>medrxiv/biorxiv doi</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,              Yuan%Yu%NULL%0,              Jiqian%Xu%NULL%0,              Huaqing%Shu%NULL%0,              Jia'an%Xia%NULL%0,              Hong%Liu%NULL%0,              Yongran%Wu%NULL%0,              Lu%Zhang%NULL%0,              Zhui%Yu%NULL%0,              Minghao%Fang%NULL%0,              Ting%Yu%NULL%0,              Yaxin%Wang%NULL%0,              Shangwen%Pan%NULL%0,              Xiaojing%Zou%NULL%0,              Shiying%Yuan%NULL%0,              You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%0,              Shirong%Li%NULL%1,              Lingling%Pan%NULL%1,              Boris%Tefsen%NULL%1,              Yeshan%Li%NULL%1,              Neil%French%NULL%1,              Liyun%Chen%NULL%1,              Gang%Yang%NULL%1,              Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%2,              Yisi%Liu%NULL%2,              Dongdong%Tian%NULL%2,              Cheng%Wang%NULL%0,              Sa%Wang%NULL%2,              Jing%Cheng%NULL%2,              Ming%Hu%huming74@163.com%0,              Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,              Yue%Gao%gaoyue@bmi.ac.cn%3]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%0,              Yisi%Liu%NULL%0,              Dongdong%Tian%NULL%0,              Cheng%Wang%NULL%0,              Sa%Wang%NULL%0,              Jing%Cheng%NULL%0,              Ming%Hu%huming74@163.com%0,              Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,              Yue%Gao%gaoyue@bmi.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Rong-chang%Chen%NULL%1,              Xiao-ping%Tang%NULL%1,              Shou-yong%Tan%NULL%1,              Bi-ling%Liang%NULL%1,              Zhuo-yue%Wan%NULL%1,              Ji-qian%Fang%NULL%1,              Nanshan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Coyle%NULL%1,              Efehi%Igbinomwanhia%NULL%1,              Alejandro%Sanchez-Nadales%alejandro.sanchez2@advocatehealth.com%1,              Sorin%Danciu%NULL%1,              Chae%Chu%NULL%1,              Nishit%Shah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Han%NULL%1,              Mao%Jiang%NULL%1,              Da%Xia%NULL%1,              Lichao%He%NULL%1,              Xin%Lv%NULL%1,              Xiaohua%Liao%NULL%1,              Jie%Meng%mengjie@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,              Yuan-Yuan%Fang%NULL%2,              Yan%Deng%NULL%2,              Wei%Liu%NULL%2,              Mei-Fang%Wang%NULL%1,              Jing-Ping%Ma%NULL%1,              Wei%Xiao%NULL%2,              Ying-Nan%Wang%NULL%1,              Min-Hua%Zhong%NULL%1,              Cheng-Hong%Li%NULL%1,              Guang-Cai%Li%NULL%1,              Hui-Guo%Liu%NULL%3,              Xiu-Yuan%Hao%NULL%4,              Xiu-Yuan%Hao%NULL%0,              Pei-Fang%Wei%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1368,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -1349,7 +1397,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1378,7 +1426,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1407,7 +1455,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1436,7 +1484,7 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1465,7 +1513,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1494,13 +1542,13 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>286</v>
       </c>
       <c r="H8" t="s">
         <v>60</v>
@@ -1552,7 +1600,7 @@
         <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="F10" t="s">
         <v>64</v>
@@ -1581,7 +1629,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -1610,7 +1658,7 @@
         <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="F12" t="s">
         <v>72</v>
@@ -1639,7 +1687,7 @@
         <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="F13" t="s">
         <v>72</v>
@@ -1668,7 +1716,7 @@
         <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>
@@ -1697,7 +1745,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="F15" t="s">
         <v>83</v>
@@ -1726,7 +1774,7 @@
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="F16" t="s">
         <v>88</v>
@@ -1755,7 +1803,7 @@
         <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="F17" t="s">
         <v>93</v>

--- a/Covid_19_Dataset_and_References/References/59.xlsx
+++ b/Covid_19_Dataset_and_References/References/59.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="310">
   <si>
     <t>Doi</t>
   </si>
@@ -1025,6 +1025,51 @@
   </si>
   <si>
     <t>[Kui%Liu%NULL%0,              Yuan-Yuan%Fang%NULL%2,              Yan%Deng%NULL%2,              Wei%Liu%NULL%2,              Mei-Fang%Wang%NULL%1,              Jing-Ping%Ma%NULL%1,              Wei%Xiao%NULL%2,              Ying-Nan%Wang%NULL%1,              Min-Hua%Zhong%NULL%1,              Cheng-Hong%Li%NULL%1,              Guang-Cai%Li%NULL%1,              Hui-Guo%Liu%NULL%3,              Xiu-Yuan%Hao%NULL%4,              Xiu-Yuan%Hao%NULL%0,              Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%0,               Austin R%Morrison%NULL%1,               Amit%Vahia%NULL%0,               Zachary R%Smith%NULL%1,               Zohra%Chaudhry%NULL%0,               Pallavi%Bhargava%NULL%1,               Joseph%Miller%NULL%0,               Rachel M%Kenney%NULL%1,               George%Alangaden%NULL%0,               Mayur S%Ramesh%mramesh1@hfhs.org%1,               Varidhi%Nauriyal%NULL%1,               Jayanth%Lakshmikanth%NULL%1,               Asif%Abdul Hamed%NULL%1,               Owais%Nadeem%NULL%1,               Kristin%Griebe%NULL%1,               Joseph M%Johnson%NULL%1,               Patrick%Bradley%NULL%1,               Junior%Uduman%NULL%1,               Sara%Hegab%NULL%1,               Jennifer%Swiderek%NULL%1,               Amanda%Godfrey%NULL%1,               Jeffrey%Jennings%NULL%1,               Jayna%Gardner-Gray%NULL%1,               Adam%Ackerman%NULL%1,               Jonathan%Lezotte%NULL%1,               Joseph%Ruhala%NULL%1,               Linoj%Samuel%NULL%1,               Robert J%Tibbetts%NULL%1,               Indira%Brar%NULL%0,               John%McKinnon%NULL%1,               Geehan%Suleyman%NULL%1,               Nicholas%Yared%NULL%1,               Erica%Herc%NULL%1,               Jonathan%Williams%NULL%1,               Odaliz Abreu%Lanfranco%NULL%1,               Anne%Chen%NULL%0,               Marcus%Zervos%NULL%1,               Eric%Scher%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%2,               Qing%Mei%NULL%2,               Tianjun%Yang%NULL%2,               Lei%Li%NULL%0,               Yinzhong%Wang%NULL%2,               Fei%Tong%NULL%2,               Shike%Geng%NULL%2,               Aijun%Pan%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%0,               Qing%Mei%NULL%0,               Tianjun%Yang%NULL%0,               Lei%Li%NULL%0,               Yinzhong%Wang%NULL%0,               Fei%Tong%NULL%0,               Shike%Geng%NULL%0,               Aijun%Pan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%2,               Shui-Bao%Xu%NULL%2,               Yi-Xiao%Lin%NULL%2,               Di%Tian%NULL%2,               Zhao-Qin%Zhu%NULL%2,               Fa-Hui%Dai%NULL%2,               Fan%Wu%NULL%2,               Zhi-Gang%Song%NULL%2,               Wei%Huang%NULL%2,               Jun%Chen%NULL%0,               Bi-Jie%Hu%NULL%2,               Sheng%Wang%NULL%2,               En-Qiang%Mao%NULL%2,               Lei%Zhu%NULL%2,               Wen-Hong%Zhang%NULL%2,               Hong-Zhou%Lu%NULL%2,               Peng%Lyu%NULL%4,               Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%0,               Taige%Chen%NULL%1,               Yang%Wang%NULL%1,               Jun%Wang%NULL%2,               Fangrong%Yan%f.r.yan@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%0,               Weiwei%Jiang%NULL%1,               Qi%He%NULL%1,               Cheng%Wang%NULL%3,               Baoju%Wang%NULL%1,               Pan%Zhou%NULL%1,               Nianguo%Dong%dongnianguo63@gmail.com%1,               Qiaoxia%Tong%2013xh0859@hust.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ J.%Wu%null%1,                J.% Huang%null%1,                G.% Zhu%null%1,                Y.% Liu%null%2,                H.% Xiao%null%1,                Q.% Zhou%null%1,                X.% Si%null%1,                H.% Yi%null%1,                C.% Wang%null%0,                D.% Yang%null%1,                S.% Chen%null%1,                X.% Liu%null%1,                Z.% Liu%null%1,                Q.% Wang%null%1,                Q.% Lv%null%1,                Y.% Huang%null%1,                Y.% Yu%null%1,                X.% Guan%null%1,                Y.% Li%null%3,                K.% Nirantharakumar%null%1,                K.% Cheng%null%1,                S.% Peng%null%1,                H. % Xiao%null%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,               Yuan%Yu%NULL%0,               Jiqian%Xu%NULL%0,               Huaqing%Shu%NULL%0,               Jia'an%Xia%NULL%0,               Hong%Liu%NULL%0,               Yongran%Wu%NULL%0,               Lu%Zhang%NULL%0,               Zhui%Yu%NULL%0,               Minghao%Fang%NULL%0,               Ting%Yu%NULL%0,               Yaxin%Wang%NULL%0,               Shangwen%Pan%NULL%0,               Xiaojing%Zou%NULL%0,               Shiying%Yuan%NULL%0,               You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%0,               Shirong%Li%NULL%1,               Lingling%Pan%NULL%1,               Boris%Tefsen%NULL%1,               Yeshan%Li%NULL%1,               Neil%French%NULL%1,               Liyun%Chen%NULL%1,               Gang%Yang%NULL%1,               Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%2,               Yisi%Liu%NULL%2,               Dongdong%Tian%NULL%2,               Cheng%Wang%NULL%0,               Sa%Wang%NULL%2,               Jing%Cheng%NULL%2,               Ming%Hu%huming74@163.com%0,               Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,               Yue%Gao%gaoyue@bmi.ac.cn%3]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%0,               Yisi%Liu%NULL%0,               Dongdong%Tian%NULL%0,               Cheng%Wang%NULL%0,               Sa%Wang%NULL%0,               Jing%Cheng%NULL%0,               Ming%Hu%huming74@163.com%0,               Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,               Yue%Gao%gaoyue@bmi.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Rong-chang%Chen%NULL%1,               Xiao-ping%Tang%NULL%1,               Shou-yong%Tan%NULL%1,               Bi-ling%Liang%NULL%1,               Zhuo-yue%Wan%NULL%1,               Ji-qian%Fang%NULL%1,               Nanshan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Coyle%NULL%1,               Efehi%Igbinomwanhia%NULL%1,               Alejandro%Sanchez-Nadales%alejandro.sanchez2@advocatehealth.com%1,               Sorin%Danciu%NULL%1,               Chae%Chu%NULL%1,               Nishit%Shah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Han%NULL%1,               Mao%Jiang%NULL%1,               Da%Xia%NULL%1,               Lichao%He%NULL%1,               Xin%Lv%NULL%1,               Xiaohua%Liao%NULL%1,               Jie%Meng%mengjie@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,               Yuan-Yuan%Fang%NULL%2,               Yan%Deng%NULL%2,               Wei%Liu%NULL%2,               Mei-Fang%Wang%NULL%1,               Jing-Ping%Ma%NULL%1,               Wei%Xiao%NULL%2,               Ying-Nan%Wang%NULL%1,               Min-Hua%Zhong%NULL%1,               Cheng-Hong%Li%NULL%1,               Guang-Cai%Li%NULL%1,               Hui-Guo%Liu%NULL%3,               Xiu-Yuan%Hao%NULL%4,               Xiu-Yuan%Hao%NULL%0,               Pei-Fang%Wei%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1413,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -1397,7 +1442,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1426,7 +1471,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1455,7 +1500,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1484,7 +1529,7 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1513,7 +1558,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1542,7 +1587,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -1600,7 +1645,7 @@
         <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="F10" t="s">
         <v>64</v>
@@ -1629,7 +1674,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -1658,7 +1703,7 @@
         <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="F12" t="s">
         <v>72</v>
@@ -1687,7 +1732,7 @@
         <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="F13" t="s">
         <v>72</v>
@@ -1716,7 +1761,7 @@
         <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>
@@ -1745,7 +1790,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="F15" t="s">
         <v>83</v>
@@ -1774,7 +1819,7 @@
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="F16" t="s">
         <v>88</v>
@@ -1803,7 +1848,7 @@
         <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="F17" t="s">
         <v>93</v>

--- a/Covid_19_Dataset_and_References/References/59.xlsx
+++ b/Covid_19_Dataset_and_References/References/59.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="340">
   <si>
     <t>Doi</t>
   </si>
@@ -1070,6 +1070,96 @@
   </si>
   <si>
     <t>[Kui%Liu%NULL%0,               Yuan-Yuan%Fang%NULL%2,               Yan%Deng%NULL%2,               Wei%Liu%NULL%2,               Mei-Fang%Wang%NULL%1,               Jing-Ping%Ma%NULL%1,               Wei%Xiao%NULL%2,               Ying-Nan%Wang%NULL%1,               Min-Hua%Zhong%NULL%1,               Cheng-Hong%Li%NULL%1,               Guang-Cai%Li%NULL%1,               Hui-Guo%Liu%NULL%3,               Xiu-Yuan%Hao%NULL%4,               Xiu-Yuan%Hao%NULL%0,               Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%0,                Austin R%Morrison%NULL%1,                Amit%Vahia%NULL%0,                Zachary R%Smith%NULL%1,                Zohra%Chaudhry%NULL%0,                Pallavi%Bhargava%NULL%1,                Joseph%Miller%NULL%0,                Rachel M%Kenney%NULL%1,                George%Alangaden%NULL%0,                Mayur S%Ramesh%mramesh1@hfhs.org%1,                Varidhi%Nauriyal%NULL%1,                Jayanth%Lakshmikanth%NULL%1,                Asif%Abdul Hamed%NULL%1,                Owais%Nadeem%NULL%1,                Kristin%Griebe%NULL%1,                Joseph M%Johnson%NULL%1,                Patrick%Bradley%NULL%1,                Junior%Uduman%NULL%1,                Sara%Hegab%NULL%1,                Jennifer%Swiderek%NULL%1,                Amanda%Godfrey%NULL%1,                Jeffrey%Jennings%NULL%1,                Jayna%Gardner-Gray%NULL%1,                Adam%Ackerman%NULL%1,                Jonathan%Lezotte%NULL%1,                Joseph%Ruhala%NULL%1,                Linoj%Samuel%NULL%1,                Robert J%Tibbetts%NULL%1,                Indira%Brar%NULL%0,                John%McKinnon%NULL%1,                Geehan%Suleyman%NULL%1,                Nicholas%Yared%NULL%1,                Erica%Herc%NULL%1,                Jonathan%Williams%NULL%1,                Odaliz Abreu%Lanfranco%NULL%1,                Anne%Chen%NULL%0,                Marcus%Zervos%NULL%1,                Eric%Scher%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%2,                Qing%Mei%NULL%2,                Tianjun%Yang%NULL%2,                Lei%Li%NULL%0,                Yinzhong%Wang%NULL%2,                Fei%Tong%NULL%2,                Shike%Geng%NULL%2,                Aijun%Pan%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%0,                Qing%Mei%NULL%0,                Tianjun%Yang%NULL%0,                Lei%Li%NULL%0,                Yinzhong%Wang%NULL%0,                Fei%Tong%NULL%0,                Shike%Geng%NULL%0,                Aijun%Pan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%2,                Shui-Bao%Xu%NULL%2,                Yi-Xiao%Lin%NULL%2,                Di%Tian%NULL%2,                Zhao-Qin%Zhu%NULL%2,                Fa-Hui%Dai%NULL%2,                Fan%Wu%NULL%2,                Zhi-Gang%Song%NULL%2,                Wei%Huang%NULL%2,                Jun%Chen%NULL%0,                Bi-Jie%Hu%NULL%2,                Sheng%Wang%NULL%2,                En-Qiang%Mao%NULL%2,                Lei%Zhu%NULL%2,                Wen-Hong%Zhang%NULL%2,                Hong-Zhou%Lu%NULL%2,                Peng%Lyu%NULL%4,                Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%0,                Taige%Chen%NULL%1,                Yang%Wang%NULL%1,                Jun%Wang%NULL%2,                Fangrong%Yan%f.r.yan@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%0,                Weiwei%Jiang%NULL%1,                Qi%He%NULL%1,                Cheng%Wang%NULL%3,                Baoju%Wang%NULL%1,                Pan%Zhou%NULL%1,                Nianguo%Dong%dongnianguo63@gmail.com%1,                Qiaoxia%Tong%2013xh0859@hust.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ J.%Wu%null%1,                 J.% Huang%null%1,                 G.% Zhu%null%1,                 Y.% Liu%null%2,                 H.% Xiao%null%1,                 Q.% Zhou%null%1,                 X.% Si%null%1,                 H.% Yi%null%1,                 C.% Wang%null%0,                 D.% Yang%null%1,                 S.% Chen%null%1,                 X.% Liu%null%1,                 Z.% Liu%null%1,                 Q.% Wang%null%1,                 Q.% Lv%null%1,                 Y.% Huang%null%1,                 Y.% Yu%null%1,                 X.% Guan%null%1,                 Y.% Li%null%3,                 K.% Nirantharakumar%null%1,                 K.% Cheng%null%1,                 S.% Peng%null%1,                 H. % Xiao%null%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                Yuan%Yu%NULL%0,                Jiqian%Xu%NULL%0,                Huaqing%Shu%NULL%0,                Jia'an%Xia%NULL%0,                Hong%Liu%NULL%0,                Yongran%Wu%NULL%0,                Lu%Zhang%NULL%0,                Zhui%Yu%NULL%0,                Minghao%Fang%NULL%0,                Ting%Yu%NULL%0,                Yaxin%Wang%NULL%0,                Shangwen%Pan%NULL%0,                Xiaojing%Zou%NULL%0,                Shiying%Yuan%NULL%0,                You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%0,                Shirong%Li%NULL%1,                Lingling%Pan%NULL%1,                Boris%Tefsen%NULL%1,                Yeshan%Li%NULL%1,                Neil%French%NULL%1,                Liyun%Chen%NULL%1,                Gang%Yang%NULL%1,                Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%2,                Yisi%Liu%NULL%2,                Dongdong%Tian%NULL%2,                Cheng%Wang%NULL%0,                Sa%Wang%NULL%2,                Jing%Cheng%NULL%2,                Ming%Hu%huming74@163.com%0,                Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,                Yue%Gao%gaoyue@bmi.ac.cn%3]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%0,                Yisi%Liu%NULL%0,                Dongdong%Tian%NULL%0,                Cheng%Wang%NULL%0,                Sa%Wang%NULL%0,                Jing%Cheng%NULL%0,                Ming%Hu%huming74@163.com%0,                Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,                Yue%Gao%gaoyue@bmi.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Rong-chang%Chen%NULL%1,                Xiao-ping%Tang%NULL%1,                Shou-yong%Tan%NULL%1,                Bi-ling%Liang%NULL%1,                Zhuo-yue%Wan%NULL%1,                Ji-qian%Fang%NULL%1,                Nanshan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Coyle%NULL%1,                Efehi%Igbinomwanhia%NULL%1,                Alejandro%Sanchez-Nadales%alejandro.sanchez2@advocatehealth.com%1,                Sorin%Danciu%NULL%1,                Chae%Chu%NULL%1,                Nishit%Shah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Han%NULL%1,                Mao%Jiang%NULL%1,                Da%Xia%NULL%1,                Lichao%He%NULL%1,                Xin%Lv%NULL%1,                Xiaohua%Liao%NULL%1,                Jie%Meng%mengjie@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                Yuan-Yuan%Fang%NULL%2,                Yan%Deng%NULL%2,                Wei%Liu%NULL%2,                Mei-Fang%Wang%NULL%1,                Jing-Ping%Ma%NULL%1,                Wei%Xiao%NULL%2,                Ying-Nan%Wang%NULL%1,                Min-Hua%Zhong%NULL%1,                Cheng-Hong%Li%NULL%1,                Guang-Cai%Li%NULL%1,                Hui-Guo%Liu%NULL%3,                Xiu-Yuan%Hao%NULL%4,                Xiu-Yuan%Hao%NULL%0,                Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%0,                 Austin R%Morrison%NULL%1,                 Amit%Vahia%NULL%0,                 Zachary R%Smith%NULL%1,                 Zohra%Chaudhry%NULL%0,                 Pallavi%Bhargava%NULL%1,                 Joseph%Miller%NULL%0,                 Rachel M%Kenney%NULL%1,                 George%Alangaden%NULL%0,                 Mayur S%Ramesh%mramesh1@hfhs.org%1,                 Varidhi%Nauriyal%NULL%1,                 Jayanth%Lakshmikanth%NULL%1,                 Asif%Abdul Hamed%NULL%1,                 Owais%Nadeem%NULL%1,                 Kristin%Griebe%NULL%1,                 Joseph M%Johnson%NULL%1,                 Patrick%Bradley%NULL%1,                 Junior%Uduman%NULL%1,                 Sara%Hegab%NULL%1,                 Jennifer%Swiderek%NULL%1,                 Amanda%Godfrey%NULL%1,                 Jeffrey%Jennings%NULL%1,                 Jayna%Gardner-Gray%NULL%1,                 Adam%Ackerman%NULL%1,                 Jonathan%Lezotte%NULL%1,                 Joseph%Ruhala%NULL%1,                 Linoj%Samuel%NULL%1,                 Robert J%Tibbetts%NULL%1,                 Indira%Brar%NULL%0,                 John%McKinnon%NULL%1,                 Geehan%Suleyman%NULL%1,                 Nicholas%Yared%NULL%1,                 Erica%Herc%NULL%1,                 Jonathan%Williams%NULL%1,                 Odaliz Abreu%Lanfranco%NULL%1,                 Anne%Chen%NULL%0,                 Marcus%Zervos%NULL%1,                 Eric%Scher%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%2,                 Qing%Mei%NULL%2,                 Tianjun%Yang%NULL%2,                 Lei%Li%NULL%0,                 Yinzhong%Wang%NULL%2,                 Fei%Tong%NULL%2,                 Shike%Geng%NULL%2,                 Aijun%Pan%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%0,                 Qing%Mei%NULL%0,                 Tianjun%Yang%NULL%0,                 Lei%Li%NULL%0,                 Yinzhong%Wang%NULL%0,                 Fei%Tong%NULL%0,                 Shike%Geng%NULL%0,                 Aijun%Pan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%2,                 Shui-Bao%Xu%NULL%2,                 Yi-Xiao%Lin%NULL%2,                 Di%Tian%NULL%2,                 Zhao-Qin%Zhu%NULL%2,                 Fa-Hui%Dai%NULL%2,                 Fan%Wu%NULL%2,                 Zhi-Gang%Song%NULL%2,                 Wei%Huang%NULL%2,                 Jun%Chen%NULL%0,                 Bi-Jie%Hu%NULL%2,                 Sheng%Wang%NULL%2,                 En-Qiang%Mao%NULL%2,                 Lei%Zhu%NULL%2,                 Wen-Hong%Zhang%NULL%2,                 Hong-Zhou%Lu%NULL%2,                 Peng%Lyu%NULL%4,                 Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%0,                 Taige%Chen%NULL%1,                 Yang%Wang%NULL%1,                 Jun%Wang%NULL%2,                 Fangrong%Yan%f.r.yan@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%0,                 Weiwei%Jiang%NULL%1,                 Qi%He%NULL%1,                 Cheng%Wang%NULL%3,                 Baoju%Wang%NULL%1,                 Pan%Zhou%NULL%1,                 Nianguo%Dong%dongnianguo63@gmail.com%1,                 Qiaoxia%Tong%2013xh0859@hust.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ J.%Wu%null%1,                  J.% Huang%null%1,                  G.% Zhu%null%1,                  Y.% Liu%null%2,                  H.% Xiao%null%1,                  Q.% Zhou%null%1,                  X.% Si%null%1,                  H.% Yi%null%1,                  C.% Wang%null%0,                  D.% Yang%null%1,                  S.% Chen%null%1,                  X.% Liu%null%1,                  Z.% Liu%null%1,                  Q.% Wang%null%1,                  Q.% Lv%null%1,                  Y.% Huang%null%1,                  Y.% Yu%null%1,                  X.% Guan%null%1,                  Y.% Li%null%3,                  K.% Nirantharakumar%null%1,                  K.% Cheng%null%1,                  S.% Peng%null%1,                  H. % Xiao%null%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                 Yuan%Yu%NULL%0,                 Jiqian%Xu%NULL%0,                 Huaqing%Shu%NULL%0,                 Jia'an%Xia%NULL%0,                 Hong%Liu%NULL%0,                 Yongran%Wu%NULL%0,                 Lu%Zhang%NULL%0,                 Zhui%Yu%NULL%0,                 Minghao%Fang%NULL%0,                 Ting%Yu%NULL%0,                 Yaxin%Wang%NULL%0,                 Shangwen%Pan%NULL%0,                 Xiaojing%Zou%NULL%0,                 Shiying%Yuan%NULL%0,                 You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%0,                 Shirong%Li%NULL%1,                 Lingling%Pan%NULL%1,                 Boris%Tefsen%NULL%1,                 Yeshan%Li%NULL%1,                 Neil%French%NULL%1,                 Liyun%Chen%NULL%1,                 Gang%Yang%NULL%1,                 Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%2,                 Yisi%Liu%NULL%2,                 Dongdong%Tian%NULL%2,                 Cheng%Wang%NULL%0,                 Sa%Wang%NULL%2,                 Jing%Cheng%NULL%2,                 Ming%Hu%huming74@163.com%0,                 Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,                 Yue%Gao%gaoyue@bmi.ac.cn%3]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%0,                 Yisi%Liu%NULL%0,                 Dongdong%Tian%NULL%0,                 Cheng%Wang%NULL%0,                 Sa%Wang%NULL%0,                 Jing%Cheng%NULL%0,                 Ming%Hu%huming74@163.com%0,                 Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,                 Yue%Gao%gaoyue@bmi.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Rong-chang%Chen%NULL%1,                 Xiao-ping%Tang%NULL%1,                 Shou-yong%Tan%NULL%1,                 Bi-ling%Liang%NULL%1,                 Zhuo-yue%Wan%NULL%1,                 Ji-qian%Fang%NULL%1,                 Nanshan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Coyle%NULL%1,                 Efehi%Igbinomwanhia%NULL%1,                 Alejandro%Sanchez-Nadales%alejandro.sanchez2@advocatehealth.com%1,                 Sorin%Danciu%NULL%1,                 Chae%Chu%NULL%1,                 Nishit%Shah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Han%NULL%1,                 Mao%Jiang%NULL%1,                 Da%Xia%NULL%1,                 Lichao%He%NULL%1,                 Xin%Lv%NULL%1,                 Xiaohua%Liao%NULL%1,                 Jie%Meng%mengjie@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                 Yuan-Yuan%Fang%NULL%2,                 Yan%Deng%NULL%2,                 Wei%Liu%NULL%2,                 Mei-Fang%Wang%NULL%1,                 Jing-Ping%Ma%NULL%1,                 Wei%Xiao%NULL%2,                 Ying-Nan%Wang%NULL%1,                 Min-Hua%Zhong%NULL%1,                 Cheng-Hong%Li%NULL%1,                 Guang-Cai%Li%NULL%1,                 Hui-Guo%Liu%NULL%3,                 Xiu-Yuan%Hao%NULL%4,                 Xiu-Yuan%Hao%NULL%0,                 Pei-Fang%Wei%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1503,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -1442,7 +1532,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1471,7 +1561,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1500,7 +1590,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1529,7 +1619,7 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1558,7 +1648,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1587,7 +1677,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -1645,7 +1735,7 @@
         <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="F10" t="s">
         <v>64</v>
@@ -1674,7 +1764,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -1703,7 +1793,7 @@
         <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="F12" t="s">
         <v>72</v>
@@ -1732,7 +1822,7 @@
         <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="F13" t="s">
         <v>72</v>
@@ -1761,7 +1851,7 @@
         <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>
@@ -1790,7 +1880,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="F15" t="s">
         <v>83</v>
@@ -1819,7 +1909,7 @@
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="F16" t="s">
         <v>88</v>
@@ -1848,7 +1938,7 @@
         <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="F17" t="s">
         <v>93</v>

--- a/Covid_19_Dataset_and_References/References/59.xlsx
+++ b/Covid_19_Dataset_and_References/References/59.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="355">
   <si>
     <t>Doi</t>
   </si>
@@ -1160,6 +1160,51 @@
   </si>
   <si>
     <t>[Kui%Liu%NULL%0,                 Yuan-Yuan%Fang%NULL%2,                 Yan%Deng%NULL%2,                 Wei%Liu%NULL%2,                 Mei-Fang%Wang%NULL%1,                 Jing-Ping%Ma%NULL%1,                 Wei%Xiao%NULL%2,                 Ying-Nan%Wang%NULL%1,                 Min-Hua%Zhong%NULL%1,                 Cheng-Hong%Li%NULL%1,                 Guang-Cai%Li%NULL%1,                 Hui-Guo%Liu%NULL%3,                 Xiu-Yuan%Hao%NULL%4,                 Xiu-Yuan%Hao%NULL%0,                 Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%0,                  Austin R%Morrison%NULL%1,                  Amit%Vahia%NULL%0,                  Zachary R%Smith%NULL%1,                  Zohra%Chaudhry%NULL%0,                  Pallavi%Bhargava%NULL%1,                  Joseph%Miller%NULL%0,                  Rachel M%Kenney%NULL%1,                  George%Alangaden%NULL%0,                  Mayur S%Ramesh%mramesh1@hfhs.org%1,                  Varidhi%Nauriyal%NULL%1,                  Jayanth%Lakshmikanth%NULL%1,                  Asif%Abdul Hamed%NULL%1,                  Owais%Nadeem%NULL%1,                  Kristin%Griebe%NULL%1,                  Joseph M%Johnson%NULL%1,                  Patrick%Bradley%NULL%1,                  Junior%Uduman%NULL%1,                  Sara%Hegab%NULL%1,                  Jennifer%Swiderek%NULL%1,                  Amanda%Godfrey%NULL%1,                  Jeffrey%Jennings%NULL%1,                  Jayna%Gardner-Gray%NULL%1,                  Adam%Ackerman%NULL%1,                  Jonathan%Lezotte%NULL%1,                  Joseph%Ruhala%NULL%1,                  Linoj%Samuel%NULL%1,                  Robert J%Tibbetts%NULL%1,                  Indira%Brar%NULL%0,                  John%McKinnon%NULL%1,                  Geehan%Suleyman%NULL%1,                  Nicholas%Yared%NULL%1,                  Erica%Herc%NULL%1,                  Jonathan%Williams%NULL%1,                  Odaliz Abreu%Lanfranco%NULL%1,                  Anne%Chen%NULL%0,                  Marcus%Zervos%NULL%1,                  Eric%Scher%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%2,                  Qing%Mei%NULL%2,                  Tianjun%Yang%NULL%2,                  Lei%Li%NULL%0,                  Yinzhong%Wang%NULL%2,                  Fei%Tong%NULL%2,                  Shike%Geng%NULL%2,                  Aijun%Pan%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%0,                  Qing%Mei%NULL%0,                  Tianjun%Yang%NULL%0,                  Lei%Li%NULL%0,                  Yinzhong%Wang%NULL%0,                  Fei%Tong%NULL%0,                  Shike%Geng%NULL%0,                  Aijun%Pan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%4,                  Shui-Bao%Xu%NULL%2,                  Yi-Xiao%Lin%NULL%2,                  Di%Tian%NULL%2,                  Zhao-Qin%Zhu%NULL%2,                  Fa-Hui%Dai%NULL%2,                  Fan%Wu%NULL%2,                  Zhi-Gang%Song%NULL%2,                  Wei%Huang%NULL%2,                  Jun%Chen%NULL%0,                  Bi-Jie%Hu%NULL%2,                  Sheng%Wang%NULL%2,                  En-Qiang%Mao%NULL%2,                  Lei%Zhu%NULL%2,                  Wen-Hong%Zhang%NULL%2,                  Hong-Zhou%Lu%NULL%2,                  Peng%Lyu%NULL%4,                  Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%0,                  Taige%Chen%NULL%1,                  Yang%Wang%NULL%1,                  Jun%Wang%NULL%2,                  Fangrong%Yan%f.r.yan@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%0,                  Weiwei%Jiang%NULL%1,                  Qi%He%NULL%1,                  Cheng%Wang%NULL%3,                  Baoju%Wang%NULL%1,                  Pan%Zhou%NULL%1,                  Nianguo%Dong%dongnianguo63@gmail.com%1,                  Qiaoxia%Tong%2013xh0859@hust.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ J.%Wu%null%1,                   J.% Huang%null%1,                   G.% Zhu%null%1,                   Y.% Liu%null%2,                   H.% Xiao%null%1,                   Q.% Zhou%null%1,                   X.% Si%null%1,                   H.% Yi%null%1,                   C.% Wang%null%0,                   D.% Yang%null%1,                   S.% Chen%null%1,                   X.% Liu%null%1,                   Z.% Liu%null%1,                   Q.% Wang%null%1,                   Q.% Lv%null%1,                   Y.% Huang%null%1,                   Y.% Yu%null%1,                   X.% Guan%null%1,                   Y.% Li%null%3,                   K.% Nirantharakumar%null%1,                   K.% Cheng%null%1,                   S.% Peng%null%1,                   H. % Xiao%null%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                  Yuan%Yu%NULL%0,                  Jiqian%Xu%NULL%0,                  Huaqing%Shu%NULL%0,                  Jia'an%Xia%NULL%0,                  Hong%Liu%NULL%0,                  Yongran%Wu%NULL%0,                  Lu%Zhang%NULL%0,                  Zhui%Yu%NULL%0,                  Minghao%Fang%NULL%0,                  Ting%Yu%NULL%0,                  Yaxin%Wang%NULL%0,                  Shangwen%Pan%NULL%0,                  Xiaojing%Zou%NULL%0,                  Shiying%Yuan%NULL%0,                  You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%0,                  Shirong%Li%NULL%1,                  Lingling%Pan%NULL%1,                  Boris%Tefsen%NULL%1,                  Yeshan%Li%NULL%1,                  Neil%French%NULL%1,                  Liyun%Chen%NULL%1,                  Gang%Yang%NULL%1,                  Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%3,                  Yisi%Liu%NULL%2,                  Dongdong%Tian%NULL%2,                  Cheng%Wang%NULL%0,                  Sa%Wang%NULL%2,                  Jing%Cheng%NULL%2,                  Ming%Hu%huming74@163.com%0,                  Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,                  Yue%Gao%gaoyue@bmi.ac.cn%3]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%0,                  Yisi%Liu%NULL%0,                  Dongdong%Tian%NULL%0,                  Cheng%Wang%NULL%0,                  Sa%Wang%NULL%0,                  Jing%Cheng%NULL%0,                  Ming%Hu%huming74@163.com%0,                  Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,                  Yue%Gao%gaoyue@bmi.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Rong-chang%Chen%NULL%1,                  Xiao-ping%Tang%NULL%1,                  Shou-yong%Tan%NULL%1,                  Bi-ling%Liang%NULL%1,                  Zhuo-yue%Wan%NULL%1,                  Ji-qian%Fang%NULL%1,                  Nanshan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Coyle%NULL%1,                  Efehi%Igbinomwanhia%NULL%1,                  Alejandro%Sanchez-Nadales%alejandro.sanchez2@advocatehealth.com%1,                  Sorin%Danciu%NULL%1,                  Chae%Chu%NULL%1,                  Nishit%Shah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Han%NULL%1,                  Mao%Jiang%NULL%1,                  Da%Xia%NULL%1,                  Lichao%He%NULL%1,                  Xin%Lv%NULL%1,                  Xiaohua%Liao%NULL%1,                  Jie%Meng%mengjie@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                  Yuan-Yuan%Fang%NULL%2,                  Yan%Deng%NULL%2,                  Wei%Liu%NULL%2,                  Mei-Fang%Wang%NULL%1,                  Jing-Ping%Ma%NULL%1,                  Wei%Xiao%NULL%2,                  Ying-Nan%Wang%NULL%1,                  Min-Hua%Zhong%NULL%1,                  Cheng-Hong%Li%NULL%1,                  Guang-Cai%Li%NULL%1,                  Hui-Guo%Liu%NULL%3,                  Xiu-Yuan%Hao%NULL%4,                  Xiu-Yuan%Hao%NULL%0,                  Pei-Fang%Wei%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1503,7 +1548,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -1532,7 +1577,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1561,7 +1606,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1590,7 +1635,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1619,7 +1664,7 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1648,7 +1693,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1677,7 +1722,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -1735,7 +1780,7 @@
         <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="F10" t="s">
         <v>64</v>
@@ -1764,7 +1809,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -1793,7 +1838,7 @@
         <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="F12" t="s">
         <v>72</v>
@@ -1822,7 +1867,7 @@
         <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="F13" t="s">
         <v>72</v>
@@ -1851,7 +1896,7 @@
         <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>
@@ -1880,7 +1925,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="F15" t="s">
         <v>83</v>
@@ -1909,7 +1954,7 @@
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="F16" t="s">
         <v>88</v>
@@ -1938,7 +1983,7 @@
         <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="F17" t="s">
         <v>93</v>

--- a/Covid_19_Dataset_and_References/References/59.xlsx
+++ b/Covid_19_Dataset_and_References/References/59.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="374">
   <si>
     <t>Doi</t>
   </si>
@@ -1205,6 +1205,63 @@
   </si>
   <si>
     <t>[Kui%Liu%NULL%0,                  Yuan-Yuan%Fang%NULL%2,                  Yan%Deng%NULL%2,                  Wei%Liu%NULL%2,                  Mei-Fang%Wang%NULL%1,                  Jing-Ping%Ma%NULL%1,                  Wei%Xiao%NULL%2,                  Ying-Nan%Wang%NULL%1,                  Min-Hua%Zhong%NULL%1,                  Cheng-Hong%Li%NULL%1,                  Guang-Cai%Li%NULL%1,                  Hui-Guo%Liu%NULL%3,                  Xiu-Yuan%Hao%NULL%4,                  Xiu-Yuan%Hao%NULL%0,                  Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%0,                   Austin R%Morrison%NULL%1,                   Amit%Vahia%NULL%0,                   Zachary R%Smith%NULL%1,                   Zohra%Chaudhry%NULL%0,                   Pallavi%Bhargava%NULL%1,                   Joseph%Miller%NULL%0,                   Rachel M%Kenney%NULL%1,                   George%Alangaden%NULL%0,                   Mayur S%Ramesh%mramesh1@hfhs.org%1,                   Varidhi%Nauriyal%NULL%1,                   Jayanth%Lakshmikanth%NULL%1,                   Asif%Abdul Hamed%NULL%1,                   Owais%Nadeem%NULL%1,                   Kristin%Griebe%NULL%1,                   Joseph M%Johnson%NULL%1,                   Patrick%Bradley%NULL%1,                   Junior%Uduman%NULL%1,                   Sara%Hegab%NULL%1,                   Jennifer%Swiderek%NULL%1,                   Amanda%Godfrey%NULL%1,                   Jeffrey%Jennings%NULL%1,                   Jayna%Gardner-Gray%NULL%1,                   Adam%Ackerman%NULL%1,                   Jonathan%Lezotte%NULL%1,                   Joseph%Ruhala%NULL%1,                   Linoj%Samuel%NULL%1,                   Robert J%Tibbetts%NULL%1,                   Indira%Brar%NULL%0,                   John%McKinnon%NULL%1,                   Geehan%Suleyman%NULL%1,                   Nicholas%Yared%NULL%1,                   Erica%Herc%NULL%1,                   Jonathan%Williams%NULL%1,                   Odaliz Abreu%Lanfranco%NULL%1,                   Anne%Chen%NULL%0,                   Marcus%Zervos%NULL%1,                   Eric%Scher%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%2,                   Qing%Mei%NULL%2,                   Tianjun%Yang%NULL%2,                   Lei%Li%NULL%0,                   Yinzhong%Wang%NULL%2,                   Fei%Tong%NULL%2,                   Shike%Geng%NULL%2,                   Aijun%Pan%NULL%3]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%0,                   Qing%Mei%NULL%0,                   Tianjun%Yang%NULL%0,                   Lei%Li%NULL%0,                   Yinzhong%Wang%NULL%0,                   Fei%Tong%NULL%0,                   Shike%Geng%NULL%0,                   Aijun%Pan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%2,                   Shui-Bao%Xu%NULL%2,                   Yi-Xiao%Lin%NULL%2,                   Di%Tian%NULL%2,                   Zhao-Qin%Zhu%NULL%2,                   Fa-Hui%Dai%NULL%2,                   Fan%Wu%NULL%2,                   Zhi-Gang%Song%NULL%2,                   Wei%Huang%NULL%2,                   Jun%Chen%NULL%0,                   Bi-Jie%Hu%NULL%2,                   Sheng%Wang%NULL%2,                   En-Qiang%Mao%NULL%2,                   Lei%Zhu%NULL%2,                   Wen-Hong%Zhang%NULL%2,                   Hong-Zhou%Lu%NULL%2,                   Peng%Lyu%NULL%4,                   Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%0,                   Taige%Chen%NULL%1,                   Yang%Wang%NULL%1,                   Jun%Wang%NULL%2,                   Fangrong%Yan%f.r.yan@163.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%0,                   Weiwei%Jiang%NULL%1,                   Qi%He%NULL%1,                   Cheng%Wang%NULL%3,                   Baoju%Wang%NULL%1,                   Pan%Zhou%NULL%1,                   Nianguo%Dong%dongnianguo63@gmail.com%1,                   Qiaoxia%Tong%2013xh0859@hust.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ J.%Wu%null%1,                    J.% Huang%null%1,                    G.% Zhu%null%1,                    Y.% Liu%null%2,                    H.% Xiao%null%1,                    Q.% Zhou%null%1,                    X.% Si%null%1,                    H.% Yi%null%1,                    C.% Wang%null%0,                    D.% Yang%null%1,                    S.% Chen%null%1,                    X.% Liu%null%1,                    Z.% Liu%null%1,                    Q.% Wang%null%1,                    Q.% Lv%null%1,                    Y.% Huang%null%1,                    Y.% Yu%null%1,                    X.% Guan%null%1,                    Y.% Li%null%3,                    K.% Nirantharakumar%null%1,                    K.% Cheng%null%1,                    S.% Peng%null%1,                    H. % Xiao%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                   Yuan%Yu%NULL%0,                   Jiqian%Xu%NULL%0,                   Huaqing%Shu%NULL%0,                   Jia'an%Xia%NULL%0,                   Hong%Liu%NULL%0,                   Yongran%Wu%NULL%0,                   Lu%Zhang%NULL%0,                   Zhui%Yu%NULL%0,                   Minghao%Fang%NULL%0,                   Ting%Yu%NULL%0,                   Yaxin%Wang%NULL%0,                   Shangwen%Pan%NULL%0,                   Xiaojing%Zou%NULL%0,                   Shiying%Yuan%NULL%0,                   You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%0,                   Shirong%Li%NULL%1,                   Lingling%Pan%NULL%1,                   Boris%Tefsen%NULL%1,                   Yeshan%Li%NULL%1,                   Neil%French%NULL%1,                   Liyun%Chen%NULL%1,                   Gang%Yang%NULL%1,                   Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%2,                   Yisi%Liu%NULL%2,                   Dongdong%Tian%NULL%2,                   Cheng%Wang%NULL%0,                   Sa%Wang%NULL%2,                   Jing%Cheng%NULL%2,                   Ming%Hu%huming74@163.com%0,                   Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,                   Yue%Gao%gaoyue@bmi.ac.cn%3]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%0,                   Yisi%Liu%NULL%0,                   Dongdong%Tian%NULL%0,                   Cheng%Wang%NULL%0,                   Sa%Wang%NULL%0,                   Jing%Cheng%NULL%0,                   Ming%Hu%huming74@163.com%0,                   Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,                   Yue%Gao%gaoyue@bmi.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Rong-chang%Chen%NULL%1,                   Xiao-ping%Tang%NULL%1,                   Shou-yong%Tan%NULL%1,                   Bi-ling%Liang%NULL%1,                   Zhuo-yue%Wan%NULL%1,                   Ji-qian%Fang%NULL%1,                   Nanshan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Coyle%NULL%1,                   Efehi%Igbinomwanhia%NULL%1,                   Alejandro%Sanchez-Nadales%alejandro.sanchez2@advocatehealth.com%1,                   Sorin%Danciu%NULL%1,                   Chae%Chu%NULL%1,                   Nishit%Shah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Han%NULL%1,                   Mao%Jiang%NULL%1,                   Da%Xia%NULL%1,                   Lichao%He%NULL%1,                   Xin%Lv%NULL%1,                   Xiaohua%Liao%NULL%1,                   Jie%Meng%mengjie@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                   Yuan-Yuan%Fang%NULL%2,                   Yan%Deng%NULL%2,                   Wei%Liu%NULL%2,                   Mei-Fang%Wang%NULL%1,                   Jing-Ping%Ma%NULL%1,                   Wei%Xiao%NULL%2,                   Ying-Nan%Wang%NULL%1,                   Min-Hua%Zhong%NULL%1,                   Cheng-Hong%Li%NULL%1,                   Guang-Cai%Li%NULL%1,                   Hui-Guo%Liu%NULL%3,                   Xiu-Yuan%Hao%NULL%4,                   Xiu-Yuan%Hao%NULL%0,                   Pei-Fang%Wei%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1605,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -1560,7 +1617,7 @@
         <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>111</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3">
@@ -1577,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1589,7 +1646,7 @@
         <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>113</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4">
@@ -1606,7 +1663,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1618,7 +1675,7 @@
         <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>113</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5">
@@ -1635,7 +1692,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1647,7 +1704,7 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>111</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6">
@@ -1664,7 +1721,7 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1676,7 +1733,7 @@
         <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>117</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7">
@@ -1693,7 +1750,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1705,7 +1762,7 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>117</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8">
@@ -1722,7 +1779,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -1734,7 +1791,7 @@
         <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>120</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9">
@@ -1780,7 +1837,7 @@
         <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="F10" t="s">
         <v>64</v>
@@ -1792,7 +1849,7 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11">
@@ -1809,7 +1866,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -1821,7 +1878,7 @@
         <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12">
@@ -1838,7 +1895,7 @@
         <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="F12" t="s">
         <v>72</v>
@@ -1850,7 +1907,7 @@
         <v>73</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13">
@@ -1867,7 +1924,7 @@
         <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="F13" t="s">
         <v>72</v>
@@ -1879,7 +1936,7 @@
         <v>73</v>
       </c>
       <c r="I13" t="s">
-        <v>117</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14">
@@ -1896,7 +1953,7 @@
         <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>
@@ -1908,7 +1965,7 @@
         <v>79</v>
       </c>
       <c r="I14" t="s">
-        <v>113</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15">
@@ -1925,7 +1982,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="F15" t="s">
         <v>83</v>
@@ -1937,7 +1994,7 @@
         <v>84</v>
       </c>
       <c r="I15" t="s">
-        <v>113</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16">
@@ -1954,7 +2011,7 @@
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="F16" t="s">
         <v>88</v>
@@ -1966,7 +2023,7 @@
         <v>89</v>
       </c>
       <c r="I16" t="s">
-        <v>113</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17">
@@ -1983,7 +2040,7 @@
         <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="F17" t="s">
         <v>93</v>
@@ -1995,7 +2052,7 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>111</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18">

--- a/Covid_19_Dataset_and_References/References/59.xlsx
+++ b/Covid_19_Dataset_and_References/References/59.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="389">
   <si>
     <t>Doi</t>
   </si>
@@ -1262,6 +1262,51 @@
   </si>
   <si>
     <t>[Kui%Liu%NULL%0,                   Yuan-Yuan%Fang%NULL%2,                   Yan%Deng%NULL%2,                   Wei%Liu%NULL%2,                   Mei-Fang%Wang%NULL%1,                   Jing-Ping%Ma%NULL%1,                   Wei%Xiao%NULL%2,                   Ying-Nan%Wang%NULL%1,                   Min-Hua%Zhong%NULL%1,                   Cheng-Hong%Li%NULL%1,                   Guang-Cai%Li%NULL%1,                   Hui-Guo%Liu%NULL%3,                   Xiu-Yuan%Hao%NULL%4,                   Xiu-Yuan%Hao%NULL%0,                   Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%0,                    Austin R%Morrison%NULL%1,                    Amit%Vahia%NULL%0,                    Zachary R%Smith%NULL%1,                    Zohra%Chaudhry%NULL%0,                    Pallavi%Bhargava%NULL%1,                    Joseph%Miller%NULL%0,                    Rachel M%Kenney%NULL%1,                    George%Alangaden%NULL%0,                    Mayur S%Ramesh%mramesh1@hfhs.org%1,                    Varidhi%Nauriyal%NULL%1,                    Jayanth%Lakshmikanth%NULL%1,                    Asif%Abdul Hamed%NULL%1,                    Owais%Nadeem%NULL%1,                    Kristin%Griebe%NULL%1,                    Joseph M%Johnson%NULL%1,                    Patrick%Bradley%NULL%1,                    Junior%Uduman%NULL%1,                    Sara%Hegab%NULL%1,                    Jennifer%Swiderek%NULL%1,                    Amanda%Godfrey%NULL%1,                    Jeffrey%Jennings%NULL%1,                    Jayna%Gardner-Gray%NULL%1,                    Adam%Ackerman%NULL%1,                    Jonathan%Lezotte%NULL%1,                    Joseph%Ruhala%NULL%1,                    Linoj%Samuel%NULL%1,                    Robert J%Tibbetts%NULL%1,                    Indira%Brar%NULL%0,                    John%McKinnon%NULL%1,                    Geehan%Suleyman%NULL%1,                    Nicholas%Yared%NULL%1,                    Erica%Herc%NULL%1,                    Jonathan%Williams%NULL%1,                    Odaliz Abreu%Lanfranco%NULL%1,                    Anne%Chen%NULL%0,                    Marcus%Zervos%NULL%1,                    Eric%Scher%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%2,                    Qing%Mei%NULL%2,                    Tianjun%Yang%NULL%2,                    Lei%Li%NULL%0,                    Yinzhong%Wang%NULL%2,                    Fei%Tong%NULL%2,                    Shike%Geng%NULL%2,                    Aijun%Pan%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%0,                    Qing%Mei%NULL%0,                    Tianjun%Yang%NULL%0,                    Lei%Li%NULL%0,                    Yinzhong%Wang%NULL%0,                    Fei%Tong%NULL%0,                    Shike%Geng%NULL%0,                    Aijun%Pan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%2,                    Shui-Bao%Xu%NULL%2,                    Yi-Xiao%Lin%NULL%2,                    Di%Tian%NULL%2,                    Zhao-Qin%Zhu%NULL%2,                    Fa-Hui%Dai%NULL%2,                    Fan%Wu%NULL%2,                    Zhi-Gang%Song%NULL%2,                    Wei%Huang%NULL%2,                    Jun%Chen%NULL%0,                    Bi-Jie%Hu%NULL%2,                    Sheng%Wang%NULL%2,                    En-Qiang%Mao%NULL%2,                    Lei%Zhu%NULL%2,                    Wen-Hong%Zhang%NULL%2,                    Hong-Zhou%Lu%NULL%2,                    Peng%Lyu%NULL%4,                    Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%0,                    Taige%Chen%NULL%1,                    Yang%Wang%NULL%1,                    Jun%Wang%NULL%2,                    Fangrong%Yan%f.r.yan@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%0,                    Weiwei%Jiang%NULL%1,                    Qi%He%NULL%1,                    Cheng%Wang%NULL%3,                    Baoju%Wang%NULL%1,                    Pan%Zhou%NULL%1,                    Nianguo%Dong%dongnianguo63@gmail.com%1,                    Qiaoxia%Tong%2013xh0859@hust.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ J.%Wu%null%2,                     J.% Huang%null%1,                     G.% Zhu%null%1,                     Y.% Liu%null%2,                     H.% Xiao%null%1,                     Q.% Zhou%null%1,                     X.% Si%null%1,                     H.% Yi%null%1,                     C.% Wang%null%0,                     D.% Yang%null%1,                     S.% Chen%null%1,                     X.% Liu%null%1,                     Z.% Liu%null%1,                     Q.% Wang%null%1,                     Q.% Lv%null%1,                     Y.% Huang%null%1,                     Y.% Yu%null%1,                     X.% Guan%null%1,                     Y.% Li%null%3,                     K.% Nirantharakumar%null%1,                     K.% Cheng%null%1,                     S.% Peng%null%1,                     H. % Xiao%null%1,  J.%Wu%null%0,  J.% Huang%null%1,  G.% Zhu%null%1,  Y.% Liu%null%2,  H.% Xiao%null%1,  Q.% Zhou%null%0,  X.% Si%null%1,  H.% Yi%null%1,  C.% Wang%null%0,  D.% Yang%null%0,  S.% Chen%null%1,  X.% Liu%null%1,  Z.% Liu%null%1,  Q.% Wang%null%1,  Q.% Lv%null%1,  Y.% Huang%null%1,  Y.% Yu%null%1,  X.% Guan%null%1,  Y.% Li%null%0,  K.% Nirantharakumar%null%1,  K.% Cheng%null%1,  S.% Peng%null%1,  H. % Xiao%null%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                    Yuan%Yu%NULL%0,                    Jiqian%Xu%NULL%0,                    Huaqing%Shu%NULL%0,                    Jia'an%Xia%NULL%0,                    Hong%Liu%NULL%0,                    Yongran%Wu%NULL%0,                    Lu%Zhang%NULL%0,                    Zhui%Yu%NULL%0,                    Minghao%Fang%NULL%0,                    Ting%Yu%NULL%0,                    Yaxin%Wang%NULL%0,                    Shangwen%Pan%NULL%0,                    Xiaojing%Zou%NULL%0,                    Shiying%Yuan%NULL%0,                    You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%0,                    Shirong%Li%NULL%1,                    Lingling%Pan%NULL%1,                    Boris%Tefsen%NULL%1,                    Yeshan%Li%NULL%1,                    Neil%French%NULL%1,                    Liyun%Chen%NULL%1,                    Gang%Yang%NULL%1,                    Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%2,                    Yisi%Liu%NULL%2,                    Dongdong%Tian%NULL%2,                    Cheng%Wang%NULL%0,                    Sa%Wang%NULL%2,                    Jing%Cheng%NULL%2,                    Ming%Hu%huming74@163.com%0,                    Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,                    Yue%Gao%gaoyue@bmi.ac.cn%3]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%0,                    Yisi%Liu%NULL%0,                    Dongdong%Tian%NULL%0,                    Cheng%Wang%NULL%0,                    Sa%Wang%NULL%0,                    Jing%Cheng%NULL%0,                    Ming%Hu%huming74@163.com%0,                    Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,                    Yue%Gao%gaoyue@bmi.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Rong-chang%Chen%NULL%1,                    Xiao-ping%Tang%NULL%1,                    Shou-yong%Tan%NULL%1,                    Bi-ling%Liang%NULL%1,                    Zhuo-yue%Wan%NULL%1,                    Ji-qian%Fang%NULL%1,                    Nanshan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Coyle%NULL%1,                    Efehi%Igbinomwanhia%NULL%1,                    Alejandro%Sanchez-Nadales%alejandro.sanchez2@advocatehealth.com%1,                    Sorin%Danciu%NULL%1,                    Chae%Chu%NULL%1,                    Nishit%Shah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Han%NULL%1,                    Mao%Jiang%NULL%1,                    Da%Xia%NULL%1,                    Lichao%He%NULL%1,                    Xin%Lv%NULL%1,                    Xiaohua%Liao%NULL%1,                    Jie%Meng%mengjie@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                    Yuan-Yuan%Fang%NULL%2,                    Yan%Deng%NULL%2,                    Wei%Liu%NULL%2,                    Mei-Fang%Wang%NULL%1,                    Jing-Ping%Ma%NULL%1,                    Wei%Xiao%NULL%2,                    Ying-Nan%Wang%NULL%1,                    Min-Hua%Zhong%NULL%1,                    Cheng-Hong%Li%NULL%1,                    Guang-Cai%Li%NULL%1,                    Hui-Guo%Liu%NULL%3,                    Xiu-Yuan%Hao%NULL%4,                    Xiu-Yuan%Hao%NULL%0,                    Pei-Fang%Wei%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1605,7 +1650,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -1634,7 +1679,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1663,7 +1708,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1692,7 +1737,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1721,7 +1766,7 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1750,7 +1795,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1779,7 +1824,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -1837,7 +1882,7 @@
         <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="F10" t="s">
         <v>64</v>
@@ -1866,7 +1911,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -1895,7 +1940,7 @@
         <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="F12" t="s">
         <v>72</v>
@@ -1924,7 +1969,7 @@
         <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="F13" t="s">
         <v>72</v>
@@ -1953,7 +1998,7 @@
         <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>
@@ -1982,7 +2027,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="F15" t="s">
         <v>83</v>
@@ -2011,7 +2056,7 @@
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="F16" t="s">
         <v>88</v>
@@ -2040,7 +2085,7 @@
         <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="F17" t="s">
         <v>93</v>

--- a/Covid_19_Dataset_and_References/References/59.xlsx
+++ b/Covid_19_Dataset_and_References/References/59.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3370" uniqueCount="465">
   <si>
     <t>Doi</t>
   </si>
@@ -1307,6 +1307,234 @@
   </si>
   <si>
     <t>[Kui%Liu%NULL%0,                    Yuan-Yuan%Fang%NULL%2,                    Yan%Deng%NULL%2,                    Wei%Liu%NULL%2,                    Mei-Fang%Wang%NULL%1,                    Jing-Ping%Ma%NULL%1,                    Wei%Xiao%NULL%2,                    Ying-Nan%Wang%NULL%1,                    Min-Hua%Zhong%NULL%1,                    Cheng-Hong%Li%NULL%1,                    Guang-Cai%Li%NULL%1,                    Hui-Guo%Liu%NULL%3,                    Xiu-Yuan%Hao%NULL%4,                    Xiu-Yuan%Hao%NULL%0,                    Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%0,                     Austin R%Morrison%NULL%1,                     Amit%Vahia%NULL%0,                     Zachary R%Smith%NULL%1,                     Zohra%Chaudhry%NULL%0,                     Pallavi%Bhargava%NULL%1,                     Joseph%Miller%NULL%0,                     Rachel M%Kenney%NULL%1,                     George%Alangaden%NULL%0,                     Mayur S%Ramesh%mramesh1@hfhs.org%1,                     Varidhi%Nauriyal%NULL%1,                     Jayanth%Lakshmikanth%NULL%1,                     Asif%Abdul Hamed%NULL%1,                     Owais%Nadeem%NULL%1,                     Kristin%Griebe%NULL%1,                     Joseph M%Johnson%NULL%1,                     Patrick%Bradley%NULL%1,                     Junior%Uduman%NULL%1,                     Sara%Hegab%NULL%1,                     Jennifer%Swiderek%NULL%1,                     Amanda%Godfrey%NULL%1,                     Jeffrey%Jennings%NULL%1,                     Jayna%Gardner-Gray%NULL%1,                     Adam%Ackerman%NULL%1,                     Jonathan%Lezotte%NULL%1,                     Joseph%Ruhala%NULL%1,                     Linoj%Samuel%NULL%1,                     Robert J%Tibbetts%NULL%1,                     Indira%Brar%NULL%0,                     John%McKinnon%NULL%1,                     Geehan%Suleyman%NULL%1,                     Nicholas%Yared%NULL%1,                     Erica%Herc%NULL%1,                     Jonathan%Williams%NULL%1,                     Odaliz Abreu%Lanfranco%NULL%1,                     Anne%Chen%NULL%0,                     Marcus%Zervos%NULL%1,                     Eric%Scher%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%2,                     Qing%Mei%NULL%2,                     Tianjun%Yang%NULL%2,                     Lei%Li%NULL%0,                     Yinzhong%Wang%NULL%2,                     Fei%Tong%NULL%2,                     Shike%Geng%NULL%2,                     Aijun%Pan%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%0,                     Qing%Mei%NULL%0,                     Tianjun%Yang%NULL%0,                     Lei%Li%NULL%0,                     Yinzhong%Wang%NULL%0,                     Fei%Tong%NULL%0,                     Shike%Geng%NULL%0,                     Aijun%Pan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%2,                     Shui-Bao%Xu%NULL%2,                     Yi-Xiao%Lin%NULL%2,                     Di%Tian%NULL%2,                     Zhao-Qin%Zhu%NULL%2,                     Fa-Hui%Dai%NULL%2,                     Fan%Wu%NULL%2,                     Zhi-Gang%Song%NULL%2,                     Wei%Huang%NULL%2,                     Jun%Chen%NULL%0,                     Bi-Jie%Hu%NULL%2,                     Sheng%Wang%NULL%2,                     En-Qiang%Mao%NULL%2,                     Lei%Zhu%NULL%2,                     Wen-Hong%Zhang%NULL%2,                     Hong-Zhou%Lu%NULL%2,                     Peng%Lyu%NULL%4,                     Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%0,                     Taige%Chen%NULL%1,                     Yang%Wang%NULL%1,                     Jun%Wang%NULL%2,                     Fangrong%Yan%f.r.yan@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%0,                     Weiwei%Jiang%NULL%1,                     Qi%He%NULL%1,                     Cheng%Wang%NULL%3,                     Baoju%Wang%NULL%1,                     Pan%Zhou%NULL%1,                     Nianguo%Dong%dongnianguo63@gmail.com%1,                     Qiaoxia%Tong%2013xh0859@hust.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ J.%Wu%null%1,                      J.% Huang%null%1,                      G.% Zhu%null%1,                      Y.% Liu%null%2,                      H.% Xiao%null%1,                      Q.% Zhou%null%1,                      X.% Si%null%1,                      H.% Yi%null%1,                      C.% Wang%null%0,                      D.% Yang%null%1,                      S.% Chen%null%1,                      X.% Liu%null%1,                      Z.% Liu%null%1,                      Q.% Wang%null%1,                      Q.% Lv%null%1,                      Y.% Huang%null%1,                      Y.% Yu%null%1,                      X.% Guan%null%1,                      Y.% Li%null%3,                      K.% Nirantharakumar%null%1,                      K.% Cheng%null%1,                      S.% Peng%null%1,                      H. % Xiao%null%1,   J.%Wu%null%1,   J.% Huang%null%1,   G.% Zhu%null%1,   Y.% Liu%null%2,   H.% Xiao%null%1,   Q.% Zhou%null%0,   X.% Si%null%1,   H.% Yi%null%1,   C.% Wang%null%0,   D.% Yang%null%0,   S.% Chen%null%1,   X.% Liu%null%1,   Z.% Liu%null%1,   Q.% Wang%null%1,   Q.% Lv%null%1,   Y.% Huang%null%1,   Y.% Yu%null%1,   X.% Guan%null%1,   Y.% Li%null%0,   K.% Nirantharakumar%null%1,   K.% Cheng%null%1,   S.% Peng%null%1,   H. % Xiao%null%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                     Yuan%Yu%NULL%0,                     Jiqian%Xu%NULL%0,                     Huaqing%Shu%NULL%0,                     Jia'an%Xia%NULL%0,                     Hong%Liu%NULL%0,                     Yongran%Wu%NULL%0,                     Lu%Zhang%NULL%0,                     Zhui%Yu%NULL%0,                     Minghao%Fang%NULL%0,                     Ting%Yu%NULL%0,                     Yaxin%Wang%NULL%0,                     Shangwen%Pan%NULL%0,                     Xiaojing%Zou%NULL%0,                     Shiying%Yuan%NULL%0,                     You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%0,                     Shirong%Li%NULL%1,                     Lingling%Pan%NULL%1,                     Boris%Tefsen%NULL%1,                     Yeshan%Li%NULL%1,                     Neil%French%NULL%1,                     Liyun%Chen%NULL%1,                     Gang%Yang%NULL%1,                     Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%2,                     Yisi%Liu%NULL%2,                     Dongdong%Tian%NULL%2,                     Cheng%Wang%NULL%0,                     Sa%Wang%NULL%2,                     Jing%Cheng%NULL%2,                     Ming%Hu%huming74@163.com%0,                     Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,                     Yue%Gao%gaoyue@bmi.ac.cn%3]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%0,                     Yisi%Liu%NULL%0,                     Dongdong%Tian%NULL%0,                     Cheng%Wang%NULL%0,                     Sa%Wang%NULL%0,                     Jing%Cheng%NULL%0,                     Ming%Hu%huming74@163.com%0,                     Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,                     Yue%Gao%gaoyue@bmi.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Rong-chang%Chen%NULL%1,                     Xiao-ping%Tang%NULL%1,                     Shou-yong%Tan%NULL%1,                     Bi-ling%Liang%NULL%1,                     Zhuo-yue%Wan%NULL%1,                     Ji-qian%Fang%NULL%1,                     Nanshan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Coyle%NULL%1,                     Efehi%Igbinomwanhia%NULL%1,                     Alejandro%Sanchez-Nadales%alejandro.sanchez2@advocatehealth.com%1,                     Sorin%Danciu%NULL%1,                     Chae%Chu%NULL%1,                     Nishit%Shah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Han%NULL%1,                     Mao%Jiang%NULL%1,                     Da%Xia%NULL%1,                     Lichao%He%NULL%1,                     Xin%Lv%NULL%1,                     Xiaohua%Liao%NULL%1,                     Jie%Meng%mengjie@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                     Yuan-Yuan%Fang%NULL%2,                     Yan%Deng%NULL%2,                     Wei%Liu%NULL%2,                     Mei-Fang%Wang%NULL%1,                     Jing-Ping%Ma%NULL%1,                     Wei%Xiao%NULL%2,                     Ying-Nan%Wang%NULL%1,                     Min-Hua%Zhong%NULL%1,                     Cheng-Hong%Li%NULL%1,                     Guang-Cai%Li%NULL%1,                     Hui-Guo%Liu%NULL%3,                     Xiu-Yuan%Hao%NULL%4,                     Xiu-Yuan%Hao%NULL%0,                     Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%0,                      Austin R%Morrison%NULL%1,                      Amit%Vahia%NULL%0,                      Zachary R%Smith%NULL%1,                      Zohra%Chaudhry%NULL%0,                      Pallavi%Bhargava%NULL%1,                      Joseph%Miller%NULL%0,                      Rachel M%Kenney%NULL%1,                      George%Alangaden%NULL%0,                      Mayur S%Ramesh%mramesh1@hfhs.org%1,                      Varidhi%Nauriyal%NULL%1,                      Jayanth%Lakshmikanth%NULL%1,                      Asif%Abdul Hamed%NULL%1,                      Owais%Nadeem%NULL%1,                      Kristin%Griebe%NULL%1,                      Joseph M%Johnson%NULL%1,                      Patrick%Bradley%NULL%1,                      Junior%Uduman%NULL%1,                      Sara%Hegab%NULL%1,                      Jennifer%Swiderek%NULL%1,                      Amanda%Godfrey%NULL%1,                      Jeffrey%Jennings%NULL%1,                      Jayna%Gardner-Gray%NULL%1,                      Adam%Ackerman%NULL%1,                      Jonathan%Lezotte%NULL%1,                      Joseph%Ruhala%NULL%1,                      Linoj%Samuel%NULL%1,                      Robert J%Tibbetts%NULL%1,                      Indira%Brar%NULL%0,                      John%McKinnon%NULL%1,                      Geehan%Suleyman%NULL%1,                      Nicholas%Yared%NULL%1,                      Erica%Herc%NULL%1,                      Jonathan%Williams%NULL%1,                      Odaliz Abreu%Lanfranco%NULL%1,                      Anne%Chen%NULL%0,                      Marcus%Zervos%NULL%1,                      Eric%Scher%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%2,                      Qing%Mei%NULL%2,                      Tianjun%Yang%NULL%2,                      Lei%Li%NULL%0,                      Yinzhong%Wang%NULL%2,                      Fei%Tong%NULL%2,                      Shike%Geng%NULL%2,                      Aijun%Pan%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%0,                      Qing%Mei%NULL%0,                      Tianjun%Yang%NULL%0,                      Lei%Li%NULL%0,                      Yinzhong%Wang%NULL%0,                      Fei%Tong%NULL%0,                      Shike%Geng%NULL%0,                      Aijun%Pan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%2,                      Shui-Bao%Xu%NULL%2,                      Yi-Xiao%Lin%NULL%2,                      Di%Tian%NULL%2,                      Zhao-Qin%Zhu%NULL%2,                      Fa-Hui%Dai%NULL%2,                      Fan%Wu%NULL%2,                      Zhi-Gang%Song%NULL%2,                      Wei%Huang%NULL%2,                      Jun%Chen%NULL%0,                      Bi-Jie%Hu%NULL%2,                      Sheng%Wang%NULL%2,                      En-Qiang%Mao%NULL%2,                      Lei%Zhu%NULL%2,                      Wen-Hong%Zhang%NULL%2,                      Hong-Zhou%Lu%NULL%2,                      Peng%Lyu%NULL%4,                      Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%0,                      Taige%Chen%NULL%1,                      Yang%Wang%NULL%1,                      Jun%Wang%NULL%2,                      Fangrong%Yan%f.r.yan@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%0,                      Weiwei%Jiang%NULL%1,                      Qi%He%NULL%1,                      Cheng%Wang%NULL%3,                      Baoju%Wang%NULL%1,                      Pan%Zhou%NULL%1,                      Nianguo%Dong%dongnianguo63@gmail.com%1,                      Qiaoxia%Tong%2013xh0859@hust.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ J.%Wu%null%1,                       J.% Huang%null%1,                       G.% Zhu%null%1,                       Y.% Liu%null%2,                       H.% Xiao%null%1,                       Q.% Zhou%null%1,                       X.% Si%null%1,                       H.% Yi%null%1,                       C.% Wang%null%0,                       D.% Yang%null%1,                       S.% Chen%null%1,                       X.% Liu%null%1,                       Z.% Liu%null%1,                       Q.% Wang%null%1,                       Q.% Lv%null%1,                       Y.% Huang%null%1,                       Y.% Yu%null%1,                       X.% Guan%null%1,                       Y.% Li%null%3,                       K.% Nirantharakumar%null%1,                       K.% Cheng%null%1,                       S.% Peng%null%1,                       H. % Xiao%null%1,    J.%Wu%null%1,    J.% Huang%null%1,    G.% Zhu%null%1,    Y.% Liu%null%2,    H.% Xiao%null%1,    Q.% Zhou%null%0,    X.% Si%null%1,    H.% Yi%null%1,    C.% Wang%null%0,    D.% Yang%null%0,    S.% Chen%null%1,    X.% Liu%null%1,    Z.% Liu%null%1,    Q.% Wang%null%1,    Q.% Lv%null%1,    Y.% Huang%null%1,    Y.% Yu%null%1,    X.% Guan%null%1,    Y.% Li%null%0,    K.% Nirantharakumar%null%1,    K.% Cheng%null%1,    S.% Peng%null%1,    H. % Xiao%null%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                      Yuan%Yu%NULL%0,                      Jiqian%Xu%NULL%0,                      Huaqing%Shu%NULL%0,                      Jia'an%Xia%NULL%0,                      Hong%Liu%NULL%0,                      Yongran%Wu%NULL%0,                      Lu%Zhang%NULL%0,                      Zhui%Yu%NULL%0,                      Minghao%Fang%NULL%0,                      Ting%Yu%NULL%0,                      Yaxin%Wang%NULL%0,                      Shangwen%Pan%NULL%0,                      Xiaojing%Zou%NULL%0,                      Shiying%Yuan%NULL%0,                      You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%0,                      Shirong%Li%NULL%1,                      Lingling%Pan%NULL%1,                      Boris%Tefsen%NULL%1,                      Yeshan%Li%NULL%1,                      Neil%French%NULL%1,                      Liyun%Chen%NULL%1,                      Gang%Yang%NULL%1,                      Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%2,                      Yisi%Liu%NULL%2,                      Dongdong%Tian%NULL%2,                      Cheng%Wang%NULL%0,                      Sa%Wang%NULL%2,                      Jing%Cheng%NULL%2,                      Ming%Hu%huming74@163.com%0,                      Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,                      Yue%Gao%gaoyue@bmi.ac.cn%3]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%0,                      Yisi%Liu%NULL%0,                      Dongdong%Tian%NULL%0,                      Cheng%Wang%NULL%0,                      Sa%Wang%NULL%0,                      Jing%Cheng%NULL%0,                      Ming%Hu%huming74@163.com%0,                      Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,                      Yue%Gao%gaoyue@bmi.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Rong-chang%Chen%NULL%1,                      Xiao-ping%Tang%NULL%1,                      Shou-yong%Tan%NULL%1,                      Bi-ling%Liang%NULL%1,                      Zhuo-yue%Wan%NULL%1,                      Ji-qian%Fang%NULL%1,                      Nanshan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Coyle%NULL%1,                      Efehi%Igbinomwanhia%NULL%1,                      Alejandro%Sanchez-Nadales%alejandro.sanchez2@advocatehealth.com%1,                      Sorin%Danciu%NULL%1,                      Chae%Chu%NULL%1,                      Nishit%Shah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Han%NULL%1,                      Mao%Jiang%NULL%1,                      Da%Xia%NULL%1,                      Lichao%He%NULL%1,                      Xin%Lv%NULL%1,                      Xiaohua%Liao%NULL%1,                      Jie%Meng%mengjie@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                      Yuan-Yuan%Fang%NULL%2,                      Yan%Deng%NULL%2,                      Wei%Liu%NULL%2,                      Mei-Fang%Wang%NULL%1,                      Jing-Ping%Ma%NULL%1,                      Wei%Xiao%NULL%2,                      Ying-Nan%Wang%NULL%1,                      Min-Hua%Zhong%NULL%1,                      Cheng-Hong%Li%NULL%1,                      Guang-Cai%Li%NULL%1,                      Hui-Guo%Liu%NULL%3,                      Xiu-Yuan%Hao%NULL%4,                      Xiu-Yuan%Hao%NULL%0,                      Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%0,                       Austin R%Morrison%NULL%1,                       Amit%Vahia%NULL%0,                       Zachary R%Smith%NULL%1,                       Zohra%Chaudhry%NULL%0,                       Pallavi%Bhargava%NULL%1,                       Joseph%Miller%NULL%0,                       Rachel M%Kenney%NULL%1,                       George%Alangaden%NULL%0,                       Mayur S%Ramesh%mramesh1@hfhs.org%1,                       Varidhi%Nauriyal%NULL%1,                       Jayanth%Lakshmikanth%NULL%1,                       Asif%Abdul Hamed%NULL%1,                       Owais%Nadeem%NULL%1,                       Kristin%Griebe%NULL%1,                       Joseph M%Johnson%NULL%1,                       Patrick%Bradley%NULL%1,                       Junior%Uduman%NULL%1,                       Sara%Hegab%NULL%1,                       Jennifer%Swiderek%NULL%1,                       Amanda%Godfrey%NULL%1,                       Jeffrey%Jennings%NULL%1,                       Jayna%Gardner-Gray%NULL%1,                       Adam%Ackerman%NULL%1,                       Jonathan%Lezotte%NULL%1,                       Joseph%Ruhala%NULL%1,                       Linoj%Samuel%NULL%1,                       Robert J%Tibbetts%NULL%1,                       Indira%Brar%NULL%0,                       John%McKinnon%NULL%1,                       Geehan%Suleyman%NULL%1,                       Nicholas%Yared%NULL%1,                       Erica%Herc%NULL%1,                       Jonathan%Williams%NULL%1,                       Odaliz Abreu%Lanfranco%NULL%1,                       Anne%Chen%NULL%0,                       Marcus%Zervos%NULL%1,                       Eric%Scher%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%2,                       Qing%Mei%NULL%2,                       Tianjun%Yang%NULL%2,                       Lei%Li%NULL%0,                       Yinzhong%Wang%NULL%2,                       Fei%Tong%NULL%2,                       Shike%Geng%NULL%2,                       Aijun%Pan%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%0,                       Qing%Mei%NULL%0,                       Tianjun%Yang%NULL%0,                       Lei%Li%NULL%0,                       Yinzhong%Wang%NULL%0,                       Fei%Tong%NULL%0,                       Shike%Geng%NULL%0,                       Aijun%Pan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%2,                       Shui-Bao%Xu%NULL%2,                       Yi-Xiao%Lin%NULL%2,                       Di%Tian%NULL%2,                       Zhao-Qin%Zhu%NULL%2,                       Fa-Hui%Dai%NULL%2,                       Fan%Wu%NULL%2,                       Zhi-Gang%Song%NULL%2,                       Wei%Huang%NULL%2,                       Jun%Chen%NULL%0,                       Bi-Jie%Hu%NULL%2,                       Sheng%Wang%NULL%2,                       En-Qiang%Mao%NULL%2,                       Lei%Zhu%NULL%2,                       Wen-Hong%Zhang%NULL%2,                       Hong-Zhou%Lu%NULL%2,                       Peng%Lyu%NULL%4,                       Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%0,                       Taige%Chen%NULL%1,                       Yang%Wang%NULL%1,                       Jun%Wang%NULL%2,                       Fangrong%Yan%f.r.yan@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%0,                       Weiwei%Jiang%NULL%1,                       Qi%He%NULL%1,                       Cheng%Wang%NULL%3,                       Baoju%Wang%NULL%1,                       Pan%Zhou%NULL%1,                       Nianguo%Dong%dongnianguo63@gmail.com%1,                       Qiaoxia%Tong%2013xh0859@hust.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ J.%Wu%null%1,                        J.% Huang%null%1,                        G.% Zhu%null%1,                        Y.% Liu%null%2,                        H.% Xiao%null%1,                        Q.% Zhou%null%1,                        X.% Si%null%1,                        H.% Yi%null%1,                        C.% Wang%null%0,                        D.% Yang%null%1,                        S.% Chen%null%1,                        X.% Liu%null%1,                        Z.% Liu%null%1,                        Q.% Wang%null%1,                        Q.% Lv%null%1,                        Y.% Huang%null%1,                        Y.% Yu%null%1,                        X.% Guan%null%1,                        Y.% Li%null%3,                        K.% Nirantharakumar%null%1,                        K.% Cheng%null%1,                        S.% Peng%null%1,                        H. % Xiao%null%1,     J.%Wu%null%1,     J.% Huang%null%1,     G.% Zhu%null%1,     Y.% Liu%null%2,     H.% Xiao%null%1,     Q.% Zhou%null%0,     X.% Si%null%1,     H.% Yi%null%1,     C.% Wang%null%0,     D.% Yang%null%0,     S.% Chen%null%1,     X.% Liu%null%1,     Z.% Liu%null%1,     Q.% Wang%null%1,     Q.% Lv%null%1,     Y.% Huang%null%1,     Y.% Yu%null%1,     X.% Guan%null%1,     Y.% Li%null%0,     K.% Nirantharakumar%null%1,     K.% Cheng%null%1,     S.% Peng%null%1,     H. % Xiao%null%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                       Yuan%Yu%NULL%0,                       Jiqian%Xu%NULL%0,                       Huaqing%Shu%NULL%0,                       Jia'an%Xia%NULL%0,                       Hong%Liu%NULL%0,                       Yongran%Wu%NULL%0,                       Lu%Zhang%NULL%0,                       Zhui%Yu%NULL%0,                       Minghao%Fang%NULL%0,                       Ting%Yu%NULL%0,                       Yaxin%Wang%NULL%0,                       Shangwen%Pan%NULL%0,                       Xiaojing%Zou%NULL%0,                       Shiying%Yuan%NULL%0,                       You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%0,                       Shirong%Li%NULL%1,                       Lingling%Pan%NULL%1,                       Boris%Tefsen%NULL%1,                       Yeshan%Li%NULL%1,                       Neil%French%NULL%1,                       Liyun%Chen%NULL%1,                       Gang%Yang%NULL%1,                       Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%2,                       Yisi%Liu%NULL%2,                       Dongdong%Tian%NULL%2,                       Cheng%Wang%NULL%0,                       Sa%Wang%NULL%2,                       Jing%Cheng%NULL%2,                       Ming%Hu%huming74@163.com%0,                       Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,                       Yue%Gao%gaoyue@bmi.ac.cn%3]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%0,                       Yisi%Liu%NULL%0,                       Dongdong%Tian%NULL%0,                       Cheng%Wang%NULL%0,                       Sa%Wang%NULL%0,                       Jing%Cheng%NULL%0,                       Ming%Hu%huming74@163.com%0,                       Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,                       Yue%Gao%gaoyue@bmi.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Rong-chang%Chen%NULL%1,                       Xiao-ping%Tang%NULL%1,                       Shou-yong%Tan%NULL%1,                       Bi-ling%Liang%NULL%1,                       Zhuo-yue%Wan%NULL%1,                       Ji-qian%Fang%NULL%1,                       Nanshan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Coyle%NULL%1,                       Efehi%Igbinomwanhia%NULL%1,                       Alejandro%Sanchez-Nadales%alejandro.sanchez2@advocatehealth.com%1,                       Sorin%Danciu%NULL%1,                       Chae%Chu%NULL%1,                       Nishit%Shah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Han%NULL%1,                       Mao%Jiang%NULL%1,                       Da%Xia%NULL%1,                       Lichao%He%NULL%1,                       Xin%Lv%NULL%1,                       Xiaohua%Liao%NULL%1,                       Jie%Meng%mengjie@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                       Yuan-Yuan%Fang%NULL%2,                       Yan%Deng%NULL%2,                       Wei%Liu%NULL%2,                       Mei-Fang%Wang%NULL%1,                       Jing-Ping%Ma%NULL%1,                       Wei%Xiao%NULL%2,                       Ying-Nan%Wang%NULL%1,                       Min-Hua%Zhong%NULL%1,                       Cheng-Hong%Li%NULL%1,                       Guang-Cai%Li%NULL%1,                       Hui-Guo%Liu%NULL%3,                       Xiu-Yuan%Hao%NULL%4,                       Xiu-Yuan%Hao%NULL%0,                       Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%0,                        Austin R%Morrison%NULL%1,                        Amit%Vahia%NULL%0,                        Zachary R%Smith%NULL%1,                        Zohra%Chaudhry%NULL%0,                        Pallavi%Bhargava%NULL%1,                        Joseph%Miller%NULL%0,                        Rachel M%Kenney%NULL%1,                        George%Alangaden%NULL%0,                        Mayur S%Ramesh%mramesh1@hfhs.org%1,                        Varidhi%Nauriyal%NULL%1,                        Jayanth%Lakshmikanth%NULL%1,                        Asif%Abdul Hamed%NULL%1,                        Owais%Nadeem%NULL%1,                        Kristin%Griebe%NULL%1,                        Joseph M%Johnson%NULL%1,                        Patrick%Bradley%NULL%1,                        Junior%Uduman%NULL%1,                        Sara%Hegab%NULL%1,                        Jennifer%Swiderek%NULL%1,                        Amanda%Godfrey%NULL%1,                        Jeffrey%Jennings%NULL%1,                        Jayna%Gardner-Gray%NULL%1,                        Adam%Ackerman%NULL%1,                        Jonathan%Lezotte%NULL%1,                        Joseph%Ruhala%NULL%1,                        Linoj%Samuel%NULL%1,                        Robert J%Tibbetts%NULL%1,                        Indira%Brar%NULL%0,                        John%McKinnon%NULL%1,                        Geehan%Suleyman%NULL%1,                        Nicholas%Yared%NULL%1,                        Erica%Herc%NULL%1,                        Jonathan%Williams%NULL%1,                        Odaliz Abreu%Lanfranco%NULL%1,                        Anne%Chen%NULL%0,                        Marcus%Zervos%NULL%1,                        Eric%Scher%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%2,                        Qing%Mei%NULL%2,                        Tianjun%Yang%NULL%2,                        Lei%Li%NULL%0,                        Yinzhong%Wang%NULL%2,                        Fei%Tong%NULL%2,                        Shike%Geng%NULL%2,                        Aijun%Pan%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%0,                        Qing%Mei%NULL%0,                        Tianjun%Yang%NULL%0,                        Lei%Li%NULL%0,                        Yinzhong%Wang%NULL%0,                        Fei%Tong%NULL%0,                        Shike%Geng%NULL%0,                        Aijun%Pan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%2,                        Shui-Bao%Xu%NULL%2,                        Yi-Xiao%Lin%NULL%2,                        Di%Tian%NULL%2,                        Zhao-Qin%Zhu%NULL%2,                        Fa-Hui%Dai%NULL%2,                        Fan%Wu%NULL%2,                        Zhi-Gang%Song%NULL%2,                        Wei%Huang%NULL%2,                        Jun%Chen%NULL%0,                        Bi-Jie%Hu%NULL%2,                        Sheng%Wang%NULL%2,                        En-Qiang%Mao%NULL%2,                        Lei%Zhu%NULL%2,                        Wen-Hong%Zhang%NULL%2,                        Hong-Zhou%Lu%NULL%2,                        Peng%Lyu%NULL%4,                        Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%0,                        Taige%Chen%NULL%1,                        Yang%Wang%NULL%1,                        Jun%Wang%NULL%2,                        Fangrong%Yan%f.r.yan@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%0,                        Weiwei%Jiang%NULL%1,                        Qi%He%NULL%1,                        Cheng%Wang%NULL%3,                        Baoju%Wang%NULL%1,                        Pan%Zhou%NULL%1,                        Nianguo%Dong%dongnianguo63@gmail.com%1,                        Qiaoxia%Tong%2013xh0859@hust.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ J.%Wu%null%1,                         J.% Huang%null%1,                         G.% Zhu%null%1,                         Y.% Liu%null%2,                         H.% Xiao%null%1,                         Q.% Zhou%null%1,                         X.% Si%null%1,                         H.% Yi%null%1,                         C.% Wang%null%0,                         D.% Yang%null%1,                         S.% Chen%null%1,                         X.% Liu%null%1,                         Z.% Liu%null%1,                         Q.% Wang%null%1,                         Q.% Lv%null%1,                         Y.% Huang%null%1,                         Y.% Yu%null%1,                         X.% Guan%null%1,                         Y.% Li%null%3,                         K.% Nirantharakumar%null%1,                         K.% Cheng%null%1,                         S.% Peng%null%1,                         H. % Xiao%null%1,      J.%Wu%null%1,      J.% Huang%null%1,      G.% Zhu%null%1,      Y.% Liu%null%2,      H.% Xiao%null%1,      Q.% Zhou%null%0,      X.% Si%null%1,      H.% Yi%null%1,      C.% Wang%null%0,      D.% Yang%null%0,      S.% Chen%null%1,      X.% Liu%null%1,      Z.% Liu%null%1,      Q.% Wang%null%1,      Q.% Lv%null%1,      Y.% Huang%null%1,      Y.% Yu%null%1,      X.% Guan%null%1,      Y.% Li%null%0,      K.% Nirantharakumar%null%1,      K.% Cheng%null%1,      S.% Peng%null%1,      H. % Xiao%null%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                        Yuan%Yu%NULL%0,                        Jiqian%Xu%NULL%0,                        Huaqing%Shu%NULL%0,                        Jia'an%Xia%NULL%0,                        Hong%Liu%NULL%0,                        Yongran%Wu%NULL%0,                        Lu%Zhang%NULL%0,                        Zhui%Yu%NULL%0,                        Minghao%Fang%NULL%0,                        Ting%Yu%NULL%0,                        Yaxin%Wang%NULL%0,                        Shangwen%Pan%NULL%0,                        Xiaojing%Zou%NULL%0,                        Shiying%Yuan%NULL%0,                        You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%0,                        Shirong%Li%NULL%1,                        Lingling%Pan%NULL%1,                        Boris%Tefsen%NULL%1,                        Yeshan%Li%NULL%1,                        Neil%French%NULL%1,                        Liyun%Chen%NULL%1,                        Gang%Yang%NULL%1,                        Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%2,                        Yisi%Liu%NULL%2,                        Dongdong%Tian%NULL%2,                        Cheng%Wang%NULL%0,                        Sa%Wang%NULL%2,                        Jing%Cheng%NULL%2,                        Ming%Hu%huming74@163.com%0,                        Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,                        Yue%Gao%gaoyue@bmi.ac.cn%3]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%0,                        Yisi%Liu%NULL%0,                        Dongdong%Tian%NULL%0,                        Cheng%Wang%NULL%0,                        Sa%Wang%NULL%0,                        Jing%Cheng%NULL%0,                        Ming%Hu%huming74@163.com%0,                        Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,                        Yue%Gao%gaoyue@bmi.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Rong-chang%Chen%NULL%1,                        Xiao-ping%Tang%NULL%1,                        Shou-yong%Tan%NULL%1,                        Bi-ling%Liang%NULL%1,                        Zhuo-yue%Wan%NULL%1,                        Ji-qian%Fang%NULL%1,                        Nanshan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Coyle%NULL%1,                        Efehi%Igbinomwanhia%NULL%1,                        Alejandro%Sanchez-Nadales%alejandro.sanchez2@advocatehealth.com%1,                        Sorin%Danciu%NULL%1,                        Chae%Chu%NULL%1,                        Nishit%Shah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Han%NULL%1,                        Mao%Jiang%NULL%1,                        Da%Xia%NULL%1,                        Lichao%He%NULL%1,                        Xin%Lv%NULL%1,                        Xiaohua%Liao%NULL%1,                        Jie%Meng%mengjie@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                        Yuan-Yuan%Fang%NULL%2,                        Yan%Deng%NULL%2,                        Wei%Liu%NULL%2,                        Mei-Fang%Wang%NULL%1,                        Jing-Ping%Ma%NULL%1,                        Wei%Xiao%NULL%2,                        Ying-Nan%Wang%NULL%1,                        Min-Hua%Zhong%NULL%1,                        Cheng-Hong%Li%NULL%1,                        Guang-Cai%Li%NULL%1,                        Hui-Guo%Liu%NULL%3,                        Xiu-Yuan%Hao%NULL%4,                        Xiu-Yuan%Hao%NULL%0,                        Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%0,                         Austin R%Morrison%NULL%1,                         Amit%Vahia%NULL%0,                         Zachary R%Smith%NULL%1,                         Zohra%Chaudhry%NULL%0,                         Pallavi%Bhargava%NULL%1,                         Joseph%Miller%NULL%0,                         Rachel M%Kenney%NULL%1,                         George%Alangaden%NULL%0,                         Mayur S%Ramesh%mramesh1@hfhs.org%1,                         Varidhi%Nauriyal%NULL%1,                         Jayanth%Lakshmikanth%NULL%1,                         Asif%Abdul Hamed%NULL%1,                         Owais%Nadeem%NULL%1,                         Kristin%Griebe%NULL%1,                         Joseph M%Johnson%NULL%1,                         Patrick%Bradley%NULL%1,                         Junior%Uduman%NULL%1,                         Sara%Hegab%NULL%1,                         Jennifer%Swiderek%NULL%1,                         Amanda%Godfrey%NULL%1,                         Jeffrey%Jennings%NULL%1,                         Jayna%Gardner-Gray%NULL%1,                         Adam%Ackerman%NULL%1,                         Jonathan%Lezotte%NULL%1,                         Joseph%Ruhala%NULL%1,                         Linoj%Samuel%NULL%1,                         Robert J%Tibbetts%NULL%1,                         Indira%Brar%NULL%0,                         John%McKinnon%NULL%1,                         Geehan%Suleyman%NULL%1,                         Nicholas%Yared%NULL%1,                         Erica%Herc%NULL%1,                         Jonathan%Williams%NULL%1,                         Odaliz Abreu%Lanfranco%NULL%1,                         Anne%Chen%NULL%0,                         Marcus%Zervos%NULL%1,                         Eric%Scher%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%2,                         Qing%Mei%NULL%2,                         Tianjun%Yang%NULL%2,                         Lei%Li%NULL%0,                         Yinzhong%Wang%NULL%2,                         Fei%Tong%NULL%2,                         Shike%Geng%NULL%2,                         Aijun%Pan%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%0,                         Qing%Mei%NULL%0,                         Tianjun%Yang%NULL%0,                         Lei%Li%NULL%0,                         Yinzhong%Wang%NULL%0,                         Fei%Tong%NULL%0,                         Shike%Geng%NULL%0,                         Aijun%Pan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%2,                         Shui-Bao%Xu%NULL%2,                         Yi-Xiao%Lin%NULL%2,                         Di%Tian%NULL%2,                         Zhao-Qin%Zhu%NULL%2,                         Fa-Hui%Dai%NULL%2,                         Fan%Wu%NULL%2,                         Zhi-Gang%Song%NULL%2,                         Wei%Huang%NULL%2,                         Jun%Chen%NULL%0,                         Bi-Jie%Hu%NULL%2,                         Sheng%Wang%NULL%2,                         En-Qiang%Mao%NULL%2,                         Lei%Zhu%NULL%2,                         Wen-Hong%Zhang%NULL%2,                         Hong-Zhou%Lu%NULL%2,                         Peng%Lyu%NULL%4,                         Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%0,                         Taige%Chen%NULL%1,                         Yang%Wang%NULL%1,                         Jun%Wang%NULL%2,                         Fangrong%Yan%f.r.yan@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%0,                         Weiwei%Jiang%NULL%1,                         Qi%He%NULL%1,                         Cheng%Wang%NULL%3,                         Baoju%Wang%NULL%1,                         Pan%Zhou%NULL%1,                         Nianguo%Dong%dongnianguo63@gmail.com%1,                         Qiaoxia%Tong%2013xh0859@hust.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ J.%Wu%null%1,                          J.% Huang%null%1,                          G.% Zhu%null%1,                          Y.% Liu%null%2,                          H.% Xiao%null%1,                          Q.% Zhou%null%1,                          X.% Si%null%1,                          H.% Yi%null%1,                          C.% Wang%null%0,                          D.% Yang%null%1,                          S.% Chen%null%1,                          X.% Liu%null%1,                          Z.% Liu%null%1,                          Q.% Wang%null%1,                          Q.% Lv%null%1,                          Y.% Huang%null%1,                          Y.% Yu%null%1,                          X.% Guan%null%1,                          Y.% Li%null%3,                          K.% Nirantharakumar%null%1,                          K.% Cheng%null%1,                          S.% Peng%null%1,                          H. % Xiao%null%1,       J.%Wu%null%1,       J.% Huang%null%1,       G.% Zhu%null%1,       Y.% Liu%null%2,       H.% Xiao%null%1,       Q.% Zhou%null%0,       X.% Si%null%1,       H.% Yi%null%1,       C.% Wang%null%0,       D.% Yang%null%0,       S.% Chen%null%1,       X.% Liu%null%1,       Z.% Liu%null%1,       Q.% Wang%null%1,       Q.% Lv%null%1,       Y.% Huang%null%1,       Y.% Yu%null%1,       X.% Guan%null%1,       Y.% Li%null%0,       K.% Nirantharakumar%null%1,       K.% Cheng%null%1,       S.% Peng%null%1,       H. % Xiao%null%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                         Yuan%Yu%NULL%0,                         Jiqian%Xu%NULL%0,                         Huaqing%Shu%NULL%0,                         Jia'an%Xia%NULL%0,                         Hong%Liu%NULL%0,                         Yongran%Wu%NULL%0,                         Lu%Zhang%NULL%0,                         Zhui%Yu%NULL%0,                         Minghao%Fang%NULL%0,                         Ting%Yu%NULL%0,                         Yaxin%Wang%NULL%0,                         Shangwen%Pan%NULL%0,                         Xiaojing%Zou%NULL%0,                         Shiying%Yuan%NULL%0,                         You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%0,                         Shirong%Li%NULL%1,                         Lingling%Pan%NULL%1,                         Boris%Tefsen%NULL%1,                         Yeshan%Li%NULL%1,                         Neil%French%NULL%1,                         Liyun%Chen%NULL%1,                         Gang%Yang%NULL%1,                         Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%2,                         Yisi%Liu%NULL%2,                         Dongdong%Tian%NULL%2,                         Cheng%Wang%NULL%0,                         Sa%Wang%NULL%2,                         Jing%Cheng%NULL%2,                         Ming%Hu%huming74@163.com%0,                         Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,                         Yue%Gao%gaoyue@bmi.ac.cn%3]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%0,                         Yisi%Liu%NULL%0,                         Dongdong%Tian%NULL%0,                         Cheng%Wang%NULL%0,                         Sa%Wang%NULL%0,                         Jing%Cheng%NULL%0,                         Ming%Hu%huming74@163.com%0,                         Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,                         Yue%Gao%gaoyue@bmi.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Rong-chang%Chen%NULL%1,                         Xiao-ping%Tang%NULL%1,                         Shou-yong%Tan%NULL%1,                         Bi-ling%Liang%NULL%1,                         Zhuo-yue%Wan%NULL%1,                         Ji-qian%Fang%NULL%1,                         Nanshan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Coyle%NULL%1,                         Efehi%Igbinomwanhia%NULL%1,                         Alejandro%Sanchez-Nadales%alejandro.sanchez2@advocatehealth.com%1,                         Sorin%Danciu%NULL%1,                         Chae%Chu%NULL%1,                         Nishit%Shah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Han%NULL%1,                         Mao%Jiang%NULL%1,                         Da%Xia%NULL%1,                         Lichao%He%NULL%1,                         Xin%Lv%NULL%1,                         Xiaohua%Liao%NULL%1,                         Jie%Meng%mengjie@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                         Yuan-Yuan%Fang%NULL%2,                         Yan%Deng%NULL%2,                         Wei%Liu%NULL%2,                         Mei-Fang%Wang%NULL%1,                         Jing-Ping%Ma%NULL%1,                         Wei%Xiao%NULL%2,                         Ying-Nan%Wang%NULL%1,                         Min-Hua%Zhong%NULL%1,                         Cheng-Hong%Li%NULL%1,                         Guang-Cai%Li%NULL%1,                         Hui-Guo%Liu%NULL%3,                         Xiu-Yuan%Hao%NULL%4,                         Xiu-Yuan%Hao%NULL%0,                         Pei-Fang%Wei%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1635,6 +1863,9 @@
       <c r="I1" t="s">
         <v>109</v>
       </c>
+      <c r="J1" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1650,7 +1881,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>374</v>
+        <v>450</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -1663,6 +1894,9 @@
       </c>
       <c r="I2" t="s">
         <v>356</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -1679,7 +1913,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>375</v>
+        <v>451</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1692,6 +1926,9 @@
       </c>
       <c r="I3" t="s">
         <v>358</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -1708,7 +1945,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>376</v>
+        <v>452</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1721,6 +1958,9 @@
       </c>
       <c r="I4" t="s">
         <v>358</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -1737,7 +1977,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>377</v>
+        <v>453</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1750,6 +1990,9 @@
       </c>
       <c r="I5" t="s">
         <v>356</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6">
@@ -1766,7 +2009,7 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>378</v>
+        <v>454</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1779,6 +2022,9 @@
       </c>
       <c r="I6" t="s">
         <v>362</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -1795,7 +2041,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>379</v>
+        <v>455</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1808,6 +2054,9 @@
       </c>
       <c r="I7" t="s">
         <v>362</v>
+      </c>
+      <c r="J7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8">
@@ -1824,7 +2073,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>380</v>
+        <v>456</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -1837,6 +2086,9 @@
       </c>
       <c r="I8" t="s">
         <v>365</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9">
@@ -1867,6 +2119,9 @@
       <c r="I9" t="s">
         <v>38</v>
       </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
@@ -1882,7 +2137,7 @@
         <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>381</v>
+        <v>457</v>
       </c>
       <c r="F10" t="s">
         <v>64</v>
@@ -1895,6 +2150,9 @@
       </c>
       <c r="I10" t="s">
         <v>358</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11">
@@ -1911,7 +2169,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>382</v>
+        <v>458</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -1924,6 +2182,9 @@
       </c>
       <c r="I11" t="s">
         <v>356</v>
+      </c>
+      <c r="J11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12">
@@ -1940,7 +2201,7 @@
         <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>383</v>
+        <v>459</v>
       </c>
       <c r="F12" t="s">
         <v>72</v>
@@ -1953,6 +2214,9 @@
       </c>
       <c r="I12" t="s">
         <v>362</v>
+      </c>
+      <c r="J12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13">
@@ -1969,7 +2233,7 @@
         <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>384</v>
+        <v>460</v>
       </c>
       <c r="F13" t="s">
         <v>72</v>
@@ -1982,6 +2246,9 @@
       </c>
       <c r="I13" t="s">
         <v>362</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14">
@@ -1998,7 +2265,7 @@
         <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>385</v>
+        <v>461</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>
@@ -2011,6 +2278,9 @@
       </c>
       <c r="I14" t="s">
         <v>358</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15">
@@ -2027,7 +2297,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>386</v>
+        <v>462</v>
       </c>
       <c r="F15" t="s">
         <v>83</v>
@@ -2040,6 +2310,9 @@
       </c>
       <c r="I15" t="s">
         <v>358</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16">
@@ -2056,7 +2329,7 @@
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>387</v>
+        <v>463</v>
       </c>
       <c r="F16" t="s">
         <v>88</v>
@@ -2069,6 +2342,9 @@
       </c>
       <c r="I16" t="s">
         <v>358</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17">
@@ -2085,7 +2361,7 @@
         <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>388</v>
+        <v>464</v>
       </c>
       <c r="F17" t="s">
         <v>93</v>
@@ -2098,6 +2374,9 @@
       </c>
       <c r="I17" t="s">
         <v>356</v>
+      </c>
+      <c r="J17" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18">
@@ -2126,6 +2405,9 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" t="s">
         <v>38</v>
       </c>
     </row>

--- a/Covid_19_Dataset_and_References/References/59.xlsx
+++ b/Covid_19_Dataset_and_References/References/59.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3370" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3658" uniqueCount="495">
   <si>
     <t>Doi</t>
   </si>
@@ -1535,6 +1535,96 @@
   </si>
   <si>
     <t>[Kui%Liu%NULL%0,                         Yuan-Yuan%Fang%NULL%2,                         Yan%Deng%NULL%2,                         Wei%Liu%NULL%2,                         Mei-Fang%Wang%NULL%1,                         Jing-Ping%Ma%NULL%1,                         Wei%Xiao%NULL%2,                         Ying-Nan%Wang%NULL%1,                         Min-Hua%Zhong%NULL%1,                         Cheng-Hong%Li%NULL%1,                         Guang-Cai%Li%NULL%1,                         Hui-Guo%Liu%NULL%3,                         Xiu-Yuan%Hao%NULL%4,                         Xiu-Yuan%Hao%NULL%0,                         Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%0,                          Austin R%Morrison%NULL%1,                          Amit%Vahia%NULL%0,                          Zachary R%Smith%NULL%1,                          Zohra%Chaudhry%NULL%0,                          Pallavi%Bhargava%NULL%1,                          Joseph%Miller%NULL%0,                          Rachel M%Kenney%NULL%1,                          George%Alangaden%NULL%0,                          Mayur S%Ramesh%mramesh1@hfhs.org%1,                          Varidhi%Nauriyal%NULL%1,                          Jayanth%Lakshmikanth%NULL%1,                          Asif%Abdul Hamed%NULL%1,                          Owais%Nadeem%NULL%1,                          Kristin%Griebe%NULL%1,                          Joseph M%Johnson%NULL%1,                          Patrick%Bradley%NULL%1,                          Junior%Uduman%NULL%1,                          Sara%Hegab%NULL%1,                          Jennifer%Swiderek%NULL%1,                          Amanda%Godfrey%NULL%1,                          Jeffrey%Jennings%NULL%1,                          Jayna%Gardner-Gray%NULL%1,                          Adam%Ackerman%NULL%1,                          Jonathan%Lezotte%NULL%1,                          Joseph%Ruhala%NULL%1,                          Linoj%Samuel%NULL%1,                          Robert J%Tibbetts%NULL%1,                          Indira%Brar%NULL%0,                          John%McKinnon%NULL%1,                          Geehan%Suleyman%NULL%1,                          Nicholas%Yared%NULL%1,                          Erica%Herc%NULL%1,                          Jonathan%Williams%NULL%1,                          Odaliz Abreu%Lanfranco%NULL%1,                          Anne%Chen%NULL%0,                          Marcus%Zervos%NULL%1,                          Eric%Scher%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%2,                          Qing%Mei%NULL%2,                          Tianjun%Yang%NULL%2,                          Lei%Li%NULL%0,                          Yinzhong%Wang%NULL%2,                          Fei%Tong%NULL%2,                          Shike%Geng%NULL%2,                          Aijun%Pan%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%0,                          Qing%Mei%NULL%0,                          Tianjun%Yang%NULL%0,                          Lei%Li%NULL%0,                          Yinzhong%Wang%NULL%0,                          Fei%Tong%NULL%0,                          Shike%Geng%NULL%0,                          Aijun%Pan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%2,                          Shui-Bao%Xu%NULL%2,                          Yi-Xiao%Lin%NULL%2,                          Di%Tian%NULL%2,                          Zhao-Qin%Zhu%NULL%2,                          Fa-Hui%Dai%NULL%2,                          Fan%Wu%NULL%2,                          Zhi-Gang%Song%NULL%2,                          Wei%Huang%NULL%2,                          Jun%Chen%NULL%0,                          Bi-Jie%Hu%NULL%2,                          Sheng%Wang%NULL%2,                          En-Qiang%Mao%NULL%2,                          Lei%Zhu%NULL%2,                          Wen-Hong%Zhang%NULL%2,                          Hong-Zhou%Lu%NULL%2,                          Peng%Lyu%NULL%4,                          Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%0,                          Taige%Chen%NULL%1,                          Yang%Wang%NULL%1,                          Jun%Wang%NULL%2,                          Fangrong%Yan%f.r.yan@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%0,                          Weiwei%Jiang%NULL%1,                          Qi%He%NULL%1,                          Cheng%Wang%NULL%3,                          Baoju%Wang%NULL%1,                          Pan%Zhou%NULL%1,                          Nianguo%Dong%dongnianguo63@gmail.com%1,                          Qiaoxia%Tong%2013xh0859@hust.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ J.%Wu%null%1,                           J.% Huang%null%1,                           G.% Zhu%null%1,                           Y.% Liu%null%2,                           H.% Xiao%null%1,                           Q.% Zhou%null%1,                           X.% Si%null%1,                           H.% Yi%null%1,                           C.% Wang%null%0,                           D.% Yang%null%1,                           S.% Chen%null%1,                           X.% Liu%null%1,                           Z.% Liu%null%1,                           Q.% Wang%null%1,                           Q.% Lv%null%1,                           Y.% Huang%null%1,                           Y.% Yu%null%1,                           X.% Guan%null%1,                           Y.% Li%null%3,                           K.% Nirantharakumar%null%1,                           K.% Cheng%null%1,                           S.% Peng%null%1,                           H. % Xiao%null%1,        J.%Wu%null%1,        J.% Huang%null%1,        G.% Zhu%null%1,        Y.% Liu%null%2,        H.% Xiao%null%1,        Q.% Zhou%null%0,        X.% Si%null%1,        H.% Yi%null%1,        C.% Wang%null%0,        D.% Yang%null%0,        S.% Chen%null%1,        X.% Liu%null%1,        Z.% Liu%null%1,        Q.% Wang%null%1,        Q.% Lv%null%1,        Y.% Huang%null%1,        Y.% Yu%null%1,        X.% Guan%null%1,        Y.% Li%null%0,        K.% Nirantharakumar%null%1,        K.% Cheng%null%1,        S.% Peng%null%1,        H. % Xiao%null%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                          Yuan%Yu%NULL%0,                          Jiqian%Xu%NULL%0,                          Huaqing%Shu%NULL%0,                          Jia'an%Xia%NULL%0,                          Hong%Liu%NULL%0,                          Yongran%Wu%NULL%0,                          Lu%Zhang%NULL%0,                          Zhui%Yu%NULL%0,                          Minghao%Fang%NULL%0,                          Ting%Yu%NULL%0,                          Yaxin%Wang%NULL%0,                          Shangwen%Pan%NULL%0,                          Xiaojing%Zou%NULL%0,                          Shiying%Yuan%NULL%0,                          You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%0,                          Shirong%Li%NULL%1,                          Lingling%Pan%NULL%1,                          Boris%Tefsen%NULL%1,                          Yeshan%Li%NULL%1,                          Neil%French%NULL%1,                          Liyun%Chen%NULL%1,                          Gang%Yang%NULL%1,                          Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%2,                          Yisi%Liu%NULL%2,                          Dongdong%Tian%NULL%2,                          Cheng%Wang%NULL%0,                          Sa%Wang%NULL%2,                          Jing%Cheng%NULL%2,                          Ming%Hu%huming74@163.com%0,                          Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,                          Yue%Gao%gaoyue@bmi.ac.cn%3]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%0,                          Yisi%Liu%NULL%0,                          Dongdong%Tian%NULL%0,                          Cheng%Wang%NULL%0,                          Sa%Wang%NULL%0,                          Jing%Cheng%NULL%0,                          Ming%Hu%huming74@163.com%0,                          Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,                          Yue%Gao%gaoyue@bmi.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Rong-chang%Chen%NULL%1,                          Xiao-ping%Tang%NULL%1,                          Shou-yong%Tan%NULL%1,                          Bi-ling%Liang%NULL%1,                          Zhuo-yue%Wan%NULL%1,                          Ji-qian%Fang%NULL%1,                          Nanshan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Coyle%NULL%1,                          Efehi%Igbinomwanhia%NULL%1,                          Alejandro%Sanchez-Nadales%alejandro.sanchez2@advocatehealth.com%1,                          Sorin%Danciu%NULL%1,                          Chae%Chu%NULL%1,                          Nishit%Shah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Han%NULL%1,                          Mao%Jiang%NULL%1,                          Da%Xia%NULL%1,                          Lichao%He%NULL%1,                          Xin%Lv%NULL%1,                          Xiaohua%Liao%NULL%1,                          Jie%Meng%mengjie@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                          Yuan-Yuan%Fang%NULL%2,                          Yan%Deng%NULL%2,                          Wei%Liu%NULL%2,                          Mei-Fang%Wang%NULL%1,                          Jing-Ping%Ma%NULL%1,                          Wei%Xiao%NULL%2,                          Ying-Nan%Wang%NULL%1,                          Min-Hua%Zhong%NULL%1,                          Cheng-Hong%Li%NULL%1,                          Guang-Cai%Li%NULL%1,                          Hui-Guo%Liu%NULL%3,                          Xiu-Yuan%Hao%NULL%4,                          Xiu-Yuan%Hao%NULL%0,                          Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%0,                           Austin R%Morrison%NULL%1,                           Amit%Vahia%NULL%0,                           Zachary R%Smith%NULL%1,                           Zohra%Chaudhry%NULL%0,                           Pallavi%Bhargava%NULL%1,                           Joseph%Miller%NULL%0,                           Rachel M%Kenney%NULL%1,                           George%Alangaden%NULL%0,                           Mayur S%Ramesh%mramesh1@hfhs.org%1,                           Varidhi%Nauriyal%NULL%1,                           Jayanth%Lakshmikanth%NULL%1,                           Asif%Abdul Hamed%NULL%1,                           Owais%Nadeem%NULL%1,                           Kristin%Griebe%NULL%1,                           Joseph M%Johnson%NULL%1,                           Patrick%Bradley%NULL%1,                           Junior%Uduman%NULL%1,                           Sara%Hegab%NULL%1,                           Jennifer%Swiderek%NULL%1,                           Amanda%Godfrey%NULL%1,                           Jeffrey%Jennings%NULL%1,                           Jayna%Gardner-Gray%NULL%1,                           Adam%Ackerman%NULL%1,                           Jonathan%Lezotte%NULL%1,                           Joseph%Ruhala%NULL%1,                           Linoj%Samuel%NULL%1,                           Robert J%Tibbetts%NULL%1,                           Indira%Brar%NULL%0,                           John%McKinnon%NULL%1,                           Geehan%Suleyman%NULL%1,                           Nicholas%Yared%NULL%1,                           Erica%Herc%NULL%1,                           Jonathan%Williams%NULL%1,                           Odaliz Abreu%Lanfranco%NULL%1,                           Anne%Chen%NULL%0,                           Marcus%Zervos%NULL%1,                           Eric%Scher%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%2,                           Qing%Mei%NULL%2,                           Tianjun%Yang%NULL%2,                           Lei%Li%NULL%0,                           Yinzhong%Wang%NULL%2,                           Fei%Tong%NULL%2,                           Shike%Geng%NULL%2,                           Aijun%Pan%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%0,                           Qing%Mei%NULL%0,                           Tianjun%Yang%NULL%0,                           Lei%Li%NULL%0,                           Yinzhong%Wang%NULL%0,                           Fei%Tong%NULL%0,                           Shike%Geng%NULL%0,                           Aijun%Pan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%2,                           Shui-Bao%Xu%NULL%2,                           Yi-Xiao%Lin%NULL%2,                           Di%Tian%NULL%2,                           Zhao-Qin%Zhu%NULL%2,                           Fa-Hui%Dai%NULL%2,                           Fan%Wu%NULL%2,                           Zhi-Gang%Song%NULL%2,                           Wei%Huang%NULL%2,                           Jun%Chen%NULL%0,                           Bi-Jie%Hu%NULL%2,                           Sheng%Wang%NULL%2,                           En-Qiang%Mao%NULL%2,                           Lei%Zhu%NULL%2,                           Wen-Hong%Zhang%NULL%2,                           Hong-Zhou%Lu%NULL%2,                           Peng%Lyu%NULL%4,                           Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%0,                           Taige%Chen%NULL%1,                           Yang%Wang%NULL%1,                           Jun%Wang%NULL%2,                           Fangrong%Yan%f.r.yan@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%0,                           Weiwei%Jiang%NULL%1,                           Qi%He%NULL%1,                           Cheng%Wang%NULL%3,                           Baoju%Wang%NULL%1,                           Pan%Zhou%NULL%1,                           Nianguo%Dong%dongnianguo63@gmail.com%1,                           Qiaoxia%Tong%2013xh0859@hust.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ J.%Wu%null%1,                            J.% Huang%null%1,                            G.% Zhu%null%1,                            Y.% Liu%null%2,                            H.% Xiao%null%1,                            Q.% Zhou%null%1,                            X.% Si%null%1,                            H.% Yi%null%1,                            C.% Wang%null%0,                            D.% Yang%null%1,                            S.% Chen%null%1,                            X.% Liu%null%1,                            Z.% Liu%null%1,                            Q.% Wang%null%1,                            Q.% Lv%null%1,                            Y.% Huang%null%1,                            Y.% Yu%null%1,                            X.% Guan%null%1,                            Y.% Li%null%3,                            K.% Nirantharakumar%null%1,                            K.% Cheng%null%1,                            S.% Peng%null%1,                            H. % Xiao%null%1,         J.%Wu%null%1,         J.% Huang%null%1,         G.% Zhu%null%1,         Y.% Liu%null%2,         H.% Xiao%null%1,         Q.% Zhou%null%0,         X.% Si%null%1,         H.% Yi%null%1,         C.% Wang%null%0,         D.% Yang%null%0,         S.% Chen%null%1,         X.% Liu%null%1,         Z.% Liu%null%1,         Q.% Wang%null%1,         Q.% Lv%null%1,         Y.% Huang%null%1,         Y.% Yu%null%1,         X.% Guan%null%1,         Y.% Li%null%0,         K.% Nirantharakumar%null%1,         K.% Cheng%null%1,         S.% Peng%null%1,         H. % Xiao%null%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                           Yuan%Yu%NULL%0,                           Jiqian%Xu%NULL%0,                           Huaqing%Shu%NULL%0,                           Jia'an%Xia%NULL%0,                           Hong%Liu%NULL%0,                           Yongran%Wu%NULL%0,                           Lu%Zhang%NULL%0,                           Zhui%Yu%NULL%0,                           Minghao%Fang%NULL%0,                           Ting%Yu%NULL%0,                           Yaxin%Wang%NULL%0,                           Shangwen%Pan%NULL%0,                           Xiaojing%Zou%NULL%0,                           Shiying%Yuan%NULL%0,                           You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%0,                           Shirong%Li%NULL%1,                           Lingling%Pan%NULL%1,                           Boris%Tefsen%NULL%1,                           Yeshan%Li%NULL%1,                           Neil%French%NULL%1,                           Liyun%Chen%NULL%1,                           Gang%Yang%NULL%1,                           Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%2,                           Yisi%Liu%NULL%2,                           Dongdong%Tian%NULL%2,                           Cheng%Wang%NULL%0,                           Sa%Wang%NULL%2,                           Jing%Cheng%NULL%2,                           Ming%Hu%huming74@163.com%0,                           Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,                           Yue%Gao%gaoyue@bmi.ac.cn%3]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%0,                           Yisi%Liu%NULL%0,                           Dongdong%Tian%NULL%0,                           Cheng%Wang%NULL%0,                           Sa%Wang%NULL%0,                           Jing%Cheng%NULL%0,                           Ming%Hu%huming74@163.com%0,                           Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,                           Yue%Gao%gaoyue@bmi.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Rong-chang%Chen%NULL%1,                           Xiao-ping%Tang%NULL%1,                           Shou-yong%Tan%NULL%1,                           Bi-ling%Liang%NULL%1,                           Zhuo-yue%Wan%NULL%1,                           Ji-qian%Fang%NULL%1,                           Nanshan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Coyle%NULL%1,                           Efehi%Igbinomwanhia%NULL%1,                           Alejandro%Sanchez-Nadales%alejandro.sanchez2@advocatehealth.com%1,                           Sorin%Danciu%NULL%1,                           Chae%Chu%NULL%1,                           Nishit%Shah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Han%NULL%1,                           Mao%Jiang%NULL%1,                           Da%Xia%NULL%1,                           Lichao%He%NULL%1,                           Xin%Lv%NULL%1,                           Xiaohua%Liao%NULL%1,                           Jie%Meng%mengjie@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                           Yuan-Yuan%Fang%NULL%2,                           Yan%Deng%NULL%2,                           Wei%Liu%NULL%2,                           Mei-Fang%Wang%NULL%1,                           Jing-Ping%Ma%NULL%1,                           Wei%Xiao%NULL%2,                           Ying-Nan%Wang%NULL%1,                           Min-Hua%Zhong%NULL%1,                           Cheng-Hong%Li%NULL%1,                           Guang-Cai%Li%NULL%1,                           Hui-Guo%Liu%NULL%3,                           Xiu-Yuan%Hao%NULL%4,                           Xiu-Yuan%Hao%NULL%0,                           Pei-Fang%Wei%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1881,7 +1971,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -1913,7 +2003,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1945,7 +2035,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1977,7 +2067,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -2009,7 +2099,7 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -2041,7 +2131,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -2073,7 +2163,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>456</v>
+        <v>486</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -2137,7 +2227,7 @@
         <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="F10" t="s">
         <v>64</v>
@@ -2169,7 +2259,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -2201,7 +2291,7 @@
         <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="F12" t="s">
         <v>72</v>
@@ -2233,7 +2323,7 @@
         <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="F13" t="s">
         <v>72</v>
@@ -2265,7 +2355,7 @@
         <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>461</v>
+        <v>491</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>
@@ -2297,7 +2387,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>462</v>
+        <v>492</v>
       </c>
       <c r="F15" t="s">
         <v>83</v>
@@ -2329,7 +2419,7 @@
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="F16" t="s">
         <v>88</v>
@@ -2361,7 +2451,7 @@
         <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>464</v>
+        <v>494</v>
       </c>
       <c r="F17" t="s">
         <v>93</v>
